--- a/Documents/Pre-release_metadata_CoreGenericHealth_p2.xlsx
+++ b/Documents/Pre-release_metadata_CoreGenericHealth_p2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/Plateau2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{2170A1B4-1464-419C-979D-ACB956686BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{389A3A1D-07A7-4696-836A-5774C16F7F4C}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{2170A1B4-1464-419C-979D-ACB956686BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83D3C79-F7BF-4174-B5A7-1BC6F9A69696}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-17085" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-12765" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="14" r:id="rId1"/>
     <sheet name="Dataset" sheetId="1" r:id="rId2"/>
-    <sheet name="Distribution" sheetId="3" r:id="rId3"/>
-    <sheet name="Catalogue" sheetId="4" r:id="rId4"/>
+    <sheet name="Catalogue" sheetId="4" r:id="rId3"/>
+    <sheet name="Distribution" sheetId="3" r:id="rId4"/>
     <sheet name="Agent" sheetId="7" r:id="rId5"/>
     <sheet name="Kind" sheetId="8" r:id="rId6"/>
     <sheet name="Project" sheetId="12" r:id="rId7"/>
@@ -29,10 +29,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Agent!$A$1:$J$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Catalogue!$A$1:$J$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Catalogue!$A$1:$J$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">DataService!$A$1:$J$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dataset!$A$1:$J$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Distribution!$A$1:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Distribution!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -482,9 +482,6 @@
     <t>dct:identifier</t>
   </si>
   <si>
-    <t>If your data is published in a repository, fill in with the provided DOI (Example: 10.5281/zenodo.10782800). If not, generate your own identifier (e.g., exampleID001). Ensure that metadata is updated if your situation changes.</t>
-  </si>
-  <si>
     <t>in series</t>
   </si>
   <si>
@@ -2016,12 +2013,16 @@
   <si>
     <t>https://publications.europa.eu/resource/authority/country</t>
   </si>
+  <si>
+    <t>Current status: Health-RI is currently working on a strategy for persistant identifiers for, among other things, datasets. Until a solid solution has been found, we propose the following temporary solution:
+If your data is published in a repository, fill in with the provided DOI (Example: 10.5281/zenodo.10782800). If not, use the identifier of the dataset as generated in the FAIR data point (FDP). Ensure that metadata is updated if your situation changes.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2317,6 +2318,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2384,7 +2392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2860,27 +2868,30 @@
     <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -2896,44 +2907,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5128,7 +5103,7 @@
   </sheetPr>
   <dimension ref="D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -5182,7 +5157,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="157" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E1" s="157" t="s">
         <v>4</v>
@@ -5205,10 +5180,10 @@
     </row>
     <row r="2" spans="1:10" ht="118.8">
       <c r="A2" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>444</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>445</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>12</v>
@@ -5217,7 +5192,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="138" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F2" s="61" t="s">
         <v>15</v>
@@ -5240,7 +5215,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>30</v>
@@ -5267,10 +5242,10 @@
     </row>
     <row r="4" spans="1:10" ht="72">
       <c r="A4" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>448</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>449</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>46</v>
@@ -5279,7 +5254,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="112" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>24</v>
@@ -5299,10 +5274,10 @@
     </row>
     <row r="5" spans="1:10" ht="43.2">
       <c r="A5" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="52" t="s">
         <v>451</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>452</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>50</v>
@@ -5311,7 +5286,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="148" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F5" s="56" t="s">
         <v>15</v>
@@ -5359,11 +5334,11 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>22</v>
@@ -5387,10 +5362,10 @@
     </row>
     <row r="8" spans="1:10" ht="52.8">
       <c r="A8" s="46" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>70</v>
@@ -5399,7 +5374,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="138" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F8" s="49" t="s">
         <v>15</v>
@@ -5419,19 +5394,19 @@
     </row>
     <row r="9" spans="1:10" ht="43.2">
       <c r="A9" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>457</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>458</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F9" s="55" t="s">
         <v>15</v>
@@ -5451,25 +5426,25 @@
     </row>
     <row r="10" spans="1:10" ht="57.6">
       <c r="A10" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>461</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>462</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H10" s="139">
         <v>1</v>
@@ -5483,23 +5458,23 @@
     </row>
     <row r="11" spans="1:10" ht="28.8">
       <c r="A11" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C11" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="105" t="s">
         <v>286</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>287</v>
       </c>
       <c r="E11" s="54"/>
       <c r="F11" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H11" s="57" t="s">
         <v>26</v>
@@ -5513,11 +5488,11 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="46" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>22</v>
@@ -5541,7 +5516,7 @@
     </row>
     <row r="13" spans="1:10" ht="72">
       <c r="A13" s="51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B13" s="52"/>
       <c r="C13" s="53" t="s">
@@ -5551,7 +5526,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F13" s="55" t="s">
         <v>15</v>
@@ -5571,13 +5546,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>22</v>
@@ -5601,19 +5576,19 @@
     </row>
     <row r="15" spans="1:10" ht="43.2">
       <c r="A15" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>470</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="C15" s="51" t="s">
         <v>471</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>472</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F15" s="109" t="s">
         <v>24</v>
@@ -5633,23 +5608,23 @@
     </row>
     <row r="16" spans="1:10" ht="28.8">
       <c r="A16" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="108" t="s">
-        <v>124</v>
-      </c>
       <c r="E16" s="48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="50" t="s">
         <v>26</v>
@@ -5663,25 +5638,25 @@
     </row>
     <row r="17" spans="1:10" ht="72">
       <c r="A17" s="51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="126" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="132" t="s">
         <v>475</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D17" s="126" t="s">
-        <v>296</v>
-      </c>
-      <c r="E17" s="132" t="s">
-        <v>476</v>
       </c>
       <c r="F17" s="55" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H17" s="57">
         <v>1</v>
@@ -5695,23 +5670,23 @@
     </row>
     <row r="18" spans="1:10" ht="57.6">
       <c r="A18" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F18" s="49" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="50" t="s">
         <v>66</v>
@@ -5725,11 +5700,11 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="52"/>
       <c r="C19" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>22</v>
@@ -5739,7 +5714,7 @@
         <v>24</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H19" s="57" t="s">
         <v>26</v>
@@ -5753,19 +5728,19 @@
     </row>
     <row r="20" spans="1:10" ht="57.6">
       <c r="A20" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F20" s="60" t="s">
         <v>15</v>
@@ -5785,19 +5760,19 @@
     </row>
     <row r="21" spans="1:10" ht="72">
       <c r="A21" s="51" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>481</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="C21" s="51" t="s">
         <v>482</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>483</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F21" s="55" t="s">
         <v>24</v>
@@ -5817,19 +5792,19 @@
     </row>
     <row r="22" spans="1:10" ht="57.6">
       <c r="A22" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="47" t="s">
         <v>485</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>486</v>
       </c>
       <c r="F22" s="61" t="s">
         <v>15</v>
@@ -5849,19 +5824,19 @@
     </row>
     <row r="23" spans="1:10" ht="43.2">
       <c r="A23" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F23" s="55" t="s">
         <v>15</v>
@@ -6350,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="157" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E1" s="157" t="s">
         <v>4</v>
@@ -6373,13 +6348,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="89" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="70" t="s">
         <v>489</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="C2" s="123" t="s">
         <v>490</v>
-      </c>
-      <c r="C2" s="123" t="s">
-        <v>491</v>
       </c>
       <c r="D2" s="89" t="s">
         <v>22</v>
@@ -6389,7 +6364,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>66</v>
@@ -6403,13 +6378,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="75" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>492</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="C3" s="124" t="s">
         <v>493</v>
-      </c>
-      <c r="C3" s="124" t="s">
-        <v>494</v>
       </c>
       <c r="D3" s="75" t="s">
         <v>22</v>
@@ -6419,7 +6394,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" s="79" t="s">
         <v>66</v>
@@ -7046,7 +7021,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="157" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E1" s="157" t="s">
         <v>4</v>
@@ -7069,25 +7044,25 @@
     </row>
     <row r="2" spans="1:10" ht="43.2">
       <c r="A2" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="C2" s="89" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="D2" s="127" t="s">
         <v>497</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="E2" s="90" t="s">
         <v>498</v>
-      </c>
-      <c r="E2" s="90" t="s">
-        <v>499</v>
       </c>
       <c r="F2" s="72" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H2" s="74">
         <v>1</v>
@@ -7101,13 +7076,13 @@
     </row>
     <row r="3" spans="1:10" ht="72">
       <c r="A3" s="76" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>501</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="C3" s="75" t="s">
         <v>502</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>503</v>
       </c>
       <c r="D3" s="77" t="s">
         <v>22</v>
@@ -7117,7 +7092,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="79" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H3" s="81">
         <v>1</v>
@@ -7784,13 +7759,13 @@
     </row>
     <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="94" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="C2" s="70" t="s">
         <v>506</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>507</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>22</v>
@@ -7798,7 +7773,7 @@
       <c r="E2" s="71"/>
       <c r="F2" s="95"/>
       <c r="G2" s="94" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H2" s="96" t="s">
         <v>66</v>
@@ -7812,13 +7787,13 @@
     </row>
     <row r="3" spans="1:10" ht="43.2">
       <c r="A3" s="98" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="C3" s="76" t="s">
         <v>510</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>511</v>
       </c>
       <c r="D3" s="75" t="s">
         <v>22</v>
@@ -7826,10 +7801,10 @@
       <c r="E3" s="77"/>
       <c r="F3" s="99"/>
       <c r="G3" s="100" t="s">
+        <v>511</v>
+      </c>
+      <c r="H3" s="75" t="s">
         <v>512</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>513</v>
       </c>
       <c r="I3" s="100" t="s">
         <v>17</v>
@@ -7840,13 +7815,13 @@
     </row>
     <row r="4" spans="1:10" ht="43.2">
       <c r="A4" s="94" t="s">
+        <v>513</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>514</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="C4" s="70" t="s">
         <v>515</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>516</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>22</v>
@@ -7854,10 +7829,10 @@
       <c r="E4" s="82"/>
       <c r="F4" s="95"/>
       <c r="G4" s="94" t="s">
+        <v>516</v>
+      </c>
+      <c r="H4" s="96" t="s">
         <v>517</v>
-      </c>
-      <c r="H4" s="96" t="s">
-        <v>518</v>
       </c>
       <c r="I4" s="97" t="s">
         <v>17</v>
@@ -7868,26 +7843,26 @@
     </row>
     <row r="5" spans="1:10" ht="43.2">
       <c r="A5" s="98" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="77" t="s">
         <v>519</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="C5" s="76" t="s">
         <v>520</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>521</v>
       </c>
       <c r="D5" s="75" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="99"/>
       <c r="G5" s="98" t="s">
+        <v>521</v>
+      </c>
+      <c r="H5" s="75" t="s">
         <v>522</v>
-      </c>
-      <c r="H5" s="75" t="s">
-        <v>523</v>
       </c>
       <c r="I5" s="100" t="s">
         <v>17</v>
@@ -7898,13 +7873,13 @@
     </row>
     <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="94" t="s">
+        <v>523</v>
+      </c>
+      <c r="B6" s="104" t="s">
         <v>524</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="C6" s="70" t="s">
         <v>525</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>526</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>22</v>
@@ -7912,10 +7887,10 @@
       <c r="E6" s="82"/>
       <c r="F6" s="95"/>
       <c r="G6" s="94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H6" s="96" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I6" s="97" t="s">
         <v>17</v>
@@ -7926,13 +7901,13 @@
     </row>
     <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="98" t="s">
+        <v>526</v>
+      </c>
+      <c r="B7" s="77" t="s">
         <v>527</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="C7" s="76" t="s">
         <v>528</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>529</v>
       </c>
       <c r="D7" s="75" t="s">
         <v>22</v>
@@ -7940,7 +7915,7 @@
       <c r="E7" s="85"/>
       <c r="F7" s="99"/>
       <c r="G7" s="98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H7" s="75">
         <v>1</v>
@@ -7954,23 +7929,23 @@
     </row>
     <row r="8" spans="1:10" ht="86.4">
       <c r="A8" s="94" t="s">
+        <v>529</v>
+      </c>
+      <c r="B8" s="82" t="s">
         <v>530</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="C8" s="70" t="s">
         <v>531</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>532</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="102" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F8" s="74"/>
       <c r="G8" s="94" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H8" s="96">
         <v>1</v>
@@ -7984,13 +7959,13 @@
     </row>
     <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="98" t="s">
+        <v>534</v>
+      </c>
+      <c r="B9" s="77" t="s">
         <v>535</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="C9" s="76" t="s">
         <v>536</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>537</v>
       </c>
       <c r="D9" s="75" t="s">
         <v>22</v>
@@ -7998,7 +7973,7 @@
       <c r="E9" s="77"/>
       <c r="F9" s="99"/>
       <c r="G9" s="100" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H9" s="75" t="s">
         <v>66</v>
@@ -8012,23 +7987,23 @@
     </row>
     <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="94" t="s">
+        <v>538</v>
+      </c>
+      <c r="B10" s="103" t="s">
         <v>539</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="C10" s="70" t="s">
         <v>540</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>541</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="103" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F10" s="95"/>
       <c r="G10" s="94" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H10" s="96" t="s">
         <v>26</v>
@@ -8445,8 +8420,8 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -8475,7 +8450,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="157" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E1" s="157" t="s">
         <v>4</v>
@@ -8909,92 +8884,92 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="164" t="s">
         <v>88</v>
       </c>
       <c r="D15" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="162" t="s">
+      <c r="E15" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="161" t="s">
+      <c r="F15" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="161" t="s">
+      <c r="G15" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="163" t="s">
+      <c r="H15" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="164" t="s">
+      <c r="I15" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="165" t="s">
+      <c r="J15" s="163" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="159"/>
-      <c r="B16" s="160"/>
-      <c r="C16" s="159"/>
+      <c r="A16" s="164"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="162"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="165"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="163"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="159"/>
-      <c r="B17" s="160"/>
-      <c r="C17" s="159"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="162"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="165"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="163"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="159"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="159"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="162"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="165"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="163"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="159"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="159"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="162"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="165"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="1:10" ht="28.8">
       <c r="A20" s="46" t="s">
@@ -9058,32 +9033,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.2">
-      <c r="A22" s="171" t="s">
+    <row r="22" spans="1:10" ht="86.4">
+      <c r="A22" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="172" t="s">
+      <c r="B22" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="171" t="s">
+      <c r="C22" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="171" t="s">
+      <c r="D22" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="177" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="178" t="s">
+      <c r="E22" s="172" t="s">
+        <v>544</v>
+      </c>
+      <c r="F22" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="174" t="s">
+      <c r="G22" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="175">
+      <c r="H22" s="50">
         <v>1</v>
       </c>
-      <c r="I22" s="176" t="s">
+      <c r="I22" s="45" t="s">
         <v>60</v>
       </c>
       <c r="J22" s="45" t="s">
@@ -9092,25 +9067,25 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="C23" s="51" t="s">
         <v>109</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>110</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="109" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H23" s="57" t="s">
         <v>26</v>
@@ -9123,29 +9098,29 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.2">
-      <c r="A24" s="171" t="s">
+      <c r="A24" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="172" t="s">
+      <c r="C24" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="171" t="s">
+      <c r="D24" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="179"/>
-      <c r="F24" s="174" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="174" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="175" t="s">
+      <c r="H24" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="176" t="s">
+      <c r="I24" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="45" t="s">
@@ -9154,19 +9129,19 @@
     </row>
     <row r="25" spans="1:10" ht="43.2">
       <c r="A25" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="C25" s="53" t="s">
         <v>118</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>119</v>
       </c>
       <c r="D25" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="148" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" s="55" t="s">
         <v>15</v>
@@ -9185,31 +9160,31 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="43.2">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="172" t="s">
+      <c r="C26" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="180" t="s">
+      <c r="D26" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="E26" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="177" t="s">
+      <c r="F26" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="174" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="175" t="s">
+      <c r="H26" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="176" t="s">
+      <c r="I26" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="45" t="s">
@@ -9218,25 +9193,25 @@
     </row>
     <row r="27" spans="1:10" ht="28.8">
       <c r="A27" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="C27" s="53" t="s">
         <v>128</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>129</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H27" s="57" t="s">
         <v>26</v>
@@ -9249,31 +9224,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="28.8">
-      <c r="A28" s="171" t="s">
+      <c r="A28" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="172" t="s">
+      <c r="C28" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="171" t="s">
+      <c r="D28" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="177" t="s">
+      <c r="F28" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="174" t="s">
-        <v>136</v>
-      </c>
-      <c r="H28" s="175" t="s">
+      <c r="H28" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="176" t="s">
+      <c r="I28" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="45" t="s">
@@ -9282,25 +9257,25 @@
     </row>
     <row r="29" spans="1:10" ht="28.8">
       <c r="A29" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="C29" s="53" t="s">
         <v>138</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>139</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H29" s="57" t="s">
         <v>66</v>
@@ -9313,31 +9288,31 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.2">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="172" t="s">
+      <c r="C30" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="171" t="s">
+      <c r="D30" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="172" t="s">
+      <c r="F30" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="174" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" s="175" t="s">
+      <c r="H30" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="176" t="s">
+      <c r="I30" s="45" t="s">
         <v>53</v>
       </c>
       <c r="J30" s="45" t="s">
@@ -9346,25 +9321,25 @@
     </row>
     <row r="31" spans="1:10" ht="28.8">
       <c r="A31" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="C31" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F31" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H31" s="57" t="s">
         <v>66</v>
@@ -9377,31 +9352,31 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="171" t="s">
+      <c r="A32" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="172" t="s">
+      <c r="C32" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="171" t="s">
+      <c r="D32" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="172" t="s">
-        <v>154</v>
-      </c>
-      <c r="F32" s="181" t="s">
+      <c r="F32" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="174" t="s">
-        <v>150</v>
-      </c>
-      <c r="H32" s="175" t="s">
+      <c r="G32" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="176" t="s">
+      <c r="I32" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="45" t="s">
@@ -9410,13 +9385,13 @@
     </row>
     <row r="33" spans="1:10" ht="43.2">
       <c r="A33" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="C33" s="51" t="s">
         <v>156</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>157</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>22</v>
@@ -9426,7 +9401,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H33" s="57" t="s">
         <v>26</v>
@@ -9439,31 +9414,31 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="43.2">
-      <c r="A34" s="171" t="s">
+      <c r="A34" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="172" t="s">
+      <c r="C34" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C34" s="171" t="s">
+      <c r="D34" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="E34" s="133" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="133" t="s">
+      <c r="F34" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="174" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="174" t="s">
-        <v>164</v>
-      </c>
-      <c r="H34" s="175" t="s">
+      <c r="H34" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="176" t="s">
+      <c r="I34" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="45" t="s">
@@ -9472,19 +9447,19 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="C35" s="51" t="s">
         <v>166</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>167</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F35" s="56" t="s">
         <v>24</v>
@@ -9503,31 +9478,31 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="86.4">
-      <c r="A36" s="171" t="s">
+      <c r="A36" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="172" t="s">
+      <c r="C36" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="171" t="s">
+      <c r="D36" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="172" t="s">
-        <v>172</v>
-      </c>
-      <c r="F36" s="181" t="s">
+      <c r="F36" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="174" t="s">
+      <c r="G36" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="175">
+      <c r="H36" s="50">
         <v>1</v>
       </c>
-      <c r="I36" s="176" t="s">
+      <c r="I36" s="45" t="s">
         <v>53</v>
       </c>
       <c r="J36" s="45" t="s">
@@ -9535,52 +9510,52 @@
       </c>
     </row>
     <row r="37" spans="1:10" s="129" customFormat="1" hidden="1">
-      <c r="A37" s="176" t="s">
+      <c r="A37" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+    </row>
+    <row r="38" spans="1:10" s="129" customFormat="1" hidden="1">
+      <c r="A38" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-    </row>
-    <row r="38" spans="1:10" s="129" customFormat="1" hidden="1">
-      <c r="A38" s="176" t="s">
-        <v>174</v>
-      </c>
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="176"/>
-      <c r="I38" s="176"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="28.8">
       <c r="A39" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="C39" s="51" t="s">
         <v>176</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>177</v>
       </c>
       <c r="D39" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="132" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F39" s="56" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H39" s="57" t="s">
         <v>26</v>
@@ -9593,31 +9568,31 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="28.8">
-      <c r="A40" s="171" t="s">
+      <c r="A40" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="B40" s="172" t="s">
+      <c r="C40" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="180" t="s">
+      <c r="D40" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="177" t="s">
+      <c r="F40" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F40" s="181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="174" t="s">
-        <v>184</v>
-      </c>
-      <c r="H40" s="175" t="s">
+      <c r="H40" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I40" s="176" t="s">
+      <c r="I40" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="45" t="s">
@@ -9626,13 +9601,13 @@
     </row>
     <row r="41" spans="1:10" ht="28.8">
       <c r="A41" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="C41" s="51" t="s">
         <v>186</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>187</v>
       </c>
       <c r="D41" s="51" t="s">
         <v>22</v>
@@ -9642,7 +9617,7 @@
         <v>24</v>
       </c>
       <c r="G41" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H41" s="57" t="s">
         <v>26</v>
@@ -9655,29 +9630,29 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="43.2">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="172" t="s">
+      <c r="C42" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="171" t="s">
+      <c r="D42" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="59"/>
+      <c r="F42" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="D42" s="171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="177"/>
-      <c r="F42" s="181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="174" t="s">
-        <v>192</v>
-      </c>
-      <c r="H42" s="175" t="s">
+      <c r="H42" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="176" t="s">
+      <c r="I42" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J42" s="45" t="s">
@@ -9686,25 +9661,25 @@
     </row>
     <row r="43" spans="1:10" ht="28.8">
       <c r="A43" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="C43" s="51" t="s">
         <v>194</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>195</v>
       </c>
       <c r="D43" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F43" s="109" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H43" s="57" t="s">
         <v>66</v>
@@ -9717,31 +9692,31 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="28.8">
-      <c r="A44" s="171" t="s">
+      <c r="A44" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="172" t="s">
+      <c r="C44" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="171" t="s">
+      <c r="D44" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="172" t="s">
+      <c r="F44" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="F44" s="181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="174" t="s">
-        <v>201</v>
-      </c>
-      <c r="H44" s="175" t="s">
+      <c r="H44" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I44" s="176" t="s">
+      <c r="I44" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="45" t="s">
@@ -9750,13 +9725,13 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="C45" s="51" t="s">
         <v>203</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>204</v>
       </c>
       <c r="D45" s="51" t="s">
         <v>22</v>
@@ -9779,29 +9754,29 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="28.8">
-      <c r="A46" s="171" t="s">
+      <c r="A46" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="B46" s="172" t="s">
+      <c r="C46" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="171" t="s">
-        <v>207</v>
-      </c>
-      <c r="D46" s="171" t="s">
+      <c r="D46" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="66"/>
-      <c r="F46" s="174" t="s">
+      <c r="F46" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="174" t="s">
+      <c r="G46" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="H46" s="175" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="176" t="s">
+      <c r="I46" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J46" s="45" t="s">
@@ -9810,16 +9785,16 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="C47" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="D47" s="159" t="s">
         <v>210</v>
-      </c>
-      <c r="D47" s="183" t="s">
-        <v>211</v>
       </c>
       <c r="E47" s="54"/>
       <c r="F47" s="56" t="s">
@@ -9839,31 +9814,31 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="28.8">
-      <c r="A48" s="171" t="s">
+      <c r="A48" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="172" t="s">
+      <c r="C48" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="C48" s="171" t="s">
+      <c r="D48" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="D48" s="171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="179" t="s">
-        <v>215</v>
-      </c>
-      <c r="F48" s="174" t="s">
+      <c r="F48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="174" t="s">
-        <v>201</v>
-      </c>
-      <c r="H48" s="175" t="s">
+      <c r="G48" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="H48" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="176" t="s">
+      <c r="I48" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="45" t="s">
@@ -9872,25 +9847,25 @@
     </row>
     <row r="49" spans="1:10" ht="43.2">
       <c r="A49" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="C49" s="53" t="s">
         <v>217</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>218</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F49" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H49" s="57" t="s">
         <v>66</v>
@@ -9903,31 +9878,31 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="28.8">
-      <c r="A50" s="171" t="s">
+      <c r="A50" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="B50" s="172" t="s">
+      <c r="C50" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C50" s="171" t="s">
+      <c r="D50" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="D50" s="182" t="s">
+      <c r="E50" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="E50" s="172" t="s">
-        <v>225</v>
-      </c>
-      <c r="F50" s="181" t="s">
+      <c r="F50" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="174" t="s">
+      <c r="G50" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="175" t="s">
+      <c r="H50" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="176" t="s">
+      <c r="I50" s="45" t="s">
         <v>60</v>
       </c>
       <c r="J50" s="45" t="s">
@@ -9936,19 +9911,19 @@
     </row>
     <row r="51" spans="1:10" s="65" customFormat="1" ht="28.8">
       <c r="A51" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="C51" s="51" t="s">
         <v>227</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>228</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E51" s="54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F51" s="55" t="s">
         <v>15</v>
@@ -9967,31 +9942,31 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="86.4">
-      <c r="A52" s="171" t="s">
+      <c r="A52" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="B52" s="172" t="s">
+      <c r="C52" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="C52" s="171" t="s">
+      <c r="D52" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="D52" s="66" t="s">
+      <c r="E52" s="131" t="s">
         <v>233</v>
       </c>
-      <c r="E52" s="173" t="s">
-        <v>234</v>
-      </c>
-      <c r="F52" s="174" t="s">
+      <c r="F52" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="174" t="s">
+      <c r="G52" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H52" s="175" t="s">
+      <c r="H52" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I52" s="176" t="s">
+      <c r="I52" s="45" t="s">
         <v>53</v>
       </c>
       <c r="J52" s="45" t="s">
@@ -10000,19 +9975,19 @@
     </row>
     <row r="53" spans="1:10" ht="28.8">
       <c r="A53" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="C53" s="51" t="s">
         <v>236</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>237</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F53" s="56" t="s">
         <v>24</v>
@@ -10031,31 +10006,31 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="28.8">
-      <c r="A54" s="171" t="s">
+      <c r="A54" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="B54" s="172" t="s">
+      <c r="C54" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="C54" s="171" t="s">
+      <c r="D54" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="D54" s="171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="172" t="s">
-        <v>242</v>
-      </c>
-      <c r="F54" s="174" t="s">
+      <c r="F54" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="174" t="s">
+      <c r="G54" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H54" s="175" t="s">
+      <c r="H54" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I54" s="176" t="s">
+      <c r="I54" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J54" s="45" t="s">
@@ -10064,13 +10039,13 @@
     </row>
     <row r="55" spans="1:10" ht="28.8">
       <c r="A55" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="C55" s="51" t="s">
         <v>244</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>245</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>22</v>
@@ -10080,7 +10055,7 @@
         <v>24</v>
       </c>
       <c r="G55" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H55" s="57" t="s">
         <v>26</v>
@@ -10093,27 +10068,27 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="171" t="s">
+      <c r="A56" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="B56" s="172"/>
-      <c r="C56" s="171" t="s">
-        <v>248</v>
-      </c>
-      <c r="D56" s="171" t="s">
+      <c r="D56" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="177"/>
-      <c r="F56" s="174" t="s">
+      <c r="E56" s="59"/>
+      <c r="F56" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G56" s="174" t="s">
-        <v>246</v>
-      </c>
-      <c r="H56" s="175" t="s">
+      <c r="G56" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="H56" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I56" s="176" t="s">
+      <c r="I56" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J56" s="58" t="s">
@@ -10136,12 +10111,12 @@
     <mergeCell ref="F15:F19"/>
     <mergeCell ref="E15:E19"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F15 F39:F56 F20:F36">
+  <conditionalFormatting sqref="F2:F15 F20:F36 F39:F56">
     <cfRule type="cellIs" dxfId="162" priority="4" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H15 H39:H56 H20:H36">
+  <conditionalFormatting sqref="H2:H15 H20:H36 H39:H56">
     <cfRule type="cellIs" dxfId="161" priority="13" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
@@ -10149,7 +10124,7 @@
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1 F1:F15 F39:F56 F20:F36">
+  <conditionalFormatting sqref="H1:I1 F1:F15 F20:F36 F39:F56">
     <cfRule type="cellIs" dxfId="159" priority="15" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
@@ -10163,7 +10138,7 @@
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J15 J39:J56 J20:J36">
+  <conditionalFormatting sqref="J2:J15 J20:J36 J39:J56">
     <cfRule type="containsText" dxfId="155" priority="1" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
     </cfRule>
@@ -10210,11 +10185,1179 @@
     <hyperlink ref="D19" r:id="rId12" xr:uid="{7BDB6C8C-2D36-4A45-B0A4-8F5BA0B9E485}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD98AC81-9A7A-4660-B571-6D118AEA29BA}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="63" customWidth="1"/>
+    <col min="4" max="4" width="24" style="63" customWidth="1"/>
+    <col min="5" max="5" width="54.44140625" style="63" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="45" customWidth="1"/>
+    <col min="10" max="10" width="16" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="57.6">
+      <c r="A1" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="157" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="157" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="157" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8">
+      <c r="A2" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="139" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.2">
+      <c r="A3" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="150" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2">
+      <c r="A4" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="50">
+        <v>1</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8">
+      <c r="A5" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.2">
+      <c r="A6" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.2">
+      <c r="A7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="150" t="s">
+        <v>337</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="168" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="168" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F8" s="171" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="171" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="167" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="163" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="168"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="151" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="170"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="168"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="151" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="170"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="168"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="151" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="170"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="168"/>
+      <c r="B12" s="169"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="151" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="170"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8">
+      <c r="A13" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8">
+      <c r="A14" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.2">
+      <c r="A15" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8">
+      <c r="A16" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.8">
+      <c r="A17" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="43.2">
+      <c r="A18" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="50">
+        <v>1</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8">
+      <c r="A19" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.8">
+      <c r="A20" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.8">
+      <c r="A21" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="72">
+      <c r="A22" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28.8">
+      <c r="A23" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="110"/>
+      <c r="F23" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="57.6">
+      <c r="A24" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="28.8">
+      <c r="A25" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="149" t="s">
+        <v>369</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="50"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="50"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="46"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="50"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="46"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="50"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="46"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="50"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="50"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="46"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="50"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="46"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="50"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="46"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="50"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="46"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="50"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="46"/>
+      <c r="B55" s="47"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="50"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="46"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="50"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J25" xr:uid="{FD98AC81-9A7A-4660-B571-6D118AEA29BA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
+    <sortCondition ref="A2:A25"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F2:F8">
+    <cfRule type="cellIs" dxfId="142" priority="12" operator="equal">
+      <formula>"Not added"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F57">
+    <cfRule type="cellIs" dxfId="141" priority="22" operator="equal">
+      <formula>"Not added"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="25" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="26" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="27" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="28" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H8">
+    <cfRule type="cellIs" dxfId="136" priority="13" operator="greaterThan">
+      <formula>"reviewd"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="14" operator="equal">
+      <formula>"needs review"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H57">
+    <cfRule type="cellIs" dxfId="134" priority="23" operator="greaterThan">
+      <formula>"reviewd"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="24" operator="equal">
+      <formula>"needs review"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:I1 F1:F8">
+    <cfRule type="cellIs" dxfId="132" priority="1" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="2" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="3" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J8">
+    <cfRule type="containsText" dxfId="128" priority="9" operator="containsText" text="Health and NL">
+      <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="10" operator="containsText" text="HealthDCAT-AP">
+      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="DCAT-AP NL">
+      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J57">
+    <cfRule type="containsText" dxfId="125" priority="19" operator="containsText" text="Health and NL">
+      <formula>NOT(ISERROR(SEARCH("Health and NL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="20" operator="containsText" text="HealthDCAT-AP">
+      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="21" operator="containsText" text="DCAT-AP NL">
+      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H51:H53 H28:H42 H2:H8 H13:H26" xr:uid="{2A32C7D3-75FA-463A-BF68-3B76762746E5}">
+      <formula1>"0..n, 0..1, 1, 1..n"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{4238AE97-4678-4C64-AD09-FDFF4AD39AE5}">
+      <formula1>"Mandatory, Recommended, Optional, Conditional"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8 F13:F53" xr:uid="{C9CBD033-88AB-4840-B5DC-D786E0636705}">
+      <formula1>"Mandatory, Recommended, Optional, Conditional, Not added"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J26:J1048576" xr:uid="{DF04DE99-7912-447A-8D69-145BAB6C72E0}">
+      <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8 I13:I1048576" xr:uid="{BDB4FC21-78EB-412C-BDE7-A8B62BC5F962}">
+      <formula1>"Identical to v1, Adapted from v1, new"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{42665364-4F58-419C-9C93-25424D65C38E}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8 J13:J25" xr:uid="{924923CF-D332-45CE-8F54-FF1AFD8AFC9D}">
+      <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1, Health and NL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C18" r:id="rId1" location="terms-publisher" xr:uid="{402E0331-C7FD-45DA-B86E-19A2B3FA6EAF}"/>
+    <hyperlink ref="C25" r:id="rId2" location="terms-title" xr:uid="{BD8E3CB4-1EC3-4556-A50A-36927CAF3730}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{2EDA5537-713B-44F0-B95C-EC0FE870CDC4}"/>
+    <hyperlink ref="D15" r:id="rId4" xr:uid="{F932A3CB-8EFE-4EC8-A866-9D436156378C}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{336390E3-C494-4C9F-BD85-4BDA269484A0}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{34DE2D61-6E14-42AE-9558-EE775580236F}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{97F9B13C-EFF8-43D1-B733-46E03E4766B7}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{2DAE281E-1462-4EB6-B349-CF7B6187324F}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{80F65FCA-B4F6-4123-A840-F242D8504306}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D216357D-42A4-49FA-9AEC-3DDC66FD6459}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -10252,7 +11395,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="157" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E1" s="157" t="s">
         <v>4</v>
@@ -10275,25 +11418,25 @@
     </row>
     <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>250</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>251</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H2" s="50" t="s">
         <v>66</v>
@@ -10307,25 +11450,25 @@
     </row>
     <row r="3" spans="1:10" ht="72">
       <c r="A3" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>255</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>256</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="149" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" s="109" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H3" s="57">
         <v>1</v>
@@ -10342,7 +11485,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>30</v>
@@ -10369,25 +11512,25 @@
     </row>
     <row r="5" spans="1:10" ht="43.2">
       <c r="A5" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="C5" s="53" t="s">
         <v>261</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>262</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F5" s="55" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H5" s="57">
         <v>1</v>
@@ -10401,25 +11544,25 @@
     </row>
     <row r="6" spans="1:10" ht="57.6">
       <c r="A6" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>266</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>267</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F6" s="49" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H6" s="50" t="s">
         <v>66</v>
@@ -10433,25 +11576,25 @@
     </row>
     <row r="7" spans="1:10" ht="43.2">
       <c r="A7" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="D7" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="E7" s="54" t="s">
         <v>273</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>274</v>
       </c>
       <c r="F7" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H7" s="57" t="s">
         <v>66</v>
@@ -10468,7 +11611,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>70</v>
@@ -10477,7 +11620,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="60" t="s">
         <v>24</v>
@@ -10500,7 +11643,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>80</v>
@@ -10509,7 +11652,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F9" s="55" t="s">
         <v>24</v>
@@ -10529,25 +11672,25 @@
     </row>
     <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="C10" s="63" t="s">
         <v>281</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>282</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" s="60" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>66</v>
@@ -10561,25 +11704,25 @@
     </row>
     <row r="11" spans="1:10" ht="72">
       <c r="A11" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="C11" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="D11" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="E11" s="54" t="s">
         <v>287</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>288</v>
       </c>
       <c r="F11" s="109" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H11" s="57">
         <v>1</v>
@@ -10593,25 +11736,25 @@
     </row>
     <row r="12" spans="1:10" ht="57" customHeight="1">
       <c r="A12" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="108" t="s">
-        <v>124</v>
-      </c>
       <c r="E12" s="133" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="50" t="s">
         <v>26</v>
@@ -10625,25 +11768,25 @@
     </row>
     <row r="13" spans="1:10" ht="72">
       <c r="A13" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="C13" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="D13" s="126" t="s">
         <v>295</v>
       </c>
-      <c r="D13" s="126" t="s">
+      <c r="E13" s="132" t="s">
         <v>296</v>
-      </c>
-      <c r="E13" s="132" t="s">
-        <v>297</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H13" s="57">
         <v>1</v>
@@ -10657,10 +11800,10 @@
     </row>
     <row r="14" spans="1:10" ht="72">
       <c r="A14" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>300</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>46</v>
@@ -10669,7 +11812,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F14" s="60" t="s">
         <v>24</v>
@@ -10689,25 +11832,25 @@
     </row>
     <row r="15" spans="1:10" ht="100.8">
       <c r="A15" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="C15" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="D15" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" s="132" t="s">
         <v>304</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>273</v>
-      </c>
-      <c r="E15" s="132" t="s">
-        <v>305</v>
       </c>
       <c r="F15" s="56" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H15" s="57" t="s">
         <v>66</v>
@@ -10721,13 +11864,13 @@
     </row>
     <row r="16" spans="1:10" ht="28.8">
       <c r="A16" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D16" s="111" t="s">
         <v>22</v>
@@ -10737,7 +11880,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H16" s="50" t="s">
         <v>66</v>
@@ -10751,25 +11894,25 @@
     </row>
     <row r="17" spans="1:10" ht="43.2">
       <c r="A17" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="C17" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="D17" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="110" t="s">
         <v>309</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="110" t="s">
-        <v>310</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H17" s="57" t="s">
         <v>66</v>
@@ -10783,25 +11926,25 @@
     </row>
     <row r="18" spans="1:10" ht="28.8">
       <c r="A18" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F18" s="60" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="50" t="s">
         <v>66</v>
@@ -10815,23 +11958,23 @@
     </row>
     <row r="19" spans="1:10" ht="28.8">
       <c r="A19" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D19" s="51"/>
       <c r="E19" s="132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F19" s="56" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H19" s="57" t="s">
         <v>26</v>
@@ -10845,19 +11988,19 @@
     </row>
     <row r="20" spans="1:10" ht="86.4">
       <c r="A20" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="C20" s="46" t="s">
         <v>315</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>316</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F20" s="128" t="s">
         <v>15</v>
@@ -10877,19 +12020,19 @@
     </row>
     <row r="21" spans="1:10" ht="43.2">
       <c r="A21" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" s="105" t="s">
+      <c r="E21" s="134" t="s">
         <v>319</v>
-      </c>
-      <c r="E21" s="134" t="s">
-        <v>320</v>
       </c>
       <c r="F21" s="55" t="s">
         <v>24</v>
@@ -10909,25 +12052,25 @@
     </row>
     <row r="22" spans="1:10" ht="57.6">
       <c r="A22" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F22" s="61" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H22" s="50" t="s">
         <v>66</v>
@@ -10941,19 +12084,19 @@
     </row>
     <row r="23" spans="1:10" ht="28.8">
       <c r="A23" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F23" s="55" t="s">
         <v>24</v>
@@ -11342,1174 +12485,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD98AC81-9A7A-4660-B571-6D118AEA29BA}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:J57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="63" customWidth="1"/>
-    <col min="4" max="4" width="24" style="63" customWidth="1"/>
-    <col min="5" max="5" width="54.44140625" style="63" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="45" customWidth="1"/>
-    <col min="10" max="10" width="16" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="45"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="57.6">
-      <c r="A1" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="157" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="157" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="157" t="s">
-        <v>543</v>
-      </c>
-      <c r="E1" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="157" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="157" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="157" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="158" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.8">
-      <c r="A2" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2">
-      <c r="A3" s="51" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="150" t="s">
-        <v>328</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="43.2">
-      <c r="A4" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="50">
-        <v>1</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8">
-      <c r="A5" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="43.2">
-      <c r="A6" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.2">
-      <c r="A7" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="150" t="s">
-        <v>338</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="168" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="167" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="125" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="169" t="s">
-        <v>339</v>
-      </c>
-      <c r="F8" s="170" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="170" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="166" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="165" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="151" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="169"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="151" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="169"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="167"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="151" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="169"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="167"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="151" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="169"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8">
-      <c r="A13" s="51" t="s">
-        <v>340</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>342</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="28.8">
-      <c r="A14" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>344</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="43.2">
-      <c r="A15" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>346</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="28.8">
-      <c r="A16" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="28.8">
-      <c r="A17" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>350</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="43.2">
-      <c r="A18" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="50">
-        <v>1</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="28.8">
-      <c r="A19" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>354</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="H19" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="28.8">
-      <c r="A20" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="28.8">
-      <c r="A21" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="72">
-      <c r="A22" s="46" t="s">
-        <v>359</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>362</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="28.8">
-      <c r="A23" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>363</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="110"/>
-      <c r="F23" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="57.6">
-      <c r="A24" s="46" t="s">
-        <v>364</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>366</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>367</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>368</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="28.8">
-      <c r="A25" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="149" t="s">
-        <v>370</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="50"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="50"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="46"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="50"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="46"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="50"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="46"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="50"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="50"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="50"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="46"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="50"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="50"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="46"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="46"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="50"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="46"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="50"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="46"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="50"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="46"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="50"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="46"/>
-      <c r="B55" s="47"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="50"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="46"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="50"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="46"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="50"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:J25" xr:uid="{FD98AC81-9A7A-4660-B571-6D118AEA29BA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
-    <sortCondition ref="A2:A25"/>
-  </sortState>
-  <mergeCells count="9">
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F2:F8">
-    <cfRule type="cellIs" dxfId="142" priority="12" operator="equal">
-      <formula>"Not added"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F57">
-    <cfRule type="cellIs" dxfId="141" priority="22" operator="equal">
-      <formula>"Not added"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="25" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="26" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="27" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="28" operator="equal">
-      <formula>"Conditional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H8">
-    <cfRule type="cellIs" dxfId="136" priority="13" operator="greaterThan">
-      <formula>"reviewd"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="14" operator="equal">
-      <formula>"needs review"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H57">
-    <cfRule type="cellIs" dxfId="134" priority="23" operator="greaterThan">
-      <formula>"reviewd"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="24" operator="equal">
-      <formula>"needs review"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1 F1:F8">
-    <cfRule type="cellIs" dxfId="132" priority="1" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="2" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="3" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
-      <formula>"Conditional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J8">
-    <cfRule type="containsText" dxfId="128" priority="9" operator="containsText" text="Health and NL">
-      <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="10" operator="containsText" text="HealthDCAT-AP">
-      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="DCAT-AP NL">
-      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J57">
-    <cfRule type="containsText" dxfId="125" priority="19" operator="containsText" text="Health and NL">
-      <formula>NOT(ISERROR(SEARCH("Health and NL",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="20" operator="containsText" text="HealthDCAT-AP">
-      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="21" operator="containsText" text="DCAT-AP NL">
-      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H51:H53 H28:H42 H2:H8 H13:H26" xr:uid="{2A32C7D3-75FA-463A-BF68-3B76762746E5}">
-      <formula1>"0..n, 0..1, 1, 1..n"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{4238AE97-4678-4C64-AD09-FDFF4AD39AE5}">
-      <formula1>"Mandatory, Recommended, Optional, Conditional"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8 F13:F53" xr:uid="{C9CBD033-88AB-4840-B5DC-D786E0636705}">
-      <formula1>"Mandatory, Recommended, Optional, Conditional, Not added"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J26:J1048576" xr:uid="{DF04DE99-7912-447A-8D69-145BAB6C72E0}">
-      <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8 I13:I1048576" xr:uid="{BDB4FC21-78EB-412C-BDE7-A8B62BC5F962}">
-      <formula1>"Identical to v1, Adapted from v1, new"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{42665364-4F58-419C-9C93-25424D65C38E}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8 J13:J25" xr:uid="{924923CF-D332-45CE-8F54-FF1AFD8AFC9D}">
-      <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1, Health and NL"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" location="terms-publisher" xr:uid="{402E0331-C7FD-45DA-B86E-19A2B3FA6EAF}"/>
-    <hyperlink ref="C25" r:id="rId2" location="terms-title" xr:uid="{BD8E3CB4-1EC3-4556-A50A-36927CAF3730}"/>
-    <hyperlink ref="D16" r:id="rId3" xr:uid="{2EDA5537-713B-44F0-B95C-EC0FE870CDC4}"/>
-    <hyperlink ref="D15" r:id="rId4" xr:uid="{F932A3CB-8EFE-4EC8-A866-9D436156378C}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{336390E3-C494-4C9F-BD85-4BDA269484A0}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{34DE2D61-6E14-42AE-9558-EE775580236F}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{97F9B13C-EFF8-43D1-B733-46E03E4766B7}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{2DAE281E-1462-4EB6-B349-CF7B6187324F}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{80F65FCA-B4F6-4123-A840-F242D8504306}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F507EB-9201-48ED-BA4A-FAE0A681069A}">
   <sheetPr>
@@ -12548,7 +12523,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="157" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E1" s="157" t="s">
         <v>4</v>
@@ -12571,14 +12546,14 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2" s="70"/>
       <c r="C2" s="69" t="s">
         <v>88</v>
       </c>
       <c r="D2" s="151" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E2" s="113"/>
       <c r="F2" s="72" t="s">
@@ -12597,25 +12572,25 @@
     </row>
     <row r="3" spans="1:10" ht="100.8">
       <c r="A3" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="C3" s="75" t="s">
         <v>373</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>374</v>
       </c>
       <c r="D3" s="75" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F3" s="78" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H3" s="80">
         <v>1</v>
@@ -12632,7 +12607,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C4" s="69" t="s">
         <v>106</v>
@@ -12641,7 +12616,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="84" t="s">
         <v>15</v>
@@ -12650,30 +12625,30 @@
         <v>72</v>
       </c>
       <c r="H4" s="73" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I4" s="74" t="s">
         <v>60</v>
       </c>
       <c r="J4" s="74" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="57.6">
       <c r="A5" s="114" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="114" t="s">
         <v>382</v>
-      </c>
-      <c r="C5" s="114" t="s">
-        <v>383</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="115" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F5" s="116" t="s">
         <v>15</v>
@@ -12693,19 +12668,19 @@
     </row>
     <row r="6" spans="1:10" ht="86.4">
       <c r="A6" s="141" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="142" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="141" t="s">
         <v>385</v>
-      </c>
-      <c r="C6" s="141" t="s">
-        <v>386</v>
       </c>
       <c r="D6" s="141" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="142" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F6" s="143" t="s">
         <v>24</v>
@@ -12725,19 +12700,19 @@
     </row>
     <row r="7" spans="1:10" ht="144">
       <c r="A7" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="D7" s="64" t="s">
         <v>389</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="E7" s="134" t="s">
         <v>390</v>
-      </c>
-      <c r="E7" s="134" t="s">
-        <v>391</v>
       </c>
       <c r="F7" s="109" t="s">
         <v>24</v>
@@ -12757,19 +12732,19 @@
     </row>
     <row r="8" spans="1:10" ht="28.8">
       <c r="A8" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" s="120" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" s="145" t="s">
         <v>392</v>
-      </c>
-      <c r="C8" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="E8" s="145" t="s">
-        <v>393</v>
       </c>
       <c r="F8" s="83" t="s">
         <v>24</v>
@@ -12789,25 +12764,25 @@
     </row>
     <row r="9" spans="1:10" ht="43.2">
       <c r="A9" s="114" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>395</v>
-      </c>
       <c r="C9" s="114" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="114" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="118" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F9" s="119" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" s="117">
         <v>1</v>
@@ -13474,7 +13449,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="157" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E1" s="157" t="s">
         <v>4</v>
@@ -13497,25 +13472,25 @@
     </row>
     <row r="2" spans="1:10" ht="43.2">
       <c r="A2" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="120" t="s">
         <v>397</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="C2" s="120" t="s">
-        <v>398</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="153" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F2" s="83" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H2" s="73" t="s">
         <v>26</v>
@@ -13529,25 +13504,25 @@
     </row>
     <row r="3" spans="1:10" ht="86.4">
       <c r="A3" s="75" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="C3" s="75" t="s">
         <v>401</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>402</v>
       </c>
       <c r="D3" s="122" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="154" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H3" s="80">
         <v>1</v>
@@ -13561,25 +13536,25 @@
     </row>
     <row r="4" spans="1:10" ht="28.8">
       <c r="A4" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>404</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="C4" s="69" t="s">
         <v>405</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>406</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="153" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F4" s="83" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H4" s="73">
         <v>1</v>
@@ -14266,7 +14241,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="157" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E1" s="157" t="s">
         <v>4</v>
@@ -14289,17 +14264,17 @@
     </row>
     <row r="2" spans="1:10" ht="43.2">
       <c r="A2" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="70" t="s">
         <v>409</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>410</v>
       </c>
       <c r="C2" s="69" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="155"/>
       <c r="E2" s="135" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F2" s="72" t="s">
         <v>15</v>
@@ -14316,17 +14291,17 @@
     </row>
     <row r="3" spans="1:10" ht="28.8">
       <c r="A3" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>412</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>413</v>
       </c>
       <c r="C3" s="75" t="s">
         <v>106</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F3" s="78" t="s">
         <v>15</v>
@@ -14343,23 +14318,23 @@
     </row>
     <row r="4" spans="1:10" ht="28.8">
       <c r="A4" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="C4" s="69" t="s">
         <v>416</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>417</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="82" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F4" s="84" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H4" s="73" t="s">
         <v>33</v>
@@ -14370,17 +14345,17 @@
     </row>
     <row r="5" spans="1:10" ht="86.4">
       <c r="A5" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="76" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>420</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>421</v>
       </c>
       <c r="D5" s="75"/>
       <c r="E5" s="92" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F5" s="79" t="s">
         <v>15</v>
@@ -14397,17 +14372,17 @@
     </row>
     <row r="6" spans="1:10" ht="43.2">
       <c r="A6" s="69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C6" s="120" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="121"/>
       <c r="E6" s="82" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F6" s="83" t="s">
         <v>15</v>
@@ -14424,23 +14399,23 @@
     </row>
     <row r="7" spans="1:10" ht="72">
       <c r="A7" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="76" t="s">
         <v>425</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>426</v>
-      </c>
       <c r="C7" s="75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D7" s="75"/>
       <c r="E7" s="136" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H7" s="80" t="s">
         <v>26</v>
@@ -14530,7 +14505,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="157" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E1" s="157" t="s">
         <v>4</v>
@@ -14553,17 +14528,17 @@
     </row>
     <row r="2" spans="1:10" ht="43.2">
       <c r="A2" s="69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="69" t="s">
         <v>429</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>430</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F2" s="84" t="s">
         <v>15</v>
@@ -14583,14 +14558,14 @@
         <v>68</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="75" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="156"/>
       <c r="E3" s="122" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>15</v>
@@ -14610,14 +14585,14 @@
         <v>104</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C4" s="120" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="82" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F4" s="83" t="s">
         <v>15</v>
@@ -14634,23 +14609,23 @@
     </row>
     <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="75" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="76" t="s">
         <v>436</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>437</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>438</v>
       </c>
       <c r="D5" s="75"/>
       <c r="E5" s="77" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F5" s="78" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="79" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H5" s="80">
         <v>1</v>
@@ -14661,17 +14636,17 @@
     </row>
     <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="70" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F6" s="83" t="s">
         <v>15</v>
@@ -14764,7 +14739,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="137" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -15462,6 +15437,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B1A1CF98C819F4881BB4349588D0C85" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff8ef391852eaca4511043a54bffd4a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfc87205-1831-4b6c-a7b4-76d40079a43e" xmlns:ns3="221af607-abea-4d5e-830c-567dcc03c0ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="201dd8b781da46d5daa37e3355db44fe" ns2:_="" ns3:_="">
     <xsd:import namespace="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
@@ -15704,28 +15700,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
+    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19A23828-4FF7-4569-837D-B1B2C775409F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15742,23 +15736,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
-    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Pre-release_metadata_CoreGenericHealth_p2.xlsx
+++ b/Documents/Pre-release_metadata_CoreGenericHealth_p2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anakonrad/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcvanderwerf/Github/health-ri-metadata/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9429D5A0-850B-524E-B4B8-664B60E15836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F400FBA4-788C-A049-BCFC-7AF7AD8163AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28580" windowHeight="17200" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="64720" yWindow="-20780" windowWidth="34160" windowHeight="27980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="14" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="648">
   <si>
     <t>Property label</t>
   </si>
@@ -2076,12 +2076,267 @@
   <si>
     <t>This is not equal to the most recent modified dataset in the collection of the dataset series.</t>
   </si>
+  <si>
+    <t>CKAN dataset field</t>
+  </si>
+  <si>
+    <t>custom:access_rights</t>
+  </si>
+  <si>
+    <t>custom:analytics</t>
+  </si>
+  <si>
+    <t>custom:applicable_legislation</t>
+  </si>
+  <si>
+    <t>custom:code_values</t>
+  </si>
+  <si>
+    <t>custom:coding_system</t>
+  </si>
+  <si>
+    <t>custom:conforms_to</t>
+  </si>
+  <si>
+    <t>custom:contact_</t>
+  </si>
+  <si>
+    <t>custom:contact</t>
+  </si>
+  <si>
+    <t>custom:creator_</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>custom:documentation</t>
+  </si>
+  <si>
+    <t>custom:frequency</t>
+  </si>
+  <si>
+    <t>custom:has_version</t>
+  </si>
+  <si>
+    <t>custom:health_theme</t>
+  </si>
+  <si>
+    <t>custom:alternate_identifier</t>
+  </si>
+  <si>
+    <t>custom:is_referenced_by</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>custom:language</t>
+  </si>
+  <si>
+    <t>custom:legal_basis</t>
+  </si>
+  <si>
+    <t>custom:max_typical_age</t>
+  </si>
+  <si>
+    <t>custom:min_typical_age</t>
+  </si>
+  <si>
+    <t>custom:modified</t>
+  </si>
+  <si>
+    <t>custom:number_of_records</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>custom:personal_data</t>
+  </si>
+  <si>
+    <t>custom:populatiion_coverage</t>
+  </si>
+  <si>
+    <t>custom:publisher</t>
+  </si>
+  <si>
+    <t>custom:purpose</t>
+  </si>
+  <si>
+    <t>custom:qualified_relation</t>
+  </si>
+  <si>
+    <t>custom:issued</t>
+  </si>
+  <si>
+    <t>custom:number_of_unique_individuals</t>
+  </si>
+  <si>
+    <t>custom:retention_period</t>
+  </si>
+  <si>
+    <t>(issue on github)</t>
+  </si>
+  <si>
+    <t>issue on ckan github</t>
+  </si>
+  <si>
+    <t>custom:status</t>
+  </si>
+  <si>
+    <t>custom:temporal_coverage</t>
+  </si>
+  <si>
+    <t>custom:temporal_resolution</t>
+  </si>
+  <si>
+    <t>custom:theme</t>
+  </si>
+  <si>
+    <t>custom:dcat_type</t>
+  </si>
+  <si>
+    <t>custom:version</t>
+  </si>
+  <si>
+    <t>custom:version_notes</t>
+  </si>
+  <si>
+    <t>custom:creator</t>
+  </si>
+  <si>
+    <t>custom:licence</t>
+  </si>
+  <si>
+    <t>resource:access_services</t>
+  </si>
+  <si>
+    <t>resource:access_url</t>
+  </si>
+  <si>
+    <t>resource:size</t>
+  </si>
+  <si>
+    <t>resource:hash_algorithm/resource:hash_algorithm</t>
+  </si>
+  <si>
+    <t>resource:compress_format</t>
+  </si>
+  <si>
+    <t>resource:description</t>
+  </si>
+  <si>
+    <t>resource:documentation</t>
+  </si>
+  <si>
+    <t>resource:download_url</t>
+  </si>
+  <si>
+    <t>resource:format</t>
+  </si>
+  <si>
+    <t>resource:language</t>
+  </si>
+  <si>
+    <t>resource:license</t>
+  </si>
+  <si>
+    <t>resource:conforms_to</t>
+  </si>
+  <si>
+    <t>resource:mimetype</t>
+  </si>
+  <si>
+    <t>resource:modified</t>
+  </si>
+  <si>
+    <t>resource:package_format</t>
+  </si>
+  <si>
+    <t>resource:issued</t>
+  </si>
+  <si>
+    <t>resource:rights</t>
+  </si>
+  <si>
+    <t>resource:status</t>
+  </si>
+  <si>
+    <t>resource:name</t>
+  </si>
+  <si>
+    <t>_mail</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>_name</t>
+  </si>
+  <si>
+    <t>_type</t>
+  </si>
+  <si>
+    <t>_url</t>
+  </si>
+  <si>
+    <t>custom:{property}_name</t>
+  </si>
+  <si>
+    <t>custom:{property}_email</t>
+  </si>
+  <si>
+    <t>custom:{property}_url</t>
+  </si>
+  <si>
+    <t>access_service:access_rights</t>
+  </si>
+  <si>
+    <t>access_service:description</t>
+  </si>
+  <si>
+    <t>access_service:endpoint_description</t>
+  </si>
+  <si>
+    <t>access_service:endpoint_url</t>
+  </si>
+  <si>
+    <t>access_service:license</t>
+  </si>
+  <si>
+    <t>access_service:serves_dataset</t>
+  </si>
+  <si>
+    <t>access_service:title</t>
+  </si>
+  <si>
+    <t>data_series:applicable_legislation</t>
+  </si>
+  <si>
+    <t>data_series::contact</t>
+  </si>
+  <si>
+    <t>data_series::modified</t>
+  </si>
+  <si>
+    <t>data_series::coverage</t>
+  </si>
+  <si>
+    <t>data_series::publisher</t>
+  </si>
+  <si>
+    <t>data_series:issued</t>
+  </si>
+  <si>
+    <t>data_series::temporal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2373,8 +2628,45 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display (Headings)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Display"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2417,6 +2709,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF145F82"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2440,7 +2744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2890,7 +3194,90 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -2901,15 +3288,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -2925,18 +3303,705 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="166">
+  <dxfs count="174">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -3029,6 +4094,96 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3039,6 +4194,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3053,6 +4228,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
@@ -3089,6 +4274,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -3103,7 +4308,97 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3149,6 +4444,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -3189,6 +4544,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -3229,6 +4644,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -3239,6 +4714,86 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3249,6 +4804,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3259,6 +4824,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3279,11 +4894,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3324,1176 +4949,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4766,10 +5221,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5180,11 +5631,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5192,16 +5643,17 @@
     <col min="1" max="1" width="22.1640625" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" style="20" customWidth="1"/>
     <col min="3" max="3" width="28.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="54.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" style="20" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="54.5" style="20" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
@@ -5232,8 +5684,11 @@
       <c r="J1" s="147" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="K1" s="164" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>441</v>
       </c>
@@ -5264,8 +5719,11 @@
       <c r="J2" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K2" s="35" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>28</v>
       </c>
@@ -5294,8 +5752,9 @@
       <c r="J3" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K3" s="175"/>
+    </row>
+    <row r="4" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>445</v>
       </c>
@@ -5326,8 +5785,9 @@
       <c r="J4" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K4" s="176"/>
+    </row>
+    <row r="5" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
         <v>448</v>
       </c>
@@ -5358,8 +5818,9 @@
       <c r="J5" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="175"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>55</v>
       </c>
@@ -5386,8 +5847,9 @@
       <c r="J6" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="175"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
         <v>312</v>
       </c>
@@ -5414,8 +5876,9 @@
       <c r="J7" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="1:11" ht="56" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>407</v>
       </c>
@@ -5446,8 +5909,11 @@
       <c r="J8" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K8" s="35" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
         <v>453</v>
       </c>
@@ -5478,8 +5944,11 @@
       <c r="J9" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K9" s="175" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>457</v>
       </c>
@@ -5510,8 +5979,11 @@
       <c r="J10" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K10" s="175" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>282</v>
       </c>
@@ -5540,8 +6012,9 @@
       <c r="J11" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="176"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>463</v>
       </c>
@@ -5568,8 +6041,9 @@
       <c r="J12" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K12" s="175"/>
+    </row>
+    <row r="13" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>410</v>
       </c>
@@ -5598,8 +6072,9 @@
       <c r="J13" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K13" s="175"/>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>116</v>
       </c>
@@ -5628,8 +6103,9 @@
       <c r="J14" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K14" s="175"/>
+    </row>
+    <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>467</v>
       </c>
@@ -5660,8 +6136,9 @@
       <c r="J15" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K15" s="175"/>
+    </row>
+    <row r="16" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
         <v>120</v>
       </c>
@@ -5690,8 +6167,9 @@
       <c r="J16" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K16" s="175"/>
+    </row>
+    <row r="17" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>345</v>
       </c>
@@ -5722,8 +6200,11 @@
       <c r="J17" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K17" s="35" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>140</v>
       </c>
@@ -5752,8 +6233,9 @@
       <c r="J18" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="175"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
@@ -5780,8 +6262,9 @@
       <c r="J19" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K19" s="175"/>
+    </row>
+    <row r="20" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>168</v>
       </c>
@@ -5812,8 +6295,9 @@
       <c r="J20" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K20" s="176"/>
+    </row>
+    <row r="21" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>478</v>
       </c>
@@ -5844,8 +6328,11 @@
       <c r="J21" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K21" s="35" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>220</v>
       </c>
@@ -5876,8 +6363,9 @@
       <c r="J22" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K22" s="175"/>
+    </row>
+    <row r="23" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>225</v>
       </c>
@@ -5908,8 +6396,11 @@
       <c r="J23" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="175" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="8"/>
       <c r="C24" s="26"/>
@@ -5920,8 +6411,9 @@
       <c r="H24" s="27"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="167"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="8"/>
       <c r="C25" s="32"/>
@@ -5932,8 +6424,9 @@
       <c r="H25" s="27"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="165"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="8"/>
       <c r="C26" s="26"/>
@@ -5944,8 +6437,9 @@
       <c r="H26" s="27"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="167"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="8"/>
       <c r="C27" s="10"/>
@@ -5956,8 +6450,9 @@
       <c r="H27" s="27"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="165"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="8"/>
       <c r="C28" s="26"/>
@@ -5968,8 +6463,9 @@
       <c r="H28" s="27"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="165"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="8"/>
       <c r="C29" s="26"/>
@@ -5980,8 +6476,9 @@
       <c r="H29" s="27"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="165"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="8"/>
       <c r="C30" s="26"/>
@@ -5992,8 +6489,9 @@
       <c r="H30" s="27"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="165"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="8"/>
       <c r="C31" s="32"/>
@@ -6004,8 +6502,9 @@
       <c r="H31" s="27"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="165"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="8"/>
       <c r="C32" s="26"/>
@@ -6016,8 +6515,9 @@
       <c r="H32" s="27"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="165"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="8"/>
       <c r="C33" s="10"/>
@@ -6028,8 +6528,9 @@
       <c r="H33" s="27"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="169"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="8"/>
       <c r="C34" s="26"/>
@@ -6040,8 +6541,9 @@
       <c r="H34" s="27"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="165"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="8"/>
       <c r="C35" s="26"/>
@@ -6052,8 +6554,9 @@
       <c r="H35" s="27"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="165"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="8"/>
       <c r="C36" s="26"/>
@@ -6064,8 +6567,9 @@
       <c r="H36" s="27"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="165"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="8"/>
       <c r="C37" s="32"/>
@@ -6076,8 +6580,9 @@
       <c r="H37" s="27"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="165"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
       <c r="B38" s="8"/>
       <c r="C38" s="26"/>
@@ -6088,8 +6593,9 @@
       <c r="H38" s="27"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="165"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="8"/>
       <c r="C39" s="26"/>
@@ -6100,8 +6606,9 @@
       <c r="H39" s="27"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="165"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="8"/>
       <c r="C40" s="26"/>
@@ -6112,8 +6619,9 @@
       <c r="H40" s="27"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="165"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
       <c r="B41" s="8"/>
       <c r="C41" s="32"/>
@@ -6124,8 +6632,9 @@
       <c r="H41" s="27"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="165"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
       <c r="B42" s="8"/>
       <c r="C42" s="26"/>
@@ -6136,8 +6645,9 @@
       <c r="H42" s="27"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="165"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="8"/>
       <c r="C43" s="10"/>
@@ -6148,8 +6658,9 @@
       <c r="H43" s="27"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="165"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
       <c r="B44" s="8"/>
       <c r="C44" s="26"/>
@@ -6160,8 +6671,9 @@
       <c r="H44" s="27"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="165"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="8"/>
       <c r="C45" s="26"/>
@@ -6172,8 +6684,9 @@
       <c r="H45" s="27"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="165"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
       <c r="B46" s="8"/>
       <c r="C46" s="26"/>
@@ -6184,8 +6697,9 @@
       <c r="H46" s="27"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" s="165"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="B47" s="8"/>
       <c r="C47" s="32"/>
@@ -6196,8 +6710,9 @@
       <c r="H47" s="27"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="165"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
       <c r="B48" s="8"/>
       <c r="C48" s="26"/>
@@ -6208,8 +6723,9 @@
       <c r="H48" s="27"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="165"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="8"/>
       <c r="C49" s="26"/>
@@ -6220,8 +6736,9 @@
       <c r="H49" s="27"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="165"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
       <c r="B50" s="8"/>
       <c r="C50" s="26"/>
@@ -6232,8 +6749,9 @@
       <c r="H50" s="27"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" s="165"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
       <c r="B51" s="8"/>
       <c r="C51" s="10"/>
@@ -6244,8 +6762,9 @@
       <c r="H51" s="27"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" s="165"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
       <c r="B52" s="8"/>
       <c r="C52" s="26"/>
@@ -6256,8 +6775,9 @@
       <c r="H52" s="27"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" s="165"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
       <c r="B53" s="8"/>
       <c r="C53" s="26"/>
@@ -6268,6 +6788,19 @@
       <c r="H53" s="27"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
+      <c r="K53" s="165"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="165"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="165"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="165"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="166"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J23" xr:uid="{1F95D79B-32C7-41FC-9950-EBBA981283D0}"/>
@@ -6275,40 +6808,40 @@
     <sortCondition ref="A2:A23"/>
   </sortState>
   <conditionalFormatting sqref="F2:F53">
-    <cfRule type="cellIs" dxfId="81" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="8" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H53">
-    <cfRule type="cellIs" dxfId="80" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="10" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 F1:F53">
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J53">
-    <cfRule type="containsText" dxfId="74" priority="5" operator="containsText" text="Health and NL">
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="6" operator="containsText" text="HealthDCAT-AP">
+    <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="HealthDCAT-AP">
       <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="7" operator="containsText" text="DCAT-AP NL">
+    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="DCAT-AP NL">
       <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6948,71 +7481,71 @@
     <sortCondition ref="A2:A3"/>
   </sortState>
   <conditionalFormatting sqref="A41:B42">
-    <cfRule type="cellIs" dxfId="71" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="11" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="13" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="14" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:E42">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="15" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="16" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="17" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="18" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F52">
-    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H9 H11:H15 H17:H25 H27:H41 H50:H52">
-    <cfRule type="cellIs" dxfId="58" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="19" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="20" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 F1:F52">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7045,7 +7578,7 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -7646,89 +8179,89 @@
     <sortCondition ref="A2:A3"/>
   </sortState>
   <conditionalFormatting sqref="A41:B42">
-    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="21" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="22" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:E42">
-    <cfRule type="cellIs" dxfId="48" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
       <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="27" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="28" operator="equal">
-      <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F52">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3">
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H9 H11:H15 H17:H25 H27:H41 H50:H52">
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+      <formula>"needs review"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="greaterThan">
       <formula>"reviewd"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
-      <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 F1:F52">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"Conditional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+      <formula>"Optional"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -8351,97 +8884,97 @@
     <sortCondition ref="A2:A10"/>
   </sortState>
   <conditionalFormatting sqref="A27:B28">
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="43" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="42" operator="equal">
       <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="44" operator="equal">
-      <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E28">
-    <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="46" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="47" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="48" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="47" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="46" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="45" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="20" priority="51" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="52" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="53" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="17" priority="54" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="51" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="52" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="53" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7 E8">
-    <cfRule type="cellIs" dxfId="16" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="40" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F38">
-    <cfRule type="cellIs" dxfId="15" priority="33" operator="equal">
-      <formula>"Not added"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="36" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="37" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="38" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="39" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="37" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="33" operator="equal">
+      <formula>"Not added"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"needs review"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
       <formula>"reviewd"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H27 H36:H38">
-    <cfRule type="cellIs" dxfId="8" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="49" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="50" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 F1:F7">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
       <formula>"Conditional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+      <formula>"Optional"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -8472,61 +9005,65 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="53" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="77.33203125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="17" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="53" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="77.33203125" style="53" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="35" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="35" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="35" customWidth="1"/>
     <col min="9" max="9" width="17.83203125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="35"/>
+    <col min="10" max="10" width="21.5" style="35" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="146" t="s">
+      <c r="D1" s="152" t="s">
         <v>540</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="E1" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="146" t="s">
+      <c r="G1" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="146" t="s">
+      <c r="H1" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="147" t="s">
+      <c r="I1" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="147" t="s">
+      <c r="J1" s="153" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="K1" s="153" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="144" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>10</v>
       </c>
@@ -8557,8 +9094,11 @@
       <c r="J2" s="35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="66.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="154" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="66.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>19</v>
       </c>
@@ -8589,8 +9129,11 @@
       <c r="J3" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K3" s="155" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>28</v>
       </c>
@@ -8621,8 +9164,11 @@
       <c r="J4" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K4" s="154" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
         <v>34</v>
       </c>
@@ -8653,8 +9199,11 @@
       <c r="J5" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K5" s="155" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>39</v>
       </c>
@@ -8685,8 +9234,11 @@
       <c r="J6" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K6" s="154" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
         <v>44</v>
       </c>
@@ -8717,8 +9269,11 @@
       <c r="J7" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K7" s="155" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>48</v>
       </c>
@@ -8749,8 +9304,11 @@
       <c r="J8" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K8" s="154" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
         <v>55</v>
       </c>
@@ -8781,8 +9339,11 @@
       <c r="J9" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K9" s="155" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>61</v>
       </c>
@@ -8813,8 +9374,9 @@
       <c r="J10" s="48" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K10" s="158"/>
+    </row>
+    <row r="11" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>68</v>
       </c>
@@ -8845,8 +9407,11 @@
       <c r="J11" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K11" s="174" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>74</v>
       </c>
@@ -8877,8 +9442,9 @@
       <c r="J12" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K12" s="154"/>
+    </row>
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>78</v>
       </c>
@@ -8907,8 +9473,11 @@
       <c r="J13" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K13" s="155" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>82</v>
       </c>
@@ -8937,96 +9506,104 @@
       <c r="J14" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="154" t="s">
+      <c r="K14" s="154" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="178" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="177" t="s">
         <v>88</v>
       </c>
       <c r="D15" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="156" t="s">
+      <c r="E15" s="180" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="150" t="s">
+      <c r="F15" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="150" t="s">
+      <c r="G15" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="151" t="s">
+      <c r="H15" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="152" t="s">
+      <c r="I15" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="153" t="s">
+      <c r="J15" s="184" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="154"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="154"/>
+      <c r="K15" s="181"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="177"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="177"/>
       <c r="D16" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="156"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="153"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="154"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="154"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="184"/>
+      <c r="K16" s="181"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="177"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="177"/>
       <c r="D17" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="156"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="153"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="154"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="154"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="181"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="177"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="177"/>
       <c r="D18" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="156"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="154"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="154"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="181"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="177"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="177"/>
       <c r="D19" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="156"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="153"/>
-    </row>
-    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="E19" s="180"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="184"/>
+      <c r="K19" s="181"/>
+    </row>
+    <row r="20" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>96</v>
       </c>
@@ -9055,8 +9632,11 @@
       <c r="J20" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K20" s="157" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>100</v>
       </c>
@@ -9087,8 +9667,11 @@
       <c r="J21" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K21" s="155" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>104</v>
       </c>
@@ -9119,8 +9702,11 @@
       <c r="J22" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K22" s="154" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>107</v>
       </c>
@@ -9151,8 +9737,9 @@
       <c r="J23" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K23" s="158"/>
+    </row>
+    <row r="24" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>112</v>
       </c>
@@ -9181,8 +9768,11 @@
       <c r="J24" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K24" s="157" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
         <v>116</v>
       </c>
@@ -9211,10 +9801,13 @@
         <v>53</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="K25" s="155" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
         <v>120</v>
       </c>
@@ -9245,8 +9838,11 @@
       <c r="J26" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K26" s="156" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="41" t="s">
         <v>126</v>
       </c>
@@ -9277,8 +9873,11 @@
       <c r="J27" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K27" s="155" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
         <v>131</v>
       </c>
@@ -9309,8 +9908,11 @@
       <c r="J28" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K28" s="154" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
         <v>136</v>
       </c>
@@ -9341,8 +9943,11 @@
       <c r="J29" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K29" s="155" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>140</v>
       </c>
@@ -9373,8 +9978,11 @@
       <c r="J30" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K30" s="154" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
         <v>145</v>
       </c>
@@ -9405,8 +10013,11 @@
       <c r="J31" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K31" s="155" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
         <v>150</v>
       </c>
@@ -9437,8 +10048,11 @@
       <c r="J32" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K32" s="154" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
         <v>154</v>
       </c>
@@ -9467,8 +10081,11 @@
       <c r="J33" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K33" s="159" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
         <v>158</v>
       </c>
@@ -9499,8 +10116,11 @@
       <c r="J34" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K34" s="154" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="41" t="s">
         <v>164</v>
       </c>
@@ -9531,8 +10151,11 @@
       <c r="J35" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="K35" s="155" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
         <v>168</v>
       </c>
@@ -9563,8 +10186,11 @@
       <c r="J36" s="35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="154" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="s">
         <v>172</v>
       </c>
@@ -9576,8 +10202,9 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
-    </row>
-    <row r="38" spans="1:10" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="154"/>
+    </row>
+    <row r="38" spans="1:11" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
         <v>173</v>
       </c>
@@ -9589,8 +10216,9 @@
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
-    </row>
-    <row r="39" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K38" s="154"/>
+    </row>
+    <row r="39" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
         <v>174</v>
       </c>
@@ -9621,8 +10249,11 @@
       <c r="J39" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K39" s="155" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
         <v>179</v>
       </c>
@@ -9653,8 +10284,9 @@
       <c r="J40" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K40" s="158"/>
+    </row>
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="41" t="s">
         <v>184</v>
       </c>
@@ -9683,8 +10315,11 @@
       <c r="J41" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K41" s="155" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
         <v>188</v>
       </c>
@@ -9713,8 +10348,9 @@
       <c r="J42" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K42" s="158"/>
+    </row>
+    <row r="43" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="41" t="s">
         <v>192</v>
       </c>
@@ -9745,8 +10381,11 @@
       <c r="J43" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K43" s="155" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
         <v>196</v>
       </c>
@@ -9777,8 +10416,11 @@
       <c r="J44" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K44" s="154" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="41" t="s">
         <v>201</v>
       </c>
@@ -9807,8 +10449,11 @@
       <c r="J45" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K45" s="155" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
         <v>204</v>
       </c>
@@ -9837,8 +10482,11 @@
       <c r="J46" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K46" s="154" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="41" t="s">
         <v>207</v>
       </c>
@@ -9867,8 +10515,11 @@
       <c r="J47" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K47" s="155" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
         <v>211</v>
       </c>
@@ -9899,8 +10550,11 @@
       <c r="J48" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K48" s="154" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="41" t="s">
         <v>215</v>
       </c>
@@ -9931,8 +10585,11 @@
       <c r="J49" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K49" s="155" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
         <v>220</v>
       </c>
@@ -9963,8 +10620,11 @@
       <c r="J50" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" s="55" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="K50" s="154" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="55" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="41" t="s">
         <v>225</v>
       </c>
@@ -9995,8 +10655,11 @@
       <c r="J51" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="K51" s="155" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
         <v>229</v>
       </c>
@@ -10027,8 +10690,11 @@
       <c r="J52" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K52" s="154" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
         <v>234</v>
       </c>
@@ -10059,8 +10725,11 @@
       <c r="J53" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K53" s="155" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
         <v>238</v>
       </c>
@@ -10091,8 +10760,11 @@
       <c r="J54" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K54" s="154" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="41" t="s">
         <v>241</v>
       </c>
@@ -10121,8 +10793,9 @@
       <c r="J55" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55" s="158"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
         <v>245</v>
       </c>
@@ -10149,13 +10822,15 @@
       <c r="J56" s="48" t="s">
         <v>67</v>
       </c>
+      <c r="K56" s="158"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J56">
     <sortCondition ref="A2:A56"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="K15:K19"/>
     <mergeCell ref="G15:G19"/>
     <mergeCell ref="H15:H19"/>
     <mergeCell ref="I15:I19"/>
@@ -10167,41 +10842,55 @@
     <mergeCell ref="E15:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F15 F20:F36 F39:F56">
-    <cfRule type="cellIs" dxfId="165" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="8" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H15 H20:H36 H39:H56">
-    <cfRule type="cellIs" dxfId="164" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="17" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="18" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 F1:F15 F20:F36 F39:F56">
-    <cfRule type="cellIs" dxfId="162" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="19" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="20" operator="equal">
       <formula>"Recommended"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="21" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="22" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J15 J20:J36 J39:J56">
-    <cfRule type="containsText" dxfId="158" priority="1" operator="containsText" text="Health and NL">
+    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="2" operator="containsText" text="HealthDCAT-AP">
+    <cfRule type="containsText" dxfId="165" priority="6" operator="containsText" text="HealthDCAT-AP">
       <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="3" operator="containsText" text="DCAT-AP NL">
+    <cfRule type="containsText" dxfId="164" priority="7" operator="containsText" text="DCAT-AP NL">
       <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="3" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="4" operator="equal">
+      <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
@@ -10215,7 +10904,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J52:J54 J56 J2:J15 J39:J50 J20:J36" xr:uid="{B80CEB2B-1BEF-4952-992A-5359B9DD2C11}">
       <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1, Health and NL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I15 I39:I1048576 I20:I36" xr:uid="{96DDE4B1-378F-48ED-B590-490B6967CC12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I15 I39:I1048576 I20:I36 K57:K1048576" xr:uid="{96DDE4B1-378F-48ED-B590-490B6967CC12}">
       <formula1>"Identical to v1, Adapted from v1, new"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F15 F39:F56 F20:F36" xr:uid="{584B70CE-0B19-4CA2-8DA1-B7818B2A385E}">
@@ -10249,11 +10938,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10268,10 +10957,11 @@
     <col min="8" max="8" width="10.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" style="35" customWidth="1"/>
     <col min="10" max="10" width="16" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="35"/>
+    <col min="11" max="11" width="23.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
@@ -10302,8 +10992,11 @@
       <c r="J1" s="147" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K1" s="153" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>28</v>
       </c>
@@ -10332,8 +11025,11 @@
       <c r="J2" s="35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K2" s="154" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>323</v>
       </c>
@@ -10364,8 +11060,9 @@
       <c r="J3" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K3" s="155"/>
+    </row>
+    <row r="4" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>328</v>
       </c>
@@ -10394,8 +11091,11 @@
       <c r="J4" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K4" s="35" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
         <v>55</v>
       </c>
@@ -10421,8 +11121,11 @@
       <c r="I5" s="48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K5" s="155" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>331</v>
       </c>
@@ -10453,8 +11156,9 @@
       <c r="J6" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K6" s="158"/>
+    </row>
+    <row r="7" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
         <v>68</v>
       </c>
@@ -10485,96 +11189,104 @@
       <c r="J7" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="158" t="s">
+      <c r="K7" s="155" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="186" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="160" t="s">
+      <c r="E8" s="188" t="s">
         <v>337</v>
       </c>
-      <c r="F8" s="161" t="s">
+      <c r="F8" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="161" t="s">
+      <c r="G8" s="189" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="157" t="s">
+      <c r="H8" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="153" t="s">
+      <c r="I8" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="153" t="s">
+      <c r="J8" s="184" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="158"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="158"/>
+      <c r="K8" s="158"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="186"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="160"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="158"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="158"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="158"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="186"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="186"/>
       <c r="D10" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="158"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="158"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="158"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="186"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="158"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="158"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="160"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="186"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="186"/>
       <c r="D12" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="160"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-    </row>
-    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="E12" s="188"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="158"/>
+    </row>
+    <row r="13" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>338</v>
       </c>
@@ -10603,8 +11315,9 @@
       <c r="J13" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K13" s="158"/>
+    </row>
+    <row r="14" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>341</v>
       </c>
@@ -10632,8 +11345,9 @@
       <c r="J14" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K14" s="158"/>
+    </row>
+    <row r="15" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>120</v>
       </c>
@@ -10662,8 +11376,11 @@
       <c r="J15" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K15" s="161" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
         <v>345</v>
       </c>
@@ -10691,8 +11408,11 @@
       <c r="J16" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K16" s="161" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>140</v>
       </c>
@@ -10721,8 +11441,11 @@
       <c r="J17" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K17" s="161" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>168</v>
       </c>
@@ -10753,8 +11476,11 @@
       <c r="J18" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K18" s="161" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>351</v>
       </c>
@@ -10783,8 +11509,9 @@
       <c r="J19" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K19" s="162"/>
+    </row>
+    <row r="20" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>192</v>
       </c>
@@ -10813,8 +11540,11 @@
       <c r="J20" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K20" s="157" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>312</v>
       </c>
@@ -10843,8 +11573,9 @@
       <c r="J21" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K21" s="158"/>
+    </row>
+    <row r="22" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>357</v>
       </c>
@@ -10875,8 +11606,9 @@
       <c r="J22" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K22" s="158"/>
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>211</v>
       </c>
@@ -10905,8 +11637,11 @@
       <c r="J23" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K23" s="154" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>362</v>
       </c>
@@ -10937,8 +11672,9 @@
       <c r="J24" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K24" s="163"/>
+    </row>
+    <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
         <v>225</v>
       </c>
@@ -10969,8 +11705,11 @@
       <c r="J25" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="155" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" s="37"/>
       <c r="C26" s="36"/>
@@ -10979,8 +11718,9 @@
       <c r="F26" s="50"/>
       <c r="G26" s="39"/>
       <c r="H26" s="40"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="156"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="36"/>
       <c r="B27" s="37"/>
       <c r="C27" s="36"/>
@@ -10989,8 +11729,9 @@
       <c r="F27" s="50"/>
       <c r="G27" s="39"/>
       <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="154"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="36"/>
       <c r="B28" s="37"/>
       <c r="C28" s="36"/>
@@ -10999,8 +11740,9 @@
       <c r="F28" s="51"/>
       <c r="G28" s="39"/>
       <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="154"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="36"/>
       <c r="B29" s="37"/>
       <c r="C29" s="36"/>
@@ -11009,8 +11751,9 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="154"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
       <c r="B30" s="37"/>
       <c r="C30" s="36"/>
@@ -11019,8 +11762,9 @@
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="154"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
       <c r="B31" s="37"/>
       <c r="D31" s="36"/>
@@ -11028,8 +11772,9 @@
       <c r="F31" s="50"/>
       <c r="G31" s="39"/>
       <c r="H31" s="40"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="154"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="36"/>
       <c r="B32" s="37"/>
       <c r="C32" s="36"/>
@@ -11038,8 +11783,9 @@
       <c r="F32" s="50"/>
       <c r="G32" s="39"/>
       <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K32" s="154"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="36"/>
       <c r="B33" s="37"/>
       <c r="C33" s="36"/>
@@ -11048,8 +11794,9 @@
       <c r="F33" s="50"/>
       <c r="G33" s="39"/>
       <c r="H33" s="40"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K33" s="170"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="36"/>
       <c r="B34" s="37"/>
       <c r="C34" s="36"/>
@@ -11058,8 +11805,9 @@
       <c r="F34" s="51"/>
       <c r="G34" s="39"/>
       <c r="H34" s="40"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K34" s="154"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="36"/>
       <c r="B35" s="37"/>
       <c r="C35" s="36"/>
@@ -11068,8 +11816,9 @@
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="40"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K35" s="154"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="36"/>
       <c r="B36" s="37"/>
       <c r="C36" s="36"/>
@@ -11078,8 +11827,9 @@
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="40"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K36" s="154"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="36"/>
       <c r="B37" s="37"/>
       <c r="D37" s="36"/>
@@ -11087,8 +11837,9 @@
       <c r="F37" s="50"/>
       <c r="G37" s="39"/>
       <c r="H37" s="40"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K37" s="154"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
       <c r="C38" s="36"/>
@@ -11097,8 +11848,9 @@
       <c r="F38" s="50"/>
       <c r="G38" s="39"/>
       <c r="H38" s="40"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K38" s="154"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="36"/>
       <c r="B39" s="37"/>
       <c r="C39" s="36"/>
@@ -11107,8 +11859,11 @@
       <c r="F39" s="50"/>
       <c r="G39" s="39"/>
       <c r="H39" s="40"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K39" s="155" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
       <c r="C40" s="36"/>
@@ -11117,8 +11872,9 @@
       <c r="F40" s="51"/>
       <c r="G40" s="39"/>
       <c r="H40" s="40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K40" s="158"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="36"/>
       <c r="B41" s="37"/>
       <c r="C41" s="36"/>
@@ -11127,8 +11883,11 @@
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
       <c r="H41" s="40"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K41" s="155" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
       <c r="C42" s="36"/>
@@ -11137,8 +11896,9 @@
       <c r="F42" s="50"/>
       <c r="G42" s="39"/>
       <c r="H42" s="40"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K42" s="158"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="36"/>
       <c r="B43" s="37"/>
       <c r="C43" s="36"/>
@@ -11147,8 +11907,11 @@
       <c r="F43" s="50"/>
       <c r="G43" s="39"/>
       <c r="H43" s="40"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K43" s="155" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="36"/>
       <c r="B44" s="37"/>
       <c r="C44" s="36"/>
@@ -11157,8 +11920,11 @@
       <c r="F44" s="51"/>
       <c r="G44" s="39"/>
       <c r="H44" s="40"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K44" s="154" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="36"/>
       <c r="B45" s="37"/>
       <c r="C45" s="36"/>
@@ -11167,8 +11933,11 @@
       <c r="F45" s="39"/>
       <c r="G45" s="39"/>
       <c r="H45" s="40"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K45" s="155" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="36"/>
       <c r="B46" s="37"/>
       <c r="C46" s="36"/>
@@ -11177,8 +11946,11 @@
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
       <c r="H46" s="40"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K46" s="154" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="36"/>
       <c r="B47" s="37"/>
       <c r="D47" s="36"/>
@@ -11186,8 +11958,11 @@
       <c r="F47" s="50"/>
       <c r="G47" s="39"/>
       <c r="H47" s="40"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K47" s="155" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="36"/>
       <c r="B48" s="37"/>
       <c r="C48" s="36"/>
@@ -11196,8 +11971,11 @@
       <c r="F48" s="50"/>
       <c r="G48" s="39"/>
       <c r="H48" s="40"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K48" s="154" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="36"/>
       <c r="B49" s="37"/>
       <c r="C49" s="36"/>
@@ -11206,8 +11984,11 @@
       <c r="F49" s="50"/>
       <c r="G49" s="39"/>
       <c r="H49" s="40"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K49" s="155" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="36"/>
@@ -11216,8 +11997,11 @@
       <c r="F50" s="51"/>
       <c r="G50" s="39"/>
       <c r="H50" s="40"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K50" s="154" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="36"/>
       <c r="B51" s="37"/>
       <c r="C51" s="36"/>
@@ -11226,8 +12010,11 @@
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
       <c r="H51" s="40"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K51" s="155" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="36"/>
       <c r="B52" s="37"/>
       <c r="C52" s="36"/>
@@ -11236,8 +12023,11 @@
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
       <c r="H52" s="40"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K52" s="154" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="36"/>
       <c r="B53" s="37"/>
       <c r="C53" s="36"/>
@@ -11246,8 +12036,11 @@
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
       <c r="H53" s="40"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K53" s="155" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="36"/>
       <c r="B54" s="37"/>
       <c r="C54" s="36"/>
@@ -11256,8 +12049,11 @@
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
       <c r="H54" s="40"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K54" s="154" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="36"/>
       <c r="B55" s="37"/>
       <c r="D55" s="36"/>
@@ -11265,8 +12061,9 @@
       <c r="F55" s="50"/>
       <c r="G55" s="39"/>
       <c r="H55" s="40"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K55" s="158"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="36"/>
       <c r="B56" s="37"/>
       <c r="C56" s="36"/>
@@ -11275,8 +12072,9 @@
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
       <c r="H56" s="40"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K56" s="154"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="36"/>
       <c r="B57" s="37"/>
       <c r="C57" s="36"/>
@@ -11303,77 +12101,91 @@
     <mergeCell ref="G8:G12"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F8">
-    <cfRule type="cellIs" dxfId="155" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="16" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F57">
-    <cfRule type="cellIs" dxfId="154" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="31" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="30" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="29" operator="equal">
+      <formula>"Optional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="26" operator="equal">
       <formula>"Not added"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="25" operator="equal">
-      <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="26" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="27" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="32" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H8">
-    <cfRule type="cellIs" dxfId="149" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="17" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="18" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H57">
-    <cfRule type="cellIs" dxfId="147" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="27" operator="greaterThan">
       <formula>"reviewd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="28" operator="equal">
       <formula>"needs review"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 F1:F8">
-    <cfRule type="cellIs" dxfId="145" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="8" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="7" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="6" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="5" operator="equal">
       <formula>"Optional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="2" operator="equal">
-      <formula>"Recommended"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="3" operator="equal">
-      <formula>"Mandatory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="4" operator="equal">
-      <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J8">
-    <cfRule type="containsText" dxfId="141" priority="9" operator="containsText" text="Health and NL">
+    <cfRule type="containsText" dxfId="145" priority="13" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="10" operator="containsText" text="HealthDCAT-AP">
+    <cfRule type="containsText" dxfId="144" priority="14" operator="containsText" text="HealthDCAT-AP">
       <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="11" operator="containsText" text="DCAT-AP NL">
+    <cfRule type="containsText" dxfId="143" priority="15" operator="containsText" text="DCAT-AP NL">
       <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J57">
-    <cfRule type="containsText" dxfId="138" priority="19" operator="containsText" text="Health and NL">
+    <cfRule type="containsText" dxfId="142" priority="23" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="20" operator="containsText" text="HealthDCAT-AP">
+    <cfRule type="containsText" dxfId="141" priority="24" operator="containsText" text="HealthDCAT-AP">
       <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="21" operator="containsText" text="DCAT-AP NL">
+    <cfRule type="containsText" dxfId="140" priority="25" operator="containsText" text="DCAT-AP NL">
       <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="139" priority="4" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="3" operator="equal">
+      <formula>"Mandatory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="2" operator="equal">
+      <formula>"Recommended"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="1" operator="equal">
+      <formula>"Optional"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
@@ -11389,7 +12201,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J26:J1048576" xr:uid="{DF04DE99-7912-447A-8D69-145BAB6C72E0}">
       <formula1>"DCAT-AP v3, HealthDCAT-AP, DCAT-AP NL, HRI v1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8 I13:I1048576" xr:uid="{BDB4FC21-78EB-412C-BDE7-A8B62BC5F962}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8 I13:I1048576 K57:K1048576" xr:uid="{BDB4FC21-78EB-412C-BDE7-A8B62BC5F962}">
       <formula1>"Identical to v1, Adapted from v1, new"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{42665364-4F58-419C-9C93-25424D65C38E}"/>
@@ -11417,11 +12229,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11436,10 +12248,11 @@
     <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="2"/>
+    <col min="11" max="11" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
@@ -11470,8 +12283,11 @@
       <c r="J1" s="147" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K1" s="164" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>247</v>
       </c>
@@ -11502,8 +12318,11 @@
       <c r="J2" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K2" s="165" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>252</v>
       </c>
@@ -11534,8 +12353,11 @@
       <c r="J3" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K3" s="165" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>28</v>
       </c>
@@ -11564,8 +12386,11 @@
       <c r="J4" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K4" s="166" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
         <v>258</v>
       </c>
@@ -11596,8 +12421,11 @@
       <c r="J5" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K5" s="165" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>263</v>
       </c>
@@ -11628,8 +12456,11 @@
       <c r="J6" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K6" s="165" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
         <v>268</v>
       </c>
@@ -11660,8 +12491,11 @@
       <c r="J7" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K7" s="165" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>68</v>
       </c>
@@ -11692,8 +12526,11 @@
       <c r="J8" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K8" s="165" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
         <v>78</v>
       </c>
@@ -11724,8 +12561,11 @@
       <c r="J9" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K9" s="165" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>278</v>
       </c>
@@ -11756,8 +12596,11 @@
       <c r="J10" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K10" s="165" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>282</v>
       </c>
@@ -11788,8 +12631,11 @@
       <c r="J11" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="166" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>120</v>
       </c>
@@ -11820,8 +12666,11 @@
       <c r="J12" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K12" s="165" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>291</v>
       </c>
@@ -11852,8 +12701,11 @@
       <c r="J13" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K13" s="165" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>297</v>
       </c>
@@ -11884,8 +12736,11 @@
       <c r="J14" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="K14" s="165" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>300</v>
       </c>
@@ -11916,8 +12771,11 @@
       <c r="J15" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K15" s="165" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
         <v>140</v>
       </c>
@@ -11946,8 +12804,11 @@
       <c r="J16" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K16" s="165" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>305</v>
       </c>
@@ -11978,8 +12839,11 @@
       <c r="J17" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K17" s="165" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>192</v>
       </c>
@@ -12010,8 +12874,11 @@
       <c r="J18" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K18" s="165" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>196</v>
       </c>
@@ -12038,10 +12905,11 @@
         <v>17</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="K19" s="171"/>
+    </row>
+    <row r="20" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>312</v>
       </c>
@@ -12072,8 +12940,11 @@
       <c r="J20" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K20" s="166" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>207</v>
       </c>
@@ -12104,8 +12975,11 @@
       <c r="J21" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K21" s="165" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>215</v>
       </c>
@@ -12136,8 +13010,9 @@
       <c r="J22" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K22" s="172"/>
+    </row>
+    <row r="23" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>225</v>
       </c>
@@ -12168,8 +13043,11 @@
       <c r="J23" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="165" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="8"/>
       <c r="C24" s="26"/>
@@ -12178,8 +13056,9 @@
       <c r="F24" s="30"/>
       <c r="G24" s="25"/>
       <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="167"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="8"/>
       <c r="C25" s="32"/>
@@ -12188,8 +13067,9 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="165"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="8"/>
       <c r="C26" s="26"/>
@@ -12198,8 +13078,9 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="167"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="8"/>
       <c r="D27" s="26"/>
@@ -12207,8 +13088,9 @@
       <c r="F27" s="29"/>
       <c r="G27" s="25"/>
       <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="165"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="8"/>
       <c r="C28" s="26"/>
@@ -12217,8 +13099,9 @@
       <c r="F28" s="29"/>
       <c r="G28" s="25"/>
       <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="165"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="8"/>
       <c r="C29" s="26"/>
@@ -12226,8 +13109,9 @@
       <c r="F29" s="29"/>
       <c r="G29" s="25"/>
       <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="165"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="8"/>
       <c r="C30" s="26"/>
@@ -12236,8 +13120,9 @@
       <c r="F30" s="30"/>
       <c r="G30" s="25"/>
       <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="165"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="8"/>
       <c r="C31" s="32"/>
@@ -12246,8 +13131,9 @@
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="165"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="8"/>
       <c r="C32" s="26"/>
@@ -12256,8 +13142,9 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K32" s="165"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="8"/>
       <c r="D33" s="26"/>
@@ -12265,8 +13152,9 @@
       <c r="F33" s="29"/>
       <c r="G33" s="25"/>
       <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K33" s="169"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="8"/>
       <c r="C34" s="26"/>
@@ -12275,8 +13163,9 @@
       <c r="F34" s="29"/>
       <c r="G34" s="25"/>
       <c r="H34" s="27"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K34" s="165"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="8"/>
       <c r="C35" s="26"/>
@@ -12284,8 +13173,9 @@
       <c r="F35" s="29"/>
       <c r="G35" s="25"/>
       <c r="H35" s="27"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K35" s="165"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="8"/>
       <c r="C36" s="26"/>
@@ -12294,8 +13184,9 @@
       <c r="F36" s="30"/>
       <c r="G36" s="25"/>
       <c r="H36" s="27"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K36" s="165"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="8"/>
       <c r="C37" s="32"/>
@@ -12304,8 +13195,9 @@
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="27"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K37" s="165"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
       <c r="B38" s="8"/>
       <c r="C38" s="26"/>
@@ -12314,8 +13206,9 @@
       <c r="F38" s="29"/>
       <c r="G38" s="25"/>
       <c r="H38" s="27"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K38" s="165"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="8"/>
       <c r="C39" s="26"/>
@@ -12323,8 +13216,9 @@
       <c r="F39" s="29"/>
       <c r="G39" s="25"/>
       <c r="H39" s="27"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K39" s="165"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="8"/>
       <c r="C40" s="26"/>
@@ -12333,8 +13227,9 @@
       <c r="F40" s="30"/>
       <c r="G40" s="25"/>
       <c r="H40" s="27"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K40" s="165"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
       <c r="B41" s="8"/>
       <c r="C41" s="32"/>
@@ -12343,8 +13238,9 @@
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
       <c r="H41" s="27"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K41" s="165"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
       <c r="B42" s="8"/>
       <c r="C42" s="26"/>
@@ -12353,8 +13249,9 @@
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="H42" s="27"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K42" s="165"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="8"/>
       <c r="D43" s="26"/>
@@ -12362,8 +13259,9 @@
       <c r="F43" s="29"/>
       <c r="G43" s="25"/>
       <c r="H43" s="27"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K43" s="165"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
       <c r="B44" s="8"/>
       <c r="C44" s="26"/>
@@ -12372,8 +13270,9 @@
       <c r="F44" s="29"/>
       <c r="G44" s="25"/>
       <c r="H44" s="27"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K44" s="165"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="8"/>
       <c r="C45" s="26"/>
@@ -12381,8 +13280,9 @@
       <c r="F45" s="29"/>
       <c r="G45" s="25"/>
       <c r="H45" s="27"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K45" s="165"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
       <c r="B46" s="8"/>
       <c r="C46" s="26"/>
@@ -12391,8 +13291,9 @@
       <c r="F46" s="30"/>
       <c r="G46" s="25"/>
       <c r="H46" s="27"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K46" s="165"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="B47" s="8"/>
       <c r="C47" s="32"/>
@@ -12401,8 +13302,9 @@
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="27"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K47" s="165"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
       <c r="B48" s="8"/>
       <c r="C48" s="26"/>
@@ -12410,8 +13312,9 @@
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="27"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K48" s="165"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="8"/>
       <c r="C49" s="26"/>
@@ -12419,8 +13322,9 @@
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
       <c r="H49" s="27"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K49" s="165"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
       <c r="B50" s="8"/>
       <c r="C50" s="26"/>
@@ -12429,8 +13333,9 @@
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
       <c r="H50" s="27"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K50" s="165"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
       <c r="B51" s="8"/>
       <c r="D51" s="26"/>
@@ -12438,8 +13343,9 @@
       <c r="F51" s="29"/>
       <c r="G51" s="25"/>
       <c r="H51" s="27"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K51" s="165"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
       <c r="B52" s="8"/>
       <c r="C52" s="26"/>
@@ -12448,8 +13354,9 @@
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="27"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K52" s="165"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
       <c r="B53" s="8"/>
       <c r="C53" s="26"/>
@@ -12458,6 +13365,19 @@
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
       <c r="H53" s="27"/>
+      <c r="K53" s="165"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="165"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="165"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="165"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="166"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J23" xr:uid="{D216357D-42A4-49FA-9AEC-3DDC66FD6459}"/>
@@ -12545,11 +13465,11 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12557,17 +13477,18 @@
     <col min="1" max="1" width="24.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" style="10" customWidth="1"/>
     <col min="3" max="3" width="53.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="54.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="10" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="54.5" style="10" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" style="135" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="135" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="141" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" style="135" customWidth="1"/>
     <col min="10" max="10" width="16" style="135" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="135"/>
+    <col min="11" max="11" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="135"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
@@ -12598,8 +13519,11 @@
       <c r="J1" s="147" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="164" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
         <v>369</v>
       </c>
@@ -12624,8 +13548,9 @@
         <v>17</v>
       </c>
       <c r="J2" s="64"/>
-    </row>
-    <row r="3" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="K2" s="173"/>
+    </row>
+    <row r="3" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="65" t="s">
         <v>370</v>
       </c>
@@ -12656,8 +13581,11 @@
       <c r="J3" s="64" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K3" s="135" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
         <v>104</v>
       </c>
@@ -12688,8 +13616,11 @@
       <c r="J4" s="64" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K4" s="135" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>379</v>
       </c>
@@ -12720,8 +13651,11 @@
       <c r="J5" s="64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="K5" s="135" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="130" t="s">
         <v>173</v>
       </c>
@@ -12752,8 +13686,9 @@
       <c r="J6" s="119" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="K6" s="173"/>
+    </row>
+    <row r="7" spans="1:11" ht="144" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
         <v>172</v>
       </c>
@@ -12784,8 +13719,9 @@
       <c r="J7" s="119" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K7" s="173"/>
+    </row>
+    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="59" t="s">
         <v>229</v>
       </c>
@@ -12816,8 +13752,11 @@
       <c r="J8" s="64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K8" s="135" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="104" t="s">
         <v>392</v>
       </c>
@@ -12848,8 +13787,11 @@
       <c r="J9" s="64" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="135" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="8"/>
       <c r="C10" s="26"/>
@@ -12860,8 +13802,9 @@
       <c r="H10" s="27"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="165"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="8"/>
       <c r="D11" s="26"/>
@@ -12871,8 +13814,9 @@
       <c r="H11" s="27"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="166"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="8"/>
       <c r="C12" s="26"/>
@@ -12883,8 +13827,9 @@
       <c r="H12" s="27"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="165"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="8"/>
       <c r="C13" s="26"/>
@@ -12895,8 +13840,9 @@
       <c r="H13" s="27"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="165"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="8"/>
       <c r="C14" s="26"/>
@@ -12907,8 +13853,9 @@
       <c r="H14" s="27"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="165"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="8"/>
       <c r="C15" s="32"/>
@@ -12919,8 +13866,9 @@
       <c r="H15" s="27"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="165"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="8"/>
       <c r="C16" s="26"/>
@@ -12931,8 +13879,9 @@
       <c r="H16" s="27"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="165"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="8"/>
       <c r="D17" s="26"/>
@@ -12942,8 +13891,9 @@
       <c r="H17" s="27"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="165"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="8"/>
       <c r="C18" s="26"/>
@@ -12954,8 +13904,9 @@
       <c r="H18" s="27"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="165"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="8"/>
       <c r="C19" s="26"/>
@@ -12966,8 +13917,9 @@
       <c r="H19" s="27"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="168"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="8"/>
       <c r="C20" s="26"/>
@@ -12978,8 +13930,9 @@
       <c r="H20" s="27"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="166"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="8"/>
       <c r="C21" s="32"/>
@@ -12990,8 +13943,9 @@
       <c r="H21" s="27"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="165"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="8"/>
       <c r="C22" s="26"/>
@@ -13002,8 +13956,9 @@
       <c r="H22" s="27"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="165"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="8"/>
       <c r="D23" s="33"/>
@@ -13013,8 +13968,9 @@
       <c r="H23" s="27"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="165"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="8"/>
       <c r="C24" s="26"/>
@@ -13025,8 +13981,9 @@
       <c r="H24" s="27"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="167"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="8"/>
       <c r="C25" s="26"/>
@@ -13037,8 +13994,9 @@
       <c r="H25" s="27"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="165"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="8"/>
       <c r="C26" s="26"/>
@@ -13049,8 +14007,9 @@
       <c r="H26" s="27"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="167"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="8"/>
       <c r="C27" s="32"/>
@@ -13061,8 +14020,9 @@
       <c r="H27" s="27"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="165"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="8"/>
       <c r="C28" s="26"/>
@@ -13073,8 +14033,9 @@
       <c r="H28" s="27"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="165"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="8"/>
       <c r="D29" s="26"/>
@@ -13084,8 +14045,9 @@
       <c r="H29" s="27"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="165"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="8"/>
       <c r="C30" s="26"/>
@@ -13096,8 +14058,9 @@
       <c r="H30" s="27"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="165"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="8"/>
       <c r="C31" s="26"/>
@@ -13108,8 +14071,9 @@
       <c r="H31" s="27"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="165"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="8"/>
       <c r="C32" s="26"/>
@@ -13120,8 +14084,9 @@
       <c r="H32" s="27"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="165"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="8"/>
       <c r="C33" s="32"/>
@@ -13132,8 +14097,9 @@
       <c r="H33" s="27"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="169"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="8"/>
       <c r="C34" s="26"/>
@@ -13144,8 +14110,9 @@
       <c r="H34" s="27"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="165"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="8"/>
       <c r="D35" s="26"/>
@@ -13155,8 +14122,9 @@
       <c r="H35" s="27"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="165"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="8"/>
       <c r="C36" s="26"/>
@@ -13167,8 +14135,9 @@
       <c r="H36" s="27"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="165"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="8"/>
       <c r="C37" s="26"/>
@@ -13179,8 +14148,9 @@
       <c r="H37" s="27"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="165"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
       <c r="B38" s="8"/>
       <c r="C38" s="26"/>
@@ -13191,8 +14161,9 @@
       <c r="H38" s="27"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="165"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="8"/>
       <c r="C39" s="32"/>
@@ -13203,8 +14174,9 @@
       <c r="H39" s="27"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="165"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="8"/>
       <c r="C40" s="26"/>
@@ -13215,8 +14187,9 @@
       <c r="H40" s="27"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="165"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
       <c r="B41" s="8"/>
       <c r="C41" s="26"/>
@@ -13227,8 +14200,9 @@
       <c r="H41" s="27"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="165"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
       <c r="B42" s="8"/>
       <c r="C42" s="26"/>
@@ -13239,8 +14213,9 @@
       <c r="H42" s="27"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="165"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="8"/>
       <c r="C43" s="32"/>
@@ -13251,8 +14226,9 @@
       <c r="H43" s="27"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="165"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
       <c r="B44" s="8"/>
       <c r="C44" s="26"/>
@@ -13263,8 +14239,9 @@
       <c r="H44" s="27"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="165"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="8"/>
       <c r="D45" s="26"/>
@@ -13274,8 +14251,9 @@
       <c r="H45" s="27"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="165"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
       <c r="B46" s="8"/>
       <c r="C46" s="26"/>
@@ -13286,8 +14264,9 @@
       <c r="H46" s="27"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" s="165"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="B47" s="8"/>
       <c r="C47" s="26"/>
@@ -13298,8 +14277,9 @@
       <c r="H47" s="27"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="165"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
       <c r="B48" s="8"/>
       <c r="C48" s="26"/>
@@ -13310,8 +14290,9 @@
       <c r="H48" s="27"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="165"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="8"/>
       <c r="C49" s="32"/>
@@ -13322,8 +14303,9 @@
       <c r="H49" s="27"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="165"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
       <c r="B50" s="8"/>
       <c r="C50" s="26"/>
@@ -13334,8 +14316,9 @@
       <c r="H50" s="27"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" s="165"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
       <c r="B51" s="8"/>
       <c r="C51" s="26"/>
@@ -13346,8 +14329,9 @@
       <c r="H51" s="27"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" s="165"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
       <c r="B52" s="8"/>
       <c r="C52" s="26"/>
@@ -13358,8 +14342,9 @@
       <c r="H52" s="27"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" s="165"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
       <c r="B53" s="8"/>
       <c r="D53" s="26"/>
@@ -13369,8 +14354,9 @@
       <c r="H53" s="27"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53" s="165"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="26"/>
       <c r="B54" s="8"/>
       <c r="C54" s="26"/>
@@ -13381,8 +14367,9 @@
       <c r="H54" s="27"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54" s="165"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="26"/>
       <c r="B55" s="8"/>
       <c r="C55" s="26"/>
@@ -13393,6 +14380,13 @@
       <c r="H55" s="27"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
+      <c r="K55" s="165"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="165"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="166"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J9" xr:uid="{46F507EB-9201-48ED-BA4A-FAE0A681069A}"/>
@@ -13471,11 +14465,11 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13490,10 +14484,11 @@
     <col min="8" max="8" width="10.6640625" style="141" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" style="135" customWidth="1"/>
     <col min="10" max="10" width="16" style="135" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="135"/>
+    <col min="11" max="11" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="135"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
@@ -13524,8 +14519,11 @@
       <c r="J1" s="147" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K1" s="164" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
         <v>395</v>
       </c>
@@ -13556,8 +14554,11 @@
       <c r="J2" s="64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K2" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="65" t="s">
         <v>398</v>
       </c>
@@ -13588,8 +14589,11 @@
       <c r="J3" s="64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K3" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
         <v>402</v>
       </c>
@@ -13620,8 +14624,11 @@
       <c r="J4" s="64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
       <c r="B5" s="8"/>
       <c r="C5" s="26"/>
@@ -13632,8 +14639,9 @@
       <c r="H5" s="27"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="135"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
       <c r="B6" s="8"/>
       <c r="C6" s="26"/>
@@ -13644,8 +14652,9 @@
       <c r="H6" s="27"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="135"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="8"/>
       <c r="C7" s="32"/>
@@ -13656,8 +14665,9 @@
       <c r="H7" s="27"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="135"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="8"/>
       <c r="C8" s="26"/>
@@ -13668,8 +14678,9 @@
       <c r="H8" s="27"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="135"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="8"/>
       <c r="D9" s="26"/>
@@ -13679,8 +14690,9 @@
       <c r="H9" s="27"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="135"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="8"/>
       <c r="C10" s="26"/>
@@ -13691,8 +14703,9 @@
       <c r="H10" s="27"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="165"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="8"/>
       <c r="C11" s="26"/>
@@ -13703,8 +14716,9 @@
       <c r="H11" s="27"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="166"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="8"/>
       <c r="C12" s="26"/>
@@ -13715,8 +14729,9 @@
       <c r="H12" s="27"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="165"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="8"/>
       <c r="C13" s="32"/>
@@ -13727,8 +14742,9 @@
       <c r="H13" s="27"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="165"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="8"/>
       <c r="C14" s="26"/>
@@ -13739,8 +14755,9 @@
       <c r="H14" s="27"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="165"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="8"/>
       <c r="D15" s="26"/>
@@ -13750,8 +14767,9 @@
       <c r="H15" s="27"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="165"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="8"/>
       <c r="C16" s="26"/>
@@ -13762,8 +14780,9 @@
       <c r="H16" s="27"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="165"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="8"/>
       <c r="C17" s="26"/>
@@ -13774,8 +14793,9 @@
       <c r="H17" s="27"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="165"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="8"/>
       <c r="C18" s="26"/>
@@ -13786,8 +14806,9 @@
       <c r="H18" s="27"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="165"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="8"/>
       <c r="C19" s="32"/>
@@ -13798,8 +14819,9 @@
       <c r="H19" s="27"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="168"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="8"/>
       <c r="C20" s="26"/>
@@ -13810,8 +14832,9 @@
       <c r="H20" s="27"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="166"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="8"/>
       <c r="D21" s="33"/>
@@ -13821,8 +14844,9 @@
       <c r="H21" s="27"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="165"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="8"/>
       <c r="C22" s="26"/>
@@ -13833,8 +14857,9 @@
       <c r="H22" s="27"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="165"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="8"/>
       <c r="C23" s="26"/>
@@ -13845,8 +14870,9 @@
       <c r="H23" s="27"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="165"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="8"/>
       <c r="C24" s="26"/>
@@ -13857,8 +14883,9 @@
       <c r="H24" s="27"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="167"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="8"/>
       <c r="C25" s="32"/>
@@ -13869,8 +14896,9 @@
       <c r="H25" s="27"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="165"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="8"/>
       <c r="C26" s="26"/>
@@ -13881,8 +14909,9 @@
       <c r="H26" s="27"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="167"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="8"/>
       <c r="D27" s="26"/>
@@ -13892,8 +14921,9 @@
       <c r="H27" s="27"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="165"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="8"/>
       <c r="C28" s="26"/>
@@ -13904,8 +14934,9 @@
       <c r="H28" s="27"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="165"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="8"/>
       <c r="C29" s="26"/>
@@ -13916,8 +14947,9 @@
       <c r="H29" s="27"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="165"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="8"/>
       <c r="C30" s="26"/>
@@ -13928,8 +14960,9 @@
       <c r="H30" s="27"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="165"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="8"/>
       <c r="C31" s="32"/>
@@ -13940,8 +14973,9 @@
       <c r="H31" s="27"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="165"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="8"/>
       <c r="C32" s="26"/>
@@ -13952,8 +14986,9 @@
       <c r="H32" s="27"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="165"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="8"/>
       <c r="D33" s="26"/>
@@ -13963,8 +14998,9 @@
       <c r="H33" s="27"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="169"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="8"/>
       <c r="C34" s="26"/>
@@ -13975,8 +15011,9 @@
       <c r="H34" s="27"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="165"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="8"/>
       <c r="C35" s="26"/>
@@ -13987,8 +15024,9 @@
       <c r="H35" s="27"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="165"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="8"/>
       <c r="C36" s="26"/>
@@ -13999,8 +15037,9 @@
       <c r="H36" s="27"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="165"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="8"/>
       <c r="C37" s="32"/>
@@ -14011,8 +15050,9 @@
       <c r="H37" s="27"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="165"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
       <c r="B38" s="8"/>
       <c r="C38" s="26"/>
@@ -14023,8 +15063,9 @@
       <c r="H38" s="27"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="165"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="8"/>
       <c r="C39" s="26"/>
@@ -14035,8 +15076,9 @@
       <c r="H39" s="27"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="165"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="8"/>
       <c r="C40" s="26"/>
@@ -14047,8 +15089,9 @@
       <c r="H40" s="27"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="165"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
       <c r="B41" s="8"/>
       <c r="C41" s="32"/>
@@ -14059,8 +15102,9 @@
       <c r="H41" s="27"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="165"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
       <c r="B42" s="8"/>
       <c r="C42" s="26"/>
@@ -14071,8 +15115,9 @@
       <c r="H42" s="27"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="165"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="8"/>
       <c r="D43" s="26"/>
@@ -14082,8 +15127,9 @@
       <c r="H43" s="27"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="165"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
       <c r="B44" s="8"/>
       <c r="C44" s="26"/>
@@ -14094,8 +15140,9 @@
       <c r="H44" s="27"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="165"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="8"/>
       <c r="C45" s="26"/>
@@ -14106,8 +15153,9 @@
       <c r="H45" s="27"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="165"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
       <c r="B46" s="8"/>
       <c r="C46" s="26"/>
@@ -14118,8 +15166,9 @@
       <c r="H46" s="27"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" s="165"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="B47" s="8"/>
       <c r="C47" s="32"/>
@@ -14130,8 +15179,9 @@
       <c r="H47" s="27"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="165"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
       <c r="B48" s="8"/>
       <c r="C48" s="26"/>
@@ -14142,8 +15192,9 @@
       <c r="H48" s="27"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="165"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="8"/>
       <c r="C49" s="26"/>
@@ -14154,8 +15205,9 @@
       <c r="H49" s="27"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="165"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
       <c r="B50" s="8"/>
       <c r="C50" s="26"/>
@@ -14166,8 +15218,9 @@
       <c r="H50" s="27"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" s="165"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
       <c r="B51" s="8"/>
       <c r="D51" s="26"/>
@@ -14177,8 +15230,9 @@
       <c r="H51" s="27"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" s="165"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
       <c r="B52" s="8"/>
       <c r="C52" s="26"/>
@@ -14189,8 +15243,9 @@
       <c r="H52" s="27"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" s="165"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
       <c r="B53" s="8"/>
       <c r="C53" s="26"/>
@@ -14201,6 +15256,19 @@
       <c r="H53" s="27"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
+      <c r="K53" s="165"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="165"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="165"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="165"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="166"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J4">
@@ -14771,11 +15839,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14783,17 +15851,18 @@
     <col min="1" max="1" width="25.83203125" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" style="53" customWidth="1"/>
     <col min="3" max="3" width="38.1640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="77.33203125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="17" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="35"/>
+    <col min="4" max="4" width="46.33203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.33203125" style="53" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="35" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="35" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="35" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="35" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="35" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
@@ -14824,8 +15893,11 @@
       <c r="J1" s="147" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K1" s="164" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>28</v>
       </c>
@@ -14847,17 +15919,20 @@
       <c r="G2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="151" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K2" s="165" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>48</v>
       </c>
@@ -14888,8 +15963,11 @@
       <c r="J3" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K3" s="165" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>68</v>
       </c>
@@ -14920,8 +15998,11 @@
       <c r="J4" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K4" s="166" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>82</v>
       </c>
@@ -14952,96 +16033,104 @@
       <c r="J5" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="154" t="s">
+      <c r="K5" s="172"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="178" t="s">
         <v>550</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="177" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="156" t="s">
+      <c r="E6" s="180" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="150" t="s">
+      <c r="F6" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="150" t="s">
+      <c r="G6" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="151" t="s">
+      <c r="H6" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="152" t="s">
+      <c r="I6" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="153" t="s">
+      <c r="J6" s="184" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="154"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="154"/>
+      <c r="K6" s="190" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="177"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="156"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="153"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="154"/>
-      <c r="B8" s="155"/>
-      <c r="C8" s="154"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="190"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="154"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="154"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="190"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="153"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="154"/>
-      <c r="B10" s="155"/>
-      <c r="C10" s="154"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="190"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="177"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="177"/>
       <c r="D10" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="156"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="153"/>
-    </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="E10" s="180"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="190"/>
+    </row>
+    <row r="11" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>140</v>
       </c>
@@ -15072,8 +16161,11 @@
       <c r="J11" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K11" s="166" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>168</v>
       </c>
@@ -15104,8 +16196,11 @@
       <c r="J12" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="165" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>172</v>
       </c>
@@ -15117,8 +16212,9 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:10" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="165"/>
+    </row>
+    <row r="14" spans="1:11" s="119" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>173</v>
       </c>
@@ -15130,8 +16226,9 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K14" s="165"/>
+    </row>
+    <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
         <v>192</v>
       </c>
@@ -15162,8 +16259,11 @@
       <c r="J15" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="165" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>211</v>
       </c>
@@ -15185,17 +16285,20 @@
       <c r="G16" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="162" t="s">
+      <c r="H16" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="162" t="s">
+      <c r="I16" s="150" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="165" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
         <v>225</v>
       </c>
@@ -15226,9 +16329,133 @@
       <c r="J17" s="35" t="s">
         <v>73</v>
       </c>
+      <c r="K17" s="165" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="167"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="165"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="167"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="165"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="165"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="165"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="165"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="165"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="165"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="169"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="165"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="165"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K36" s="165"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K37" s="165"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="165"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="165"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="165"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="165"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="165"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="165"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="165"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="165"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="165"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="165"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="165"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="165"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="165"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="165"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="165"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="165"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="165"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="165"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="165"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="166"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="K6:K10"/>
     <mergeCell ref="H6:H10"/>
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="J6:J10"/>
@@ -15266,26 +16493,26 @@
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12 J15:J17 J2:J4 J6">
-    <cfRule type="containsText" dxfId="84" priority="4" operator="containsText" text="Health and NL">
+  <conditionalFormatting sqref="J2:J6">
+    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="Health and NL">
       <formula>NOT(ISERROR(SEARCH("Health and NL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="HealthDCAT-AP">
+    <cfRule type="containsText" dxfId="83" priority="2" operator="containsText" text="HealthDCAT-AP">
       <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="6" operator="containsText" text="DCAT-AP NL">
+    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="DCAT-AP NL">
       <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Health and NL">
-      <formula>NOT(ISERROR(SEARCH("Health and NL",J5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="HealthDCAT-AP">
-      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="DCAT-AP NL">
-      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J5)))</formula>
+  <conditionalFormatting sqref="J11:J12 J15:J17">
+    <cfRule type="containsText" dxfId="81" priority="4" operator="containsText" text="Health and NL">
+      <formula>NOT(ISERROR(SEARCH("Health and NL",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="HealthDCAT-AP">
+      <formula>NOT(ISERROR(SEARCH("HealthDCAT-AP",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="6" operator="containsText" text="DCAT-AP NL">
+      <formula>NOT(ISERROR(SEARCH("DCAT-AP NL",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
@@ -15323,6 +16550,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B1A1CF98C819F4881BB4349588D0C85" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff8ef391852eaca4511043a54bffd4a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfc87205-1831-4b6c-a7b4-76d40079a43e" xmlns:ns3="221af607-abea-4d5e-830c-567dcc03c0ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="201dd8b781da46d5daa37e3355db44fe" ns2:_="" ns3:_="">
     <xsd:import namespace="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
@@ -15565,18 +16804,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15587,6 +16814,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
+    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19A23828-4FF7-4569-837D-B1B2C775409F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15605,23 +16849,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
-    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}">
   <ds:schemaRefs>

--- a/Documents/Pre-release_metadata_CoreGenericHealth_p2.xlsx
+++ b/Documents/Pre-release_metadata_CoreGenericHealth_p2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri.sharepoint.com/sites/hri-team022/Shared Documents/05 - FAIR/Workplan &amp; Activities/2025/D1_Metadata, data modeling and library/1.Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3034" documentId="13_ncr:1_{F400FBA4-788C-A049-BCFC-7AF7AD8163AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFC96087-D49B-40A5-941E-CDF2EF1E60FF}"/>
+  <xr:revisionPtr revIDLastSave="3035" documentId="13_ncr:1_{F400FBA4-788C-A049-BCFC-7AF7AD8163AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED295DF2-4864-4FC9-8ABD-BE6BEA583584}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-12765" windowWidth="38640" windowHeight="21120" firstSheet="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-12765" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="14" r:id="rId1"/>
@@ -1252,9 +1252,6 @@
     <t>Specify the entity (person or organization) by providing an identifier. We recommend using an ORCID identifier for a person or ROR identifier for organization. Dutch governmenta organization are listed in TOOI. If these are not available, you can use ISNI, or Wikidata or any other identifier you may have. If you have multiple identifiers, you should provide them all.</t>
   </si>
   <si>
-    <t>1..1</t>
-  </si>
-  <si>
     <t>HRI v1</t>
   </si>
   <si>
@@ -1876,6 +1873,9 @@
   </si>
   <si>
     <t>The value of this property is the alternative identifier of the dataset, next to the one indicated in the dct:identifier property.</t>
+  </si>
+  <si>
+    <t>1..1</t>
   </si>
   <si>
     <t>schema agency</t>
@@ -2907,9 +2907,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -2967,29 +2964,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3041,20 +3017,11 @@
     <xf numFmtId="49" fontId="43" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3113,9 +3080,6 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3214,6 +3178,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6883,7 +6883,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <sheetData/>
@@ -6909,7 +6909,7 @@
     <col min="11" max="11" width="22.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="229" customFormat="1" ht="43.5">
+    <row r="1" spans="1:12" s="217" customFormat="1" ht="43.5">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -6940,7 +6940,7 @@
       <c r="J1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="226" t="s">
+      <c r="K1" s="214" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="109" t="s">
@@ -6948,38 +6948,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="87">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="210" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="77" t="s">
         <v>533</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="D2" s="210" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="211" t="s">
         <v>534</v>
       </c>
-      <c r="D2" s="222" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="223" t="s">
+      <c r="F2" s="212" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="173" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="212" t="s">
         <v>535</v>
       </c>
-      <c r="F2" s="224" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="184" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="224" t="s">
-        <v>362</v>
-      </c>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="185" t="s">
+      <c r="J2" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="181"/>
-      <c r="L2" s="212"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="200"/>
     </row>
     <row r="3" spans="1:12" ht="29.25">
       <c r="A3" s="69" t="s">
@@ -6994,24 +6994,24 @@
       <c r="D3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="187"/>
-      <c r="F3" s="188" t="s">
+      <c r="E3" s="176"/>
+      <c r="F3" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="188" t="s">
+      <c r="G3" s="177" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="188" t="s">
+      <c r="H3" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="189" t="s">
+      <c r="I3" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="185" t="s">
+      <c r="J3" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="192"/>
-      <c r="L3" s="221"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="209"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F3">
@@ -9089,7 +9089,7 @@
       <c r="D2" s="79" t="s">
         <v>612</v>
       </c>
-      <c r="E2" s="223" t="s">
+      <c r="E2" s="211" t="s">
         <v>613</v>
       </c>
       <c r="F2" s="47" t="s">
@@ -9780,7 +9780,7 @@
     <col min="13" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="225" customFormat="1" ht="42">
+    <row r="1" spans="1:12" s="213" customFormat="1" ht="42">
       <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
@@ -9819,28 +9819,28 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="174">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="123" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="126" t="s">
+      <c r="E2" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="127">
+      <c r="H2" s="126">
         <v>1</v>
       </c>
       <c r="I2" s="108" t="s">
@@ -9855,64 +9855,64 @@
       <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:12" ht="91.9" customHeight="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="127" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="130" t="s">
+      <c r="H3" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="133" t="s">
+      <c r="K3" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="132"/>
+      <c r="L3" s="131"/>
     </row>
     <row r="4" spans="1:12" s="119" customFormat="1" ht="130.5">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="133" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="136" t="s">
+      <c r="H4" s="135" t="s">
         <v>37</v>
       </c>
       <c r="I4" s="108" t="s">
@@ -9927,64 +9927,64 @@
       <c r="L4" s="108"/>
     </row>
     <row r="5" spans="1:12" ht="57.75">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="127" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="130" t="s">
+      <c r="G5" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="133" t="s">
+      <c r="K5" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="132"/>
+      <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:12" ht="29.25">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="123" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="127" t="s">
+      <c r="G6" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="H6" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="108" t="s">
@@ -9999,64 +9999,64 @@
       <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:12" ht="43.5">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="127" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="128" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="132" t="s">
+      <c r="I7" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="133" t="s">
+      <c r="K7" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="132"/>
+      <c r="L7" s="131"/>
     </row>
     <row r="8" spans="1:12" ht="43.5">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="123" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="127" t="s">
+      <c r="F8" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="131" t="s">
+      <c r="G8" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="127">
+      <c r="H8" s="126">
         <v>1</v>
       </c>
       <c r="I8" s="108" t="s">
@@ -10071,134 +10071,134 @@
       <c r="L8" s="108"/>
     </row>
     <row r="9" spans="1:12" ht="43.5">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="127" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="129" t="s">
+      <c r="E9" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="G9" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="130" t="s">
+      <c r="H9" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="132" t="s">
+      <c r="I9" s="131" t="s">
         <v>69</v>
       </c>
       <c r="J9" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="133" t="s">
+      <c r="K9" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="132"/>
+      <c r="L9" s="131"/>
     </row>
     <row r="10" spans="1:12" ht="43.5">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="123" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="127" t="s">
+      <c r="G10" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="127" t="s">
+      <c r="H10" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="132" t="s">
+      <c r="J10" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="140"/>
+      <c r="K10" s="139"/>
       <c r="L10" s="108"/>
     </row>
     <row r="11" spans="1:12" ht="57.75">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="127" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="129" t="s">
+      <c r="D11" s="128" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="130" t="s">
+      <c r="F11" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="130" t="s">
+      <c r="H11" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="132" t="s">
+      <c r="I11" s="131" t="s">
         <v>69</v>
       </c>
       <c r="J11" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="141" t="s">
+      <c r="K11" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="132"/>
+      <c r="L11" s="131"/>
     </row>
     <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="123" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="138" t="s">
+      <c r="E12" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="127" t="s">
+      <c r="F12" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="131" t="s">
+      <c r="G12" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="127" t="s">
+      <c r="H12" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="108" t="s">
@@ -10211,64 +10211,64 @@
       <c r="L12" s="108"/>
     </row>
     <row r="13" spans="1:12" ht="29.25">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="127" t="s">
         <v>89</v>
       </c>
       <c r="B13" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="130" t="s">
+      <c r="G13" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="130" t="s">
+      <c r="H13" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="132" t="s">
+      <c r="I13" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="133" t="s">
+      <c r="K13" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="132"/>
+      <c r="L13" s="131"/>
     </row>
     <row r="14" spans="1:12" ht="43.5">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="123" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D14" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="142" t="s">
+      <c r="E14" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="127" t="s">
+      <c r="G14" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="127" t="s">
+      <c r="H14" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="108" t="s">
@@ -10283,126 +10283,126 @@
       <c r="L14" s="108"/>
     </row>
     <row r="15" spans="1:12" ht="29.25">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="218" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="219" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="218" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="145" t="s">
+      <c r="D15" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="146" t="s">
+      <c r="E15" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="147" t="s">
+      <c r="F15" s="220" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="147" t="s">
+      <c r="G15" s="220" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="147" t="s">
+      <c r="H15" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="148" t="s">
+      <c r="I15" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="149" t="s">
+      <c r="J15" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="150"/>
-      <c r="L15" s="148"/>
+      <c r="K15" s="223"/>
+      <c r="L15" s="222"/>
     </row>
     <row r="16" spans="1:12" ht="29.25">
-      <c r="A16" s="143"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="151" t="s">
+      <c r="A16" s="218"/>
+      <c r="B16" s="219"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="148"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="222"/>
     </row>
     <row r="17" spans="1:12" ht="29.25">
-      <c r="A17" s="143"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="151" t="s">
+      <c r="A17" s="218"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="150"/>
-      <c r="L17" s="148"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="220"/>
+      <c r="H17" s="220"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="222"/>
     </row>
     <row r="18" spans="1:12" ht="15">
-      <c r="A18" s="143"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="151" t="s">
+      <c r="A18" s="218"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="148"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="220"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="224"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="222"/>
     </row>
     <row r="19" spans="1:12" ht="15">
-      <c r="A19" s="143"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="151" t="s">
+      <c r="A19" s="218"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="146"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="148"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
+      <c r="I19" s="222"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="223"/>
+      <c r="L19" s="222"/>
     </row>
     <row r="20" spans="1:12" ht="29.25">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="123" t="s">
         <v>111</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="142" t="s">
+      <c r="E20" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="127" t="s">
+      <c r="F20" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="131" t="s">
+      <c r="G20" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="127" t="s">
+      <c r="H20" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="108" t="s">
@@ -10411,70 +10411,70 @@
       <c r="J20" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="152" t="s">
+      <c r="K20" s="144" t="s">
         <v>116</v>
       </c>
       <c r="L20" s="108"/>
     </row>
     <row r="21" spans="1:12" ht="87">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="127" t="s">
         <v>117</v>
       </c>
       <c r="B21" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="128" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="130" t="s">
+      <c r="F21" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="130" t="s">
+      <c r="G21" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="130" t="s">
+      <c r="H21" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="132" t="s">
+      <c r="I21" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="133" t="s">
+      <c r="K21" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="L21" s="132"/>
+      <c r="L21" s="131"/>
     </row>
     <row r="22" spans="1:12" ht="87">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="123" t="s">
         <v>122</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="135" t="s">
+      <c r="D22" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="153" t="s">
+      <c r="E22" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="127" t="s">
+      <c r="F22" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="127" t="s">
+      <c r="G22" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="127">
+      <c r="H22" s="126">
         <v>1</v>
       </c>
       <c r="I22" s="108" t="s">
@@ -10489,62 +10489,62 @@
       <c r="L22" s="108"/>
     </row>
     <row r="23" spans="1:12" ht="15">
-      <c r="A23" s="128" t="s">
+      <c r="A23" s="127" t="s">
         <v>127</v>
       </c>
       <c r="B23" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="129" t="s">
+      <c r="E23" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="130" t="s">
+      <c r="F23" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="131" t="s">
+      <c r="G23" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="H23" s="130" t="s">
+      <c r="H23" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="132" t="s">
+      <c r="I23" s="131" t="s">
         <v>69</v>
       </c>
       <c r="J23" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="140"/>
-      <c r="L23" s="132"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="131"/>
     </row>
     <row r="24" spans="1:12" ht="29.25">
-      <c r="A24" s="124" t="s">
+      <c r="A24" s="123" t="s">
         <v>132</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="135" t="s">
+      <c r="D24" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="127" t="s">
+      <c r="F24" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="127" t="s">
+      <c r="G24" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="127" t="s">
+      <c r="H24" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="108" t="s">
@@ -10553,70 +10553,70 @@
       <c r="J24" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="152" t="s">
+      <c r="K24" s="144" t="s">
         <v>137</v>
       </c>
       <c r="L24" s="108"/>
     </row>
     <row r="25" spans="1:12" ht="43.5">
-      <c r="A25" s="128" t="s">
+      <c r="A25" s="127" t="s">
         <v>138</v>
       </c>
       <c r="B25" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="137" t="s">
+      <c r="C25" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="129" t="s">
+      <c r="D25" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="154" t="s">
+      <c r="E25" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="130" t="s">
+      <c r="F25" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="130" t="s">
+      <c r="G25" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="130" t="s">
+      <c r="H25" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="132" t="s">
+      <c r="I25" s="131" t="s">
         <v>61</v>
       </c>
       <c r="J25" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K25" s="133" t="s">
+      <c r="K25" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="L25" s="132"/>
+      <c r="L25" s="131"/>
     </row>
     <row r="26" spans="1:12" ht="43.5">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="123" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="135" t="s">
+      <c r="E26" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="127" t="s">
+      <c r="F26" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="127" t="s">
+      <c r="G26" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="H26" s="127" t="s">
+      <c r="H26" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="108" t="s">
@@ -10625,70 +10625,70 @@
       <c r="J26" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K26" s="156" t="s">
+      <c r="K26" s="148" t="s">
         <v>149</v>
       </c>
       <c r="L26" s="108"/>
     </row>
     <row r="27" spans="1:12" ht="115.5">
-      <c r="A27" s="128" t="s">
+      <c r="A27" s="127" t="s">
         <v>150</v>
       </c>
       <c r="B27" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="136" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="157" t="s">
+      <c r="D27" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="129" t="s">
+      <c r="E27" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="130" t="s">
+      <c r="F27" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="130" t="s">
+      <c r="G27" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="H27" s="130" t="s">
+      <c r="H27" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="132" t="s">
+      <c r="I27" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="133" t="s">
+      <c r="K27" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="L27" s="132"/>
+      <c r="L27" s="131"/>
     </row>
     <row r="28" spans="1:12" ht="29.25">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="123" t="s">
         <v>157</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="135" t="s">
+      <c r="D28" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="135" t="s">
+      <c r="E28" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="127" t="s">
+      <c r="F28" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="127" t="s">
+      <c r="G28" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="127" t="s">
+      <c r="H28" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I28" s="108" t="s">
@@ -10703,64 +10703,64 @@
       <c r="L28" s="108"/>
     </row>
     <row r="29" spans="1:12" ht="29.25">
-      <c r="A29" s="128" t="s">
+      <c r="A29" s="127" t="s">
         <v>163</v>
       </c>
       <c r="B29" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="D29" s="129" t="s">
+      <c r="D29" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="129" t="s">
+      <c r="E29" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="130" t="s">
+      <c r="F29" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="130" t="s">
+      <c r="G29" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="H29" s="130" t="s">
+      <c r="H29" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="132" t="s">
+      <c r="I29" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="133" t="s">
+      <c r="K29" s="132" t="s">
         <v>167</v>
       </c>
-      <c r="L29" s="132"/>
+      <c r="L29" s="131"/>
     </row>
     <row r="30" spans="1:12" ht="43.5">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="123" t="s">
         <v>168</v>
       </c>
       <c r="B30" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="124" t="s">
+      <c r="C30" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="135" t="s">
+      <c r="D30" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="127" t="s">
+      <c r="F30" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="127" t="s">
+      <c r="G30" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="127" t="s">
+      <c r="H30" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I30" s="108" t="s">
@@ -10775,64 +10775,64 @@
       <c r="L30" s="108"/>
     </row>
     <row r="31" spans="1:12" ht="29.25">
-      <c r="A31" s="128" t="s">
+      <c r="A31" s="127" t="s">
         <v>174</v>
       </c>
       <c r="B31" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="128" t="s">
+      <c r="C31" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="129" t="s">
+      <c r="D31" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="129" t="s">
+      <c r="E31" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="F31" s="130" t="s">
+      <c r="F31" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="130" t="s">
+      <c r="G31" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="H31" s="130" t="s">
+      <c r="H31" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="132" t="s">
+      <c r="I31" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J31" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K31" s="133" t="s">
+      <c r="K31" s="132" t="s">
         <v>179</v>
       </c>
-      <c r="L31" s="132"/>
+      <c r="L31" s="131"/>
     </row>
     <row r="32" spans="1:12" ht="15">
-      <c r="A32" s="124" t="s">
+      <c r="A32" s="123" t="s">
         <v>180</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="135" t="s">
+      <c r="D32" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F32" s="127" t="s">
+      <c r="F32" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="127" t="s">
+      <c r="G32" s="126" t="s">
         <v>178</v>
       </c>
-      <c r="H32" s="127" t="s">
+      <c r="H32" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I32" s="108" t="s">
@@ -10847,64 +10847,64 @@
       <c r="L32" s="108"/>
     </row>
     <row r="33" spans="1:12" ht="57.75">
-      <c r="A33" s="128" t="s">
+      <c r="A33" s="127" t="s">
         <v>185</v>
       </c>
       <c r="B33" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="129" t="s">
+      <c r="D33" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="129" t="s">
+      <c r="E33" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="130" t="s">
+      <c r="F33" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="131" t="s">
+      <c r="G33" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="130" t="s">
+      <c r="H33" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="132" t="s">
+      <c r="I33" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K33" s="133" t="s">
+      <c r="K33" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="L33" s="132"/>
+      <c r="L33" s="131"/>
     </row>
     <row r="34" spans="1:12" ht="57.75">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="123" t="s">
         <v>191</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="124" t="s">
+      <c r="C34" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="125" t="s">
+      <c r="D34" s="124" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="142" t="s">
+      <c r="E34" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="127" t="s">
+      <c r="F34" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="127" t="s">
+      <c r="G34" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="H34" s="127" t="s">
+      <c r="H34" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I34" s="108" t="s">
@@ -10919,64 +10919,64 @@
       <c r="L34" s="108"/>
     </row>
     <row r="35" spans="1:12" ht="29.25">
-      <c r="A35" s="128" t="s">
+      <c r="A35" s="127" t="s">
         <v>198</v>
       </c>
       <c r="B35" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="128" t="s">
+      <c r="C35" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="D35" s="129" t="s">
+      <c r="D35" s="128" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="F35" s="130" t="s">
+      <c r="F35" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="130" t="s">
+      <c r="G35" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="130" t="s">
+      <c r="H35" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="132" t="s">
+      <c r="I35" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J35" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="133" t="s">
+      <c r="K35" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="L35" s="132"/>
+      <c r="L35" s="131"/>
     </row>
     <row r="36" spans="1:12" ht="101.25">
-      <c r="A36" s="124" t="s">
+      <c r="A36" s="123" t="s">
         <v>203</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C36" s="124" t="s">
+      <c r="C36" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="D36" s="135" t="s">
+      <c r="D36" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="F36" s="127" t="s">
+      <c r="F36" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="131" t="s">
+      <c r="G36" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="127">
+      <c r="H36" s="126">
         <v>1</v>
       </c>
       <c r="I36" s="108" t="s">
@@ -10991,64 +10991,64 @@
       <c r="L36" s="108"/>
     </row>
     <row r="37" spans="1:12" ht="43.5">
-      <c r="A37" s="128" t="s">
+      <c r="A37" s="127" t="s">
         <v>208</v>
       </c>
       <c r="B37" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="C37" s="128" t="s">
+      <c r="C37" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="D37" s="157" t="s">
+      <c r="D37" s="149" t="s">
         <v>211</v>
       </c>
       <c r="E37" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="F37" s="130" t="s">
+      <c r="F37" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="130" t="s">
+      <c r="G37" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="H37" s="130" t="s">
+      <c r="H37" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="132" t="s">
+      <c r="I37" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J37" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="133" t="s">
+      <c r="K37" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="L37" s="132"/>
+      <c r="L37" s="131"/>
     </row>
     <row r="38" spans="1:12" ht="159">
-      <c r="A38" s="124" t="s">
+      <c r="A38" s="123" t="s">
         <v>215</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C38" s="155" t="s">
+      <c r="C38" s="147" t="s">
         <v>217</v>
       </c>
-      <c r="D38" s="135" t="s">
+      <c r="D38" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="135" t="s">
+      <c r="E38" s="134" t="s">
         <v>218</v>
       </c>
-      <c r="F38" s="127" t="s">
+      <c r="F38" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="131" t="s">
+      <c r="G38" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="H38" s="127" t="s">
+      <c r="H38" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I38" s="108" t="s">
@@ -11057,68 +11057,68 @@
       <c r="J38" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="140"/>
+      <c r="K38" s="139"/>
       <c r="L38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="43.5">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="127" t="s">
         <v>220</v>
       </c>
       <c r="B39" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="C39" s="128" t="s">
+      <c r="C39" s="127" t="s">
         <v>222</v>
       </c>
-      <c r="D39" s="129" t="s">
+      <c r="D39" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="129" t="s">
+      <c r="E39" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="F39" s="130" t="s">
+      <c r="F39" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="131" t="s">
+      <c r="G39" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="H39" s="130" t="s">
+      <c r="H39" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="132" t="s">
+      <c r="I39" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J39" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K39" s="133" t="s">
+      <c r="K39" s="132" t="s">
         <v>225</v>
       </c>
-      <c r="L39" s="132"/>
+      <c r="L39" s="131"/>
     </row>
     <row r="40" spans="1:12" ht="43.5">
-      <c r="A40" s="124" t="s">
+      <c r="A40" s="123" t="s">
         <v>226</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="C40" s="124" t="s">
+      <c r="C40" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="D40" s="135" t="s">
+      <c r="D40" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="135" t="s">
+      <c r="E40" s="134" t="s">
         <v>229</v>
       </c>
-      <c r="F40" s="127" t="s">
+      <c r="F40" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="131" t="s">
+      <c r="G40" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="H40" s="127" t="s">
+      <c r="H40" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I40" s="108" t="s">
@@ -11127,68 +11127,68 @@
       <c r="J40" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="140"/>
+      <c r="K40" s="139"/>
       <c r="L40" s="108"/>
     </row>
     <row r="41" spans="1:12" ht="29.25">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="127" t="s">
         <v>231</v>
       </c>
       <c r="B41" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="C41" s="128" t="s">
+      <c r="C41" s="127" t="s">
         <v>233</v>
       </c>
-      <c r="D41" s="129" t="s">
+      <c r="D41" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="129" t="s">
+      <c r="E41" s="128" t="s">
         <v>234</v>
       </c>
-      <c r="F41" s="130" t="s">
+      <c r="F41" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G41" s="130" t="s">
+      <c r="G41" s="129" t="s">
         <v>172</v>
       </c>
-      <c r="H41" s="130" t="s">
+      <c r="H41" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I41" s="132" t="s">
+      <c r="I41" s="131" t="s">
         <v>61</v>
       </c>
       <c r="J41" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K41" s="133" t="s">
+      <c r="K41" s="132" t="s">
         <v>235</v>
       </c>
-      <c r="L41" s="132"/>
+      <c r="L41" s="131"/>
     </row>
     <row r="42" spans="1:12" ht="29.25">
-      <c r="A42" s="124" t="s">
+      <c r="A42" s="123" t="s">
         <v>236</v>
       </c>
       <c r="B42" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="C42" s="124" t="s">
+      <c r="C42" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="D42" s="135" t="s">
+      <c r="D42" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="F42" s="127" t="s">
+      <c r="F42" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="131" t="s">
+      <c r="G42" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="H42" s="127" t="s">
+      <c r="H42" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I42" s="108" t="s">
@@ -11203,64 +11203,64 @@
       <c r="L42" s="108"/>
     </row>
     <row r="43" spans="1:12" ht="72.75">
-      <c r="A43" s="128" t="s">
+      <c r="A43" s="127" t="s">
         <v>242</v>
       </c>
       <c r="B43" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="C43" s="128" t="s">
+      <c r="C43" s="127" t="s">
         <v>244</v>
       </c>
-      <c r="D43" s="129" t="s">
+      <c r="D43" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="129" t="s">
+      <c r="E43" s="128" t="s">
         <v>245</v>
       </c>
-      <c r="F43" s="130" t="s">
+      <c r="F43" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="131" t="s">
+      <c r="G43" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="130" t="s">
+      <c r="H43" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="132" t="s">
+      <c r="I43" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="K43" s="133" t="s">
+      <c r="K43" s="132" t="s">
         <v>246</v>
       </c>
-      <c r="L43" s="132"/>
+      <c r="L43" s="131"/>
     </row>
     <row r="44" spans="1:12" ht="29.25">
-      <c r="A44" s="124" t="s">
+      <c r="A44" s="123" t="s">
         <v>247</v>
       </c>
       <c r="B44" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="124" t="s">
+      <c r="C44" s="123" t="s">
         <v>249</v>
       </c>
-      <c r="D44" s="135" t="s">
+      <c r="D44" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="142" t="s">
+      <c r="E44" s="141" t="s">
         <v>250</v>
       </c>
-      <c r="F44" s="127" t="s">
+      <c r="F44" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="131" t="s">
+      <c r="G44" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="H44" s="127" t="s">
+      <c r="H44" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I44" s="108" t="s">
@@ -11275,64 +11275,64 @@
       <c r="L44" s="108"/>
     </row>
     <row r="45" spans="1:12" ht="57.75">
-      <c r="A45" s="128" t="s">
+      <c r="A45" s="127" t="s">
         <v>252</v>
       </c>
       <c r="B45" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="128" t="s">
+      <c r="C45" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="D45" s="158" t="s">
+      <c r="D45" s="150" t="s">
         <v>255</v>
       </c>
-      <c r="E45" s="129" t="s">
+      <c r="E45" s="128" t="s">
         <v>256</v>
       </c>
-      <c r="F45" s="130" t="s">
+      <c r="F45" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="130" t="s">
+      <c r="G45" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="130" t="s">
+      <c r="H45" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I45" s="132" t="s">
+      <c r="I45" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J45" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="K45" s="133" t="s">
+      <c r="K45" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="L45" s="132"/>
+      <c r="L45" s="131"/>
     </row>
     <row r="46" spans="1:12" ht="29.25">
-      <c r="A46" s="124" t="s">
+      <c r="A46" s="123" t="s">
         <v>258</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="C46" s="124" t="s">
+      <c r="C46" s="123" t="s">
         <v>260</v>
       </c>
-      <c r="D46" s="135" t="s">
+      <c r="D46" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E46" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="F46" s="127" t="s">
+      <c r="F46" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="131" t="s">
+      <c r="G46" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="H46" s="127" t="s">
+      <c r="H46" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I46" s="108" t="s">
@@ -11347,64 +11347,64 @@
       <c r="L46" s="108"/>
     </row>
     <row r="47" spans="1:12" ht="57.75">
-      <c r="A47" s="128" t="s">
+      <c r="A47" s="127" t="s">
         <v>263</v>
       </c>
       <c r="B47" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="C47" s="137" t="s">
+      <c r="C47" s="136" t="s">
         <v>265</v>
       </c>
-      <c r="D47" s="129" t="s">
+      <c r="D47" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="129" t="s">
+      <c r="E47" s="128" t="s">
         <v>266</v>
       </c>
-      <c r="F47" s="130" t="s">
+      <c r="F47" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G47" s="130" t="s">
+      <c r="G47" s="129" t="s">
         <v>267</v>
       </c>
-      <c r="H47" s="130" t="s">
+      <c r="H47" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I47" s="132" t="s">
+      <c r="I47" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J47" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="K47" s="133" t="s">
+      <c r="K47" s="132" t="s">
         <v>268</v>
       </c>
-      <c r="L47" s="132"/>
+      <c r="L47" s="131"/>
     </row>
     <row r="48" spans="1:12" ht="74.25" customHeight="1">
-      <c r="A48" s="124" t="s">
+      <c r="A48" s="123" t="s">
         <v>269</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C48" s="124" t="s">
+      <c r="C48" s="123" t="s">
         <v>271</v>
       </c>
-      <c r="D48" s="159" t="s">
+      <c r="D48" s="151" t="s">
         <v>272</v>
       </c>
       <c r="E48" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="F48" s="127" t="s">
+      <c r="F48" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="127" t="s">
+      <c r="G48" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="127" t="s">
+      <c r="H48" s="126" t="s">
         <v>37</v>
       </c>
       <c r="I48" s="108" t="s">
@@ -11419,64 +11419,64 @@
       <c r="L48" s="108"/>
     </row>
     <row r="49" spans="1:12" s="42" customFormat="1" ht="29.25">
-      <c r="A49" s="128" t="s">
+      <c r="A49" s="127" t="s">
         <v>275</v>
       </c>
       <c r="B49" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="C49" s="128" t="s">
+      <c r="C49" s="127" t="s">
         <v>277</v>
       </c>
-      <c r="D49" s="129" t="s">
+      <c r="D49" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="129" t="s">
+      <c r="E49" s="128" t="s">
         <v>278</v>
       </c>
-      <c r="F49" s="130" t="s">
+      <c r="F49" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="130" t="s">
+      <c r="G49" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="130" t="s">
+      <c r="H49" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="132" t="s">
+      <c r="I49" s="131" t="s">
         <v>69</v>
       </c>
       <c r="J49" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K49" s="133" t="s">
+      <c r="K49" s="132" t="s">
         <v>275</v>
       </c>
-      <c r="L49" s="160"/>
+      <c r="L49" s="152"/>
     </row>
     <row r="50" spans="1:12" ht="75" customHeight="1">
-      <c r="A50" s="124" t="s">
+      <c r="A50" s="123" t="s">
         <v>279</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C50" s="124" t="s">
+      <c r="C50" s="123" t="s">
         <v>281</v>
       </c>
-      <c r="D50" s="161" t="s">
+      <c r="D50" s="153" t="s">
         <v>282</v>
       </c>
       <c r="E50" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="F50" s="127" t="s">
+      <c r="F50" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="127" t="s">
+      <c r="G50" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="127" t="s">
+      <c r="H50" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I50" s="108" t="s">
@@ -11491,64 +11491,64 @@
       <c r="L50" s="108"/>
     </row>
     <row r="51" spans="1:12" ht="29.25">
-      <c r="A51" s="128" t="s">
+      <c r="A51" s="127" t="s">
         <v>285</v>
       </c>
       <c r="B51" s="75" t="s">
         <v>286</v>
       </c>
-      <c r="C51" s="128" t="s">
+      <c r="C51" s="127" t="s">
         <v>287</v>
       </c>
-      <c r="D51" s="129" t="s">
+      <c r="D51" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="129" t="s">
+      <c r="E51" s="128" t="s">
         <v>288</v>
       </c>
-      <c r="F51" s="130" t="s">
+      <c r="F51" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="130" t="s">
+      <c r="G51" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="130" t="s">
+      <c r="H51" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I51" s="132" t="s">
+      <c r="I51" s="131" t="s">
         <v>61</v>
       </c>
       <c r="J51" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="K51" s="133" t="s">
+      <c r="K51" s="132" t="s">
         <v>289</v>
       </c>
-      <c r="L51" s="132"/>
+      <c r="L51" s="131"/>
     </row>
     <row r="52" spans="1:12" ht="29.25">
-      <c r="A52" s="124" t="s">
+      <c r="A52" s="123" t="s">
         <v>290</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="C52" s="124" t="s">
+      <c r="C52" s="123" t="s">
         <v>292</v>
       </c>
-      <c r="D52" s="135" t="s">
+      <c r="D52" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="F52" s="127" t="s">
+      <c r="F52" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="127" t="s">
+      <c r="G52" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="H52" s="127" t="s">
+      <c r="H52" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I52" s="108" t="s">
@@ -11563,66 +11563,66 @@
       <c r="L52" s="108"/>
     </row>
     <row r="53" spans="1:12" ht="84.75" customHeight="1">
-      <c r="A53" s="128" t="s">
+      <c r="A53" s="127" t="s">
         <v>295</v>
       </c>
       <c r="B53" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="C53" s="128" t="s">
+      <c r="C53" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="D53" s="129" t="s">
+      <c r="D53" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="129"/>
-      <c r="F53" s="130" t="s">
+      <c r="E53" s="128"/>
+      <c r="F53" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G53" s="130" t="s">
+      <c r="G53" s="129" t="s">
         <v>298</v>
       </c>
-      <c r="H53" s="130" t="s">
+      <c r="H53" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I53" s="132" t="s">
+      <c r="I53" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J53" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K53" s="140"/>
-      <c r="L53" s="132"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="131"/>
     </row>
     <row r="54" spans="1:12" s="120" customFormat="1" ht="15">
-      <c r="A54" s="162" t="s">
+      <c r="A54" s="154" t="s">
         <v>299</v>
       </c>
-      <c r="B54" s="163"/>
-      <c r="C54" s="162" t="s">
+      <c r="B54" s="155"/>
+      <c r="C54" s="154" t="s">
         <v>300</v>
       </c>
-      <c r="D54" s="164" t="s">
+      <c r="D54" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="164"/>
-      <c r="F54" s="165" t="s">
+      <c r="E54" s="156"/>
+      <c r="F54" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="G54" s="165" t="s">
+      <c r="G54" s="157" t="s">
         <v>298</v>
       </c>
-      <c r="H54" s="165" t="s">
+      <c r="H54" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="I54" s="166" t="s">
+      <c r="I54" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="167" t="s">
+      <c r="J54" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="168"/>
-      <c r="L54" s="166"/>
+      <c r="K54" s="160"/>
+      <c r="L54" s="158"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J54" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -11630,17 +11630,17 @@
     <sortCondition ref="A2:A54"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="E15:E19"/>
     <mergeCell ref="L15:L19"/>
     <mergeCell ref="K15:K19"/>
     <mergeCell ref="G15:G19"/>
     <mergeCell ref="H15:H19"/>
     <mergeCell ref="I15:I19"/>
     <mergeCell ref="J15:J19"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="E15:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F15 F20:F54">
     <cfRule type="cellIs" dxfId="195" priority="8" operator="equal">
@@ -11765,7 +11765,7 @@
     <col min="13" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="225" customFormat="1" ht="72.75">
+    <row r="1" spans="1:12" s="213" customFormat="1" ht="72.75">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -11804,26 +11804,26 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="29.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="133" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="127" t="s">
+      <c r="E2" s="134"/>
+      <c r="F2" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="135" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="108" t="s">
@@ -11838,62 +11838,62 @@
       <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:12" ht="43.5">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="127" t="s">
         <v>301</v>
       </c>
       <c r="B3" s="75" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="130" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="130" t="s">
+      <c r="H3" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="131" t="s">
         <v>69</v>
       </c>
       <c r="J3" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="133"/>
-      <c r="L3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="131"/>
     </row>
     <row r="4" spans="1:12" ht="43.5">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="133" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="127">
+      <c r="H4" s="126">
         <v>1</v>
       </c>
       <c r="I4" s="108" t="s">
@@ -11908,62 +11908,62 @@
       <c r="L4" s="108"/>
     </row>
     <row r="5" spans="1:12" ht="57.75">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="127" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="128" t="s">
         <v>308</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="108"/>
-      <c r="K5" s="133" t="s">
+      <c r="K5" s="132" t="s">
         <v>309</v>
       </c>
-      <c r="L5" s="132"/>
+      <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:12" ht="43.5">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="123" t="s">
         <v>310</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="123" t="s">
         <v>312</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="134" t="s">
         <v>313</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="135" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="108" t="s">
@@ -11972,200 +11972,200 @@
       <c r="J6" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="140"/>
+      <c r="K6" s="139"/>
       <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:12" ht="43.5">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="127" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="128" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="132" t="s">
+      <c r="I7" s="131" t="s">
         <v>69</v>
       </c>
       <c r="J7" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="133" t="s">
+      <c r="K7" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="132"/>
+      <c r="L7" s="131"/>
     </row>
     <row r="8" spans="1:12" ht="29.25">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="226" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="227" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="226" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="172" t="s">
+      <c r="E8" s="228" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="173" t="s">
+      <c r="F8" s="225" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="173" t="s">
+      <c r="G8" s="225" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="173" t="s">
+      <c r="H8" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="149" t="s">
+      <c r="I8" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="149" t="s">
+      <c r="J8" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="140"/>
-      <c r="L8" s="149"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="224"/>
     </row>
     <row r="9" spans="1:12" ht="29.25">
-      <c r="A9" s="169"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="174" t="s">
+      <c r="A9" s="226"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="172"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="149"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="225"/>
+      <c r="G9" s="225"/>
+      <c r="H9" s="225"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="224"/>
     </row>
     <row r="10" spans="1:12" ht="29.25">
-      <c r="A10" s="169"/>
-      <c r="B10" s="170"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="174" t="s">
+      <c r="A10" s="226"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="172"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="149"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="224"/>
     </row>
     <row r="11" spans="1:12" ht="15">
-      <c r="A11" s="169"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="174" t="s">
+      <c r="A11" s="226"/>
+      <c r="B11" s="227"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="163" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="172"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="149"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="225"/>
+      <c r="G11" s="225"/>
+      <c r="H11" s="225"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="224"/>
     </row>
     <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="169"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="174" t="s">
+      <c r="A12" s="226"/>
+      <c r="B12" s="227"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="172"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="149"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="225"/>
+      <c r="H12" s="225"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="224"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="224"/>
     </row>
     <row r="13" spans="1:12" ht="72.75">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="127" t="s">
         <v>316</v>
       </c>
       <c r="B13" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="127" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="128" t="s">
         <v>319</v>
       </c>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="131" t="s">
+      <c r="G13" s="130" t="s">
         <v>305</v>
       </c>
-      <c r="H13" s="130" t="s">
+      <c r="H13" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="132" t="s">
+      <c r="I13" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="140"/>
-      <c r="L13" s="132"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="131"/>
     </row>
     <row r="14" spans="1:12" ht="15">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="123" t="s">
         <v>320</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="123" t="s">
         <v>322</v>
       </c>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="155" t="s">
+      <c r="E14" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="127" t="s">
+      <c r="G14" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="127" t="s">
+      <c r="H14" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="108" t="s">
@@ -12174,68 +12174,68 @@
       <c r="J14" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="140"/>
+      <c r="K14" s="139"/>
       <c r="L14" s="108"/>
     </row>
     <row r="15" spans="1:12" ht="57.75">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="127" t="s">
         <v>143</v>
       </c>
       <c r="B15" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="176" t="s">
+      <c r="D15" s="165" t="s">
         <v>146</v>
       </c>
       <c r="E15" s="75" t="s">
         <v>324</v>
       </c>
-      <c r="F15" s="130" t="s">
+      <c r="F15" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="130" t="s">
+      <c r="G15" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="130" t="s">
+      <c r="H15" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="132" t="s">
+      <c r="I15" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="177" t="s">
+      <c r="K15" s="166" t="s">
         <v>149</v>
       </c>
-      <c r="L15" s="132"/>
+      <c r="L15" s="131"/>
     </row>
     <row r="16" spans="1:12" ht="57.75">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="123" t="s">
         <v>325</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="147" t="s">
         <v>327</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="151" t="s">
         <v>328</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="126" t="s">
         <v>330</v>
       </c>
-      <c r="H16" s="127" t="s">
+      <c r="H16" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I16" s="108" t="s">
@@ -12244,68 +12244,68 @@
       <c r="J16" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="177" t="s">
+      <c r="K16" s="166" t="s">
         <v>331</v>
       </c>
       <c r="L16" s="108"/>
     </row>
     <row r="17" spans="1:12" ht="15">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="127" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="130" t="s">
+      <c r="E17" s="136"/>
+      <c r="F17" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="130" t="s">
+      <c r="G17" s="129" t="s">
         <v>172</v>
       </c>
-      <c r="H17" s="130" t="s">
+      <c r="H17" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="132" t="s">
+      <c r="I17" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="177" t="s">
+      <c r="K17" s="166" t="s">
         <v>173</v>
       </c>
-      <c r="L17" s="132"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:12" ht="43.5">
-      <c r="A18" s="124" t="s">
+      <c r="A18" s="123" t="s">
         <v>203</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="147" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="135" t="s">
+      <c r="D18" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="134" t="s">
         <v>332</v>
       </c>
-      <c r="F18" s="127" t="s">
+      <c r="F18" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="127">
+      <c r="H18" s="126">
         <v>1</v>
       </c>
       <c r="I18" s="108" t="s">
@@ -12314,64 +12314,64 @@
       <c r="J18" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="177" t="s">
+      <c r="K18" s="166" t="s">
         <v>207</v>
       </c>
       <c r="L18" s="108"/>
     </row>
     <row r="19" spans="1:12" ht="51" customHeight="1">
-      <c r="A19" s="128" t="s">
+      <c r="A19" s="127" t="s">
         <v>333</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="127" t="s">
         <v>335</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="128" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="75"/>
-      <c r="F19" s="130" t="s">
+      <c r="F19" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="130" t="s">
+      <c r="G19" s="129" t="s">
         <v>336</v>
       </c>
-      <c r="H19" s="130" t="s">
+      <c r="H19" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="132" t="s">
+      <c r="I19" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="178"/>
-      <c r="L19" s="132"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="131"/>
     </row>
     <row r="20" spans="1:12" ht="15">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="123" t="s">
         <v>231</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="123" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="135"/>
-      <c r="F20" s="127" t="s">
+      <c r="E20" s="134"/>
+      <c r="F20" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="127" t="s">
+      <c r="G20" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="H20" s="127" t="s">
+      <c r="H20" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I20" s="108" t="s">
@@ -12380,68 +12380,68 @@
       <c r="J20" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="152" t="s">
+      <c r="K20" s="144" t="s">
         <v>235</v>
       </c>
       <c r="L20" s="108"/>
     </row>
     <row r="21" spans="1:12" ht="43.5">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="127" t="s">
         <v>337</v>
       </c>
       <c r="B21" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="127" t="s">
         <v>339</v>
       </c>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="179" t="s">
+      <c r="E21" s="168" t="s">
         <v>340</v>
       </c>
-      <c r="F21" s="130" t="s">
+      <c r="F21" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="130" t="s">
+      <c r="G21" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="130" t="s">
+      <c r="H21" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="132" t="s">
+      <c r="I21" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K21" s="140"/>
-      <c r="L21" s="132"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="131"/>
     </row>
     <row r="22" spans="1:12" ht="72.75">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="123" t="s">
         <v>341</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="123" t="s">
         <v>343</v>
       </c>
-      <c r="D22" s="135" t="s">
+      <c r="D22" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="E22" s="134" t="s">
         <v>344</v>
       </c>
-      <c r="F22" s="127" t="s">
+      <c r="F22" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="131" t="s">
+      <c r="G22" s="130" t="s">
         <v>345</v>
       </c>
-      <c r="H22" s="127" t="s">
+      <c r="H22" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="108" t="s">
@@ -12450,33 +12450,33 @@
       <c r="J22" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K22" s="140"/>
+      <c r="K22" s="139"/>
       <c r="L22" s="108"/>
     </row>
     <row r="23" spans="1:12" ht="15">
-      <c r="A23" s="128" t="s">
+      <c r="A23" s="127" t="s">
         <v>258</v>
       </c>
       <c r="B23" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="127" t="s">
         <v>260</v>
       </c>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="128" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="75"/>
-      <c r="F23" s="130" t="s">
+      <c r="F23" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="131" t="s">
+      <c r="G23" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="H23" s="130" t="s">
+      <c r="H23" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="132" t="s">
+      <c r="I23" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="108" t="s">
@@ -12485,31 +12485,31 @@
       <c r="K23" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="L23" s="132"/>
+      <c r="L23" s="131"/>
     </row>
     <row r="24" spans="1:12" ht="57.75">
-      <c r="A24" s="124" t="s">
+      <c r="A24" s="123" t="s">
         <v>346</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="155" t="s">
+      <c r="C24" s="147" t="s">
         <v>347</v>
       </c>
-      <c r="D24" s="135" t="s">
+      <c r="D24" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="135" t="s">
+      <c r="E24" s="134" t="s">
         <v>348</v>
       </c>
-      <c r="F24" s="127" t="s">
+      <c r="F24" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="127" t="s">
+      <c r="G24" s="126" t="s">
         <v>349</v>
       </c>
-      <c r="H24" s="127" t="s">
+      <c r="H24" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="108" t="s">
@@ -12518,44 +12518,44 @@
       <c r="J24" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="180"/>
+      <c r="K24" s="169"/>
       <c r="L24" s="108"/>
     </row>
     <row r="25" spans="1:12" ht="29.25">
-      <c r="A25" s="128" t="s">
+      <c r="A25" s="127" t="s">
         <v>275</v>
       </c>
       <c r="B25" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="127" t="s">
         <v>277</v>
       </c>
-      <c r="D25" s="129" t="s">
+      <c r="D25" s="128" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="86" t="s">
         <v>350</v>
       </c>
-      <c r="F25" s="130" t="s">
+      <c r="F25" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="130" t="s">
+      <c r="G25" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="130" t="s">
+      <c r="H25" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="132" t="s">
+      <c r="I25" s="131" t="s">
         <v>69</v>
       </c>
       <c r="J25" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="K25" s="133" t="s">
+      <c r="K25" s="132" t="s">
         <v>275</v>
       </c>
-      <c r="L25" s="132"/>
+      <c r="L25" s="131"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="33"/>
@@ -13080,29 +13080,29 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" style="204" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" style="204" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="204" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="201" customWidth="1"/>
-    <col min="5" max="5" width="65.85546875" style="204" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="139" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="139" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="208" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="139" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="139" customWidth="1"/>
-    <col min="11" max="11" width="39.28515625" style="181" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" style="139" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="139"/>
+    <col min="1" max="1" width="18" style="192" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="192" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="192" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="189" customWidth="1"/>
+    <col min="5" max="5" width="65.85546875" style="192" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="138" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="138" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="196" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="138" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="138" customWidth="1"/>
+    <col min="11" max="11" width="39.28515625" style="170" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" style="138" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="138"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="227" customFormat="1" ht="57.75">
+    <row r="1" spans="1:12" s="215" customFormat="1" ht="57.75">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -13133,7 +13133,7 @@
       <c r="J1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="226" t="s">
+      <c r="K1" s="214" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="109" t="s">
@@ -13144,32 +13144,32 @@
       <c r="A2" s="65" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="171" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="D2" s="163" t="s">
         <v>352</v>
       </c>
-      <c r="E2" s="183" t="s">
+      <c r="E2" s="172" t="s">
         <v>353</v>
       </c>
-      <c r="F2" s="184" t="s">
+      <c r="F2" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="184" t="s">
+      <c r="G2" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="184" t="s">
+      <c r="H2" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="175"/>
       <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:12" ht="101.25">
@@ -13182,37 +13182,37 @@
       <c r="C3" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="176" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="F3" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="188" t="s">
+      <c r="G3" s="177" t="s">
         <v>358</v>
       </c>
-      <c r="H3" s="188">
+      <c r="H3" s="177">
         <v>1</v>
       </c>
-      <c r="I3" s="189" t="s">
+      <c r="I3" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="185" t="s">
+      <c r="J3" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="139" t="s">
+      <c r="K3" s="138" t="s">
         <v>359</v>
       </c>
-      <c r="L3" s="132"/>
+      <c r="L3" s="131"/>
     </row>
     <row r="4" spans="1:12" ht="101.25">
       <c r="A4" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="171" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="65" t="s">
@@ -13221,794 +13221,794 @@
       <c r="D4" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="183" t="s">
+      <c r="E4" s="172" t="s">
         <v>361</v>
       </c>
-      <c r="F4" s="184" t="s">
+      <c r="F4" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="184" t="s">
+      <c r="G4" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="184" t="s">
+      <c r="H4" s="173" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="174" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="174" t="s">
         <v>362</v>
       </c>
-      <c r="I4" s="185" t="s">
+      <c r="K4" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="L4" s="108"/>
+    </row>
+    <row r="5" spans="1:12" ht="57.75">
+      <c r="A5" s="179" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="179" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="180" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="180" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="185" t="s">
-        <v>363</v>
-      </c>
-      <c r="K4" s="139" t="s">
-        <v>364</v>
-      </c>
-      <c r="L4" s="108"/>
-    </row>
-    <row r="5" spans="1:12" ht="57.75">
-      <c r="A5" s="190" t="s">
-        <v>365</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>366</v>
-      </c>
-      <c r="C5" s="190" t="s">
-        <v>367</v>
-      </c>
-      <c r="D5" s="129" t="s">
+      <c r="J5" s="174" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="138" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" s="131"/>
+    </row>
+    <row r="6" spans="1:12" ht="72.75">
+      <c r="A6" s="182" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="161" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="182" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="76" t="s">
-        <v>368</v>
-      </c>
-      <c r="F5" s="191" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="191" t="s">
+      <c r="E6" s="161" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="191" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="192" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="185" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="139" t="s">
-        <v>369</v>
-      </c>
-      <c r="L5" s="132"/>
-    </row>
-    <row r="6" spans="1:12" ht="72.75">
-      <c r="A6" s="193" t="s">
-        <v>370</v>
-      </c>
-      <c r="B6" s="194" t="s">
-        <v>371</v>
-      </c>
-      <c r="C6" s="193" t="s">
-        <v>372</v>
-      </c>
-      <c r="D6" s="195" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="194" t="s">
+      <c r="H6" s="135" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="184" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="175"/>
+      <c r="L6" s="108"/>
+    </row>
+    <row r="7" spans="1:12" ht="115.5">
+      <c r="A7" s="127" t="s">
         <v>373</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="B7" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="127" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="185" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="136" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="136" t="s">
+      <c r="G7" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="160" t="s">
+      <c r="I7" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="196" t="s">
+      <c r="J7" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="186"/>
-      <c r="L6" s="108"/>
-    </row>
-    <row r="7" spans="1:12" ht="115.5">
-      <c r="A7" s="128" t="s">
-        <v>374</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>375</v>
-      </c>
-      <c r="C7" s="128" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="197" t="s">
-        <v>377</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>378</v>
-      </c>
-      <c r="F7" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="130" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="130" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="132" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="196" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="186"/>
-      <c r="L7" s="132"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="131"/>
     </row>
     <row r="8" spans="1:12" ht="29.25">
       <c r="A8" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="171" t="s">
         <v>280</v>
       </c>
-      <c r="C8" s="198" t="s">
+      <c r="C8" s="186" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="159" t="s">
-        <v>377</v>
-      </c>
-      <c r="E8" s="138" t="s">
+      <c r="D8" s="151" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="137" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="173" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="173" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="173" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="174" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="138" t="s">
         <v>379</v>
       </c>
-      <c r="F8" s="184" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="184" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="184" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="185" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="185" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="139" t="s">
+      <c r="L8" s="108"/>
+    </row>
+    <row r="9" spans="1:12" ht="43.5">
+      <c r="A9" s="179" t="s">
         <v>380</v>
-      </c>
-      <c r="L8" s="108"/>
-    </row>
-    <row r="9" spans="1:12" ht="43.5">
-      <c r="A9" s="190" t="s">
-        <v>381</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="190" t="s">
+      <c r="C9" s="179" t="s">
         <v>322</v>
       </c>
-      <c r="D9" s="199" t="s">
+      <c r="D9" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="199" t="s">
+      <c r="E9" s="187" t="s">
+        <v>381</v>
+      </c>
+      <c r="F9" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="180" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="180">
+        <v>1</v>
+      </c>
+      <c r="I9" s="181" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="174" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="138" t="s">
         <v>382</v>
       </c>
-      <c r="F9" s="191" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="191" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="191">
-        <v>1</v>
-      </c>
-      <c r="I9" s="192" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="185" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="139" t="s">
-        <v>383</v>
-      </c>
-      <c r="L9" s="132"/>
+      <c r="L9" s="131"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="200"/>
-      <c r="B10" s="201"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="202"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="190"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
       <c r="K10" s="99"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="200"/>
-      <c r="B11" s="201"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="181"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="189"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
       <c r="K11" s="100"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="200"/>
-      <c r="B12" s="201"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="181"/>
+      <c r="A12" s="188"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
       <c r="K12" s="99"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="200"/>
-      <c r="B13" s="201"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
+      <c r="A13" s="188"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
       <c r="K13" s="99"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="200"/>
-      <c r="B14" s="201"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="181"/>
+      <c r="A14" s="188"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
       <c r="K14" s="99"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="200"/>
-      <c r="B15" s="201"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="181"/>
+      <c r="A15" s="188"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
       <c r="K15" s="99"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="200"/>
-      <c r="B16" s="201"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="202"/>
+      <c r="A16" s="188"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="190"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
       <c r="K16" s="99"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="200"/>
-      <c r="B17" s="201"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="181"/>
+      <c r="A17" s="188"/>
+      <c r="B17" s="189"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
       <c r="K17" s="99"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="200"/>
-      <c r="B18" s="201"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
       <c r="K18" s="99"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="200"/>
-      <c r="B19" s="201"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="181"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
       <c r="K19" s="102"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="200"/>
-      <c r="B20" s="201"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
       <c r="K20" s="100"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="200"/>
-      <c r="B21" s="201"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="181"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
       <c r="K21" s="99"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="200"/>
-      <c r="B22" s="201"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="202"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="190"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
       <c r="K22" s="99"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="200"/>
-      <c r="B23" s="201"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="189"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
       <c r="K23" s="99"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="200"/>
-      <c r="B24" s="201"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="203"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="181"/>
+      <c r="A24" s="188"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="190"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
       <c r="K24" s="101"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="200"/>
-      <c r="B25" s="201"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="181"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="190"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
       <c r="K25" s="99"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="200"/>
-      <c r="B26" s="201"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
+      <c r="A26" s="188"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
       <c r="K26" s="101"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="200"/>
-      <c r="B27" s="201"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="191"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
       <c r="K27" s="99"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="200"/>
-      <c r="B28" s="201"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="202"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="190"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="203"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="181"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
       <c r="K28" s="99"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="200"/>
-      <c r="B29" s="201"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="181"/>
+      <c r="A29" s="188"/>
+      <c r="B29" s="189"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
       <c r="K29" s="99"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="200"/>
-      <c r="B30" s="201"/>
-      <c r="C30" s="200"/>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
+      <c r="A30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="191"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
       <c r="K30" s="99"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="200"/>
-      <c r="B31" s="201"/>
-      <c r="C31" s="200"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="201"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="203"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
+      <c r="A31" s="188"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="191"/>
+      <c r="H31" s="191"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
       <c r="K31" s="99"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="200"/>
-      <c r="B32" s="201"/>
-      <c r="C32" s="200"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="202"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="203"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="181"/>
+      <c r="A32" s="188"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="170"/>
       <c r="K32" s="99"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="200"/>
-      <c r="B33" s="201"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="203"/>
-      <c r="G33" s="203"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
+      <c r="A33" s="188"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="170"/>
       <c r="K33" s="99"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="200"/>
-      <c r="B34" s="201"/>
-      <c r="C34" s="200"/>
-      <c r="D34" s="202"/>
+      <c r="A34" s="188"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="190"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="203"/>
-      <c r="G34" s="203"/>
-      <c r="H34" s="203"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="181"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
       <c r="K34" s="99"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="200"/>
-      <c r="B35" s="201"/>
-      <c r="D35" s="202"/>
-      <c r="E35" s="202"/>
-      <c r="F35" s="203"/>
-      <c r="G35" s="203"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
+      <c r="A35" s="188"/>
+      <c r="B35" s="189"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
       <c r="K35" s="99"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="200"/>
-      <c r="B36" s="201"/>
-      <c r="C36" s="200"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="181"/>
-      <c r="J36" s="181"/>
+      <c r="A36" s="188"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
       <c r="K36" s="99"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="200"/>
-      <c r="B37" s="201"/>
-      <c r="C37" s="200"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="203"/>
-      <c r="H37" s="203"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="181"/>
+      <c r="A37" s="188"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
       <c r="K37" s="99"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="200"/>
-      <c r="B38" s="201"/>
-      <c r="C38" s="200"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="203"/>
-      <c r="G38" s="203"/>
-      <c r="H38" s="203"/>
-      <c r="I38" s="181"/>
-      <c r="J38" s="181"/>
+      <c r="A38" s="188"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="170"/>
       <c r="K38" s="99"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="200"/>
-      <c r="B39" s="201"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="206"/>
-      <c r="F39" s="203"/>
-      <c r="G39" s="203"/>
-      <c r="H39" s="203"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="181"/>
+      <c r="A39" s="188"/>
+      <c r="B39" s="189"/>
+      <c r="C39" s="193"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="170"/>
       <c r="K39" s="99"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="200"/>
-      <c r="B40" s="201"/>
-      <c r="C40" s="200"/>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="203"/>
-      <c r="G40" s="203"/>
-      <c r="H40" s="203"/>
-      <c r="I40" s="181"/>
-      <c r="J40" s="181"/>
+      <c r="A40" s="188"/>
+      <c r="B40" s="189"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="190"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="170"/>
       <c r="K40" s="99"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="200"/>
-      <c r="B41" s="201"/>
-      <c r="C41" s="200"/>
-      <c r="D41" s="202"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="203"/>
-      <c r="H41" s="203"/>
-      <c r="I41" s="181"/>
-      <c r="J41" s="181"/>
+      <c r="A41" s="188"/>
+      <c r="B41" s="189"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="191"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
       <c r="K41" s="99"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="200"/>
-      <c r="B42" s="201"/>
-      <c r="C42" s="200"/>
-      <c r="D42" s="202"/>
-      <c r="E42" s="202"/>
-      <c r="F42" s="203"/>
-      <c r="G42" s="203"/>
-      <c r="H42" s="203"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="181"/>
+      <c r="A42" s="188"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
       <c r="K42" s="99"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="200"/>
-      <c r="B43" s="201"/>
-      <c r="C43" s="205"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="206"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="203"/>
-      <c r="H43" s="203"/>
-      <c r="I43" s="181"/>
-      <c r="J43" s="181"/>
+      <c r="A43" s="188"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="193"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="191"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="170"/>
+      <c r="J43" s="170"/>
       <c r="K43" s="99"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="200"/>
-      <c r="B44" s="201"/>
-      <c r="C44" s="200"/>
-      <c r="D44" s="202"/>
+      <c r="A44" s="188"/>
+      <c r="B44" s="189"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="190"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="203"/>
-      <c r="H44" s="203"/>
-      <c r="I44" s="181"/>
-      <c r="J44" s="181"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="170"/>
       <c r="K44" s="99"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="200"/>
-      <c r="B45" s="201"/>
-      <c r="D45" s="202"/>
-      <c r="E45" s="202"/>
-      <c r="F45" s="203"/>
-      <c r="G45" s="203"/>
-      <c r="H45" s="203"/>
-      <c r="I45" s="181"/>
-      <c r="J45" s="181"/>
+      <c r="A45" s="188"/>
+      <c r="B45" s="189"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="190"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="170"/>
       <c r="K45" s="99"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="200"/>
-      <c r="B46" s="201"/>
-      <c r="C46" s="200"/>
-      <c r="D46" s="202"/>
-      <c r="E46" s="202"/>
-      <c r="F46" s="203"/>
-      <c r="G46" s="203"/>
-      <c r="H46" s="203"/>
-      <c r="I46" s="181"/>
-      <c r="J46" s="181"/>
+      <c r="A46" s="188"/>
+      <c r="B46" s="189"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="191"/>
+      <c r="G46" s="191"/>
+      <c r="H46" s="191"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
       <c r="K46" s="99"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="200"/>
-      <c r="B47" s="201"/>
-      <c r="C47" s="200"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="201"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203"/>
-      <c r="H47" s="203"/>
-      <c r="I47" s="181"/>
-      <c r="J47" s="181"/>
+      <c r="A47" s="188"/>
+      <c r="B47" s="189"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="190"/>
+      <c r="E47" s="189"/>
+      <c r="F47" s="191"/>
+      <c r="G47" s="191"/>
+      <c r="H47" s="191"/>
+      <c r="I47" s="170"/>
+      <c r="J47" s="170"/>
       <c r="K47" s="99"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="200"/>
-      <c r="B48" s="201"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="202"/>
-      <c r="E48" s="202"/>
-      <c r="F48" s="203"/>
-      <c r="G48" s="203"/>
-      <c r="H48" s="203"/>
-      <c r="I48" s="181"/>
-      <c r="J48" s="181"/>
+      <c r="A48" s="188"/>
+      <c r="B48" s="189"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="190"/>
+      <c r="E48" s="190"/>
+      <c r="F48" s="191"/>
+      <c r="G48" s="191"/>
+      <c r="H48" s="191"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="170"/>
       <c r="K48" s="99"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="200"/>
-      <c r="B49" s="201"/>
-      <c r="C49" s="205"/>
-      <c r="D49" s="202"/>
-      <c r="E49" s="206"/>
-      <c r="F49" s="203"/>
-      <c r="G49" s="203"/>
-      <c r="H49" s="203"/>
-      <c r="I49" s="181"/>
-      <c r="J49" s="181"/>
+      <c r="A49" s="188"/>
+      <c r="B49" s="189"/>
+      <c r="C49" s="193"/>
+      <c r="D49" s="190"/>
+      <c r="E49" s="194"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="191"/>
+      <c r="H49" s="191"/>
+      <c r="I49" s="170"/>
+      <c r="J49" s="170"/>
       <c r="K49" s="99"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="200"/>
-      <c r="B50" s="201"/>
-      <c r="C50" s="200"/>
-      <c r="D50" s="202"/>
-      <c r="E50" s="201"/>
-      <c r="F50" s="203"/>
-      <c r="G50" s="203"/>
-      <c r="H50" s="203"/>
-      <c r="I50" s="181"/>
-      <c r="J50" s="181"/>
+      <c r="A50" s="188"/>
+      <c r="B50" s="189"/>
+      <c r="C50" s="188"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="191"/>
+      <c r="H50" s="191"/>
+      <c r="I50" s="170"/>
+      <c r="J50" s="170"/>
       <c r="K50" s="99"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="200"/>
-      <c r="B51" s="201"/>
-      <c r="C51" s="200"/>
-      <c r="D51" s="202"/>
-      <c r="E51" s="201"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="203"/>
-      <c r="H51" s="203"/>
-      <c r="I51" s="181"/>
-      <c r="J51" s="181"/>
+      <c r="A51" s="188"/>
+      <c r="B51" s="189"/>
+      <c r="C51" s="188"/>
+      <c r="D51" s="190"/>
+      <c r="E51" s="189"/>
+      <c r="F51" s="191"/>
+      <c r="G51" s="191"/>
+      <c r="H51" s="191"/>
+      <c r="I51" s="170"/>
+      <c r="J51" s="170"/>
       <c r="K51" s="99"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="200"/>
-      <c r="B52" s="201"/>
-      <c r="C52" s="200"/>
-      <c r="D52" s="207"/>
-      <c r="E52" s="202"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="203"/>
-      <c r="H52" s="203"/>
-      <c r="I52" s="181"/>
-      <c r="J52" s="181"/>
+      <c r="A52" s="188"/>
+      <c r="B52" s="189"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="195"/>
+      <c r="E52" s="190"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="191"/>
+      <c r="H52" s="191"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="170"/>
       <c r="K52" s="99"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="200"/>
-      <c r="B53" s="201"/>
-      <c r="D53" s="202"/>
-      <c r="E53" s="202"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="203"/>
-      <c r="H53" s="203"/>
-      <c r="I53" s="181"/>
-      <c r="J53" s="181"/>
+      <c r="A53" s="188"/>
+      <c r="B53" s="189"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="190"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
       <c r="K53" s="99"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="200"/>
-      <c r="B54" s="201"/>
-      <c r="C54" s="200"/>
-      <c r="D54" s="202"/>
-      <c r="E54" s="202"/>
-      <c r="F54" s="203"/>
-      <c r="G54" s="203"/>
-      <c r="H54" s="203"/>
-      <c r="I54" s="181"/>
-      <c r="J54" s="181"/>
+      <c r="A54" s="188"/>
+      <c r="B54" s="189"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="191"/>
+      <c r="G54" s="191"/>
+      <c r="H54" s="191"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="170"/>
       <c r="K54" s="99"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="200"/>
-      <c r="B55" s="201"/>
-      <c r="C55" s="200"/>
-      <c r="D55" s="202"/>
-      <c r="E55" s="202"/>
-      <c r="F55" s="203"/>
-      <c r="G55" s="203"/>
-      <c r="H55" s="203"/>
-      <c r="I55" s="181"/>
-      <c r="J55" s="181"/>
+      <c r="A55" s="188"/>
+      <c r="B55" s="189"/>
+      <c r="C55" s="188"/>
+      <c r="D55" s="190"/>
+      <c r="E55" s="190"/>
+      <c r="F55" s="191"/>
+      <c r="G55" s="191"/>
+      <c r="H55" s="191"/>
+      <c r="I55" s="170"/>
+      <c r="J55" s="170"/>
       <c r="K55" s="99"/>
     </row>
     <row r="56" spans="1:11">
@@ -14118,7 +14118,7 @@
     <col min="13" max="16384" width="8.85546875" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="227" customFormat="1" ht="72.75">
+    <row r="1" spans="1:12" s="215" customFormat="1" ht="72.75">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -14149,7 +14149,7 @@
       <c r="J1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="226" t="s">
+      <c r="K1" s="214" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="109" t="s">
@@ -14158,111 +14158,111 @@
     </row>
     <row r="2" spans="1:12" ht="64.150000000000006" customHeight="1">
       <c r="A2" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="186" t="s">
         <v>385</v>
-      </c>
-      <c r="C2" s="198" t="s">
-        <v>386</v>
       </c>
       <c r="D2" s="65" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="89" t="s">
+        <v>386</v>
+      </c>
+      <c r="F2" s="173" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="173" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2" s="173" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="174" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="174" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="170" t="s">
         <v>387</v>
       </c>
-      <c r="F2" s="184" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="184" t="s">
-        <v>358</v>
-      </c>
-      <c r="H2" s="184" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="185" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="185" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="181" t="s">
-        <v>388</v>
-      </c>
-      <c r="L2" s="139"/>
+      <c r="L2" s="138"/>
     </row>
     <row r="3" spans="1:12" ht="130.5">
       <c r="A3" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>389</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="C3" s="69" t="s">
         <v>390</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="D3" s="197" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="198" t="s">
         <v>391</v>
       </c>
-      <c r="D3" s="209" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="210" t="s">
+      <c r="F3" s="177" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="177" t="s">
+        <v>358</v>
+      </c>
+      <c r="H3" s="177">
+        <v>1</v>
+      </c>
+      <c r="I3" s="178" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="174" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="170" t="s">
         <v>392</v>
       </c>
-      <c r="F3" s="188" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="188" t="s">
-        <v>358</v>
-      </c>
-      <c r="H3" s="188">
-        <v>1</v>
-      </c>
-      <c r="I3" s="189" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="185" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="181" t="s">
-        <v>393</v>
-      </c>
-      <c r="L3" s="139"/>
+      <c r="L3" s="138"/>
     </row>
     <row r="4" spans="1:12" ht="29.25">
       <c r="A4" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="C4" s="65" t="s">
         <v>395</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>396</v>
       </c>
       <c r="D4" s="65" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="173" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="173" t="s">
         <v>397</v>
       </c>
-      <c r="F4" s="184" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="184" t="s">
+      <c r="H4" s="173">
+        <v>1</v>
+      </c>
+      <c r="I4" s="174" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="174" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="170" t="s">
         <v>398</v>
       </c>
-      <c r="H4" s="184">
-        <v>1</v>
-      </c>
-      <c r="I4" s="185" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="185" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="181" t="s">
-        <v>399</v>
-      </c>
-      <c r="L4" s="139"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="23"/>
@@ -14999,7 +14999,7 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="227" customFormat="1" ht="57.75">
+    <row r="1" spans="1:12" s="215" customFormat="1" ht="57.75">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -15030,7 +15030,7 @@
       <c r="J1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="226" t="s">
+      <c r="K1" s="214" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="109" t="s">
@@ -15038,28 +15038,28 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="29.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="123" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="123" t="s">
         <v>401</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="D2" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="D2" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="131" t="s">
+      <c r="G2" s="130" t="s">
         <v>345</v>
       </c>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="108" t="s">
@@ -15069,69 +15069,69 @@
         <v>62</v>
       </c>
       <c r="K2" s="99" t="s">
+        <v>403</v>
+      </c>
+      <c r="L2" s="108"/>
+    </row>
+    <row r="3" spans="1:12" ht="72.75">
+      <c r="A3" s="127" t="s">
         <v>404</v>
       </c>
-      <c r="L2" s="108"/>
-    </row>
-    <row r="3" spans="1:12" ht="72.75">
-      <c r="A3" s="128" t="s">
+      <c r="B3" s="75" t="s">
         <v>405</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="C3" s="127" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="D3" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="86" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>408</v>
-      </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="130">
+      <c r="H3" s="129">
         <v>1</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="131" t="s">
         <v>61</v>
       </c>
       <c r="J3" s="108" t="s">
         <v>62</v>
       </c>
       <c r="K3" s="99" t="s">
-        <v>409</v>
-      </c>
-      <c r="L3" s="132"/>
+        <v>408</v>
+      </c>
+      <c r="L3" s="131"/>
     </row>
     <row r="4" spans="1:12" ht="29.25">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="133" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="F4" s="127" t="s">
+        <v>409</v>
+      </c>
+      <c r="F4" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="136" t="s">
+      <c r="H4" s="135" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="108" t="s">
@@ -15146,64 +15146,64 @@
       <c r="L4" s="108"/>
     </row>
     <row r="5" spans="1:12" ht="43.5">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="127" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="75" t="s">
         <v>411</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="C5" s="136" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="D5" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="128" t="s">
         <v>413</v>
       </c>
-      <c r="D5" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="129" t="s">
+      <c r="F5" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="129" t="s">
         <v>414</v>
       </c>
-      <c r="F5" s="130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="130" t="s">
-        <v>415</v>
-      </c>
-      <c r="H5" s="130">
+      <c r="H5" s="129">
         <v>1</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K5" s="99" t="s">
+        <v>415</v>
+      </c>
+      <c r="L5" s="131"/>
+    </row>
+    <row r="6" spans="1:12" ht="57.75">
+      <c r="A6" s="123" t="s">
         <v>416</v>
       </c>
-      <c r="L5" s="132"/>
-    </row>
-    <row r="6" spans="1:12" ht="57.75">
-      <c r="A6" s="124" t="s">
+      <c r="B6" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="C6" s="123" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="D6" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="D6" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="130" t="s">
         <v>420</v>
       </c>
-      <c r="F6" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="131" t="s">
-        <v>421</v>
-      </c>
-      <c r="H6" s="127" t="s">
+      <c r="H6" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I6" s="108" t="s">
@@ -15213,69 +15213,69 @@
         <v>83</v>
       </c>
       <c r="K6" s="99" t="s">
+        <v>421</v>
+      </c>
+      <c r="L6" s="108"/>
+    </row>
+    <row r="7" spans="1:12" ht="57.75">
+      <c r="A7" s="127" t="s">
         <v>422</v>
       </c>
-      <c r="L6" s="108"/>
-    </row>
-    <row r="7" spans="1:12" ht="57.75">
-      <c r="A7" s="128" t="s">
+      <c r="B7" s="75" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="C7" s="136" t="s">
         <v>424</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="D7" s="199" t="s">
         <v>425</v>
       </c>
-      <c r="D7" s="211" t="s">
+      <c r="E7" s="128" t="s">
         <v>426</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="F7" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="F7" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="212" t="s">
-        <v>428</v>
-      </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="132" t="s">
+      <c r="I7" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K7" s="99" t="s">
-        <v>429</v>
-      </c>
-      <c r="L7" s="132"/>
+        <v>428</v>
+      </c>
+      <c r="L7" s="131"/>
     </row>
     <row r="8" spans="1:12" ht="43.5">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="123" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="F8" s="127" t="s">
+        <v>429</v>
+      </c>
+      <c r="F8" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="127" t="s">
+      <c r="G8" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="127" t="s">
+      <c r="H8" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="108" t="s">
@@ -15285,69 +15285,69 @@
         <v>83</v>
       </c>
       <c r="K8" s="99" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L8" s="108"/>
     </row>
     <row r="9" spans="1:12" ht="29.25">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="127" t="s">
         <v>89</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="213" t="s">
+      <c r="D9" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="129" t="s">
-        <v>432</v>
-      </c>
-      <c r="F9" s="130" t="s">
+      <c r="E9" s="128" t="s">
+        <v>431</v>
+      </c>
+      <c r="F9" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="130" t="s">
+      <c r="G9" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="130" t="s">
+      <c r="H9" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="132" t="s">
+      <c r="I9" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K9" s="99" t="s">
+        <v>432</v>
+      </c>
+      <c r="L9" s="131"/>
+    </row>
+    <row r="10" spans="1:12" ht="57.75">
+      <c r="A10" s="123" t="s">
         <v>433</v>
       </c>
-      <c r="L9" s="132"/>
-    </row>
-    <row r="10" spans="1:12" ht="57.75">
-      <c r="A10" s="124" t="s">
+      <c r="B10" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="C10" s="147" t="s">
         <v>435</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="D10" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="D10" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="127" t="s">
+      <c r="G10" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="127" t="s">
+      <c r="H10" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="108" t="s">
@@ -15357,69 +15357,69 @@
         <v>62</v>
       </c>
       <c r="K10" s="99" t="s">
+        <v>437</v>
+      </c>
+      <c r="L10" s="108"/>
+    </row>
+    <row r="11" spans="1:12" ht="72.75">
+      <c r="A11" s="127" t="s">
         <v>438</v>
       </c>
-      <c r="L10" s="108"/>
-    </row>
-    <row r="11" spans="1:12" ht="72.75">
-      <c r="A11" s="128" t="s">
+      <c r="B11" s="75" t="s">
         <v>439</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="C11" s="127" t="s">
         <v>440</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="D11" s="165" t="s">
         <v>441</v>
       </c>
-      <c r="D11" s="176" t="s">
+      <c r="E11" s="128" t="s">
         <v>442</v>
       </c>
-      <c r="E11" s="129" t="s">
+      <c r="F11" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="129" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="130" t="s">
-        <v>444</v>
-      </c>
-      <c r="H11" s="130">
+      <c r="H11" s="129">
         <v>1</v>
       </c>
-      <c r="I11" s="132" t="s">
+      <c r="I11" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K11" s="100" t="s">
-        <v>445</v>
-      </c>
-      <c r="L11" s="132"/>
+        <v>444</v>
+      </c>
+      <c r="L11" s="131"/>
     </row>
     <row r="12" spans="1:12" ht="99" customHeight="1">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="123" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="214" t="s">
+      <c r="D12" s="202" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="142" t="s">
-        <v>446</v>
-      </c>
-      <c r="F12" s="127" t="s">
+      <c r="E12" s="141" t="s">
+        <v>445</v>
+      </c>
+      <c r="F12" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="127" t="s">
+      <c r="G12" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="127" t="s">
+      <c r="H12" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="108" t="s">
@@ -15429,69 +15429,69 @@
         <v>83</v>
       </c>
       <c r="K12" s="99" t="s">
+        <v>446</v>
+      </c>
+      <c r="L12" s="108"/>
+    </row>
+    <row r="13" spans="1:12" ht="72.75">
+      <c r="A13" s="127" t="s">
         <v>447</v>
-      </c>
-      <c r="L12" s="108"/>
-    </row>
-    <row r="13" spans="1:12" ht="72.75">
-      <c r="A13" s="128" t="s">
-        <v>448</v>
       </c>
       <c r="B13" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="127" t="s">
         <v>327</v>
       </c>
-      <c r="D13" s="157" t="s">
+      <c r="D13" s="149" t="s">
         <v>328</v>
       </c>
       <c r="E13" s="81" t="s">
+        <v>448</v>
+      </c>
+      <c r="F13" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="129" t="s">
         <v>449</v>
       </c>
-      <c r="F13" s="130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="130" t="s">
-        <v>450</v>
-      </c>
-      <c r="H13" s="130">
+      <c r="H13" s="129">
         <v>1</v>
       </c>
-      <c r="I13" s="132" t="s">
+      <c r="I13" s="131" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="108" t="s">
         <v>62</v>
       </c>
       <c r="K13" s="99" t="s">
+        <v>450</v>
+      </c>
+      <c r="L13" s="131"/>
+    </row>
+    <row r="14" spans="1:12" ht="72.75">
+      <c r="A14" s="123" t="s">
         <v>451</v>
-      </c>
-      <c r="L13" s="132"/>
-    </row>
-    <row r="14" spans="1:12" ht="72.75">
-      <c r="A14" s="124" t="s">
-        <v>452</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>453</v>
-      </c>
-      <c r="F14" s="127" t="s">
+        <v>452</v>
+      </c>
+      <c r="F14" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="127" t="s">
+      <c r="G14" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="127" t="s">
+      <c r="H14" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="108" t="s">
@@ -15501,67 +15501,67 @@
         <v>83</v>
       </c>
       <c r="K14" s="99" t="s">
+        <v>453</v>
+      </c>
+      <c r="L14" s="108"/>
+    </row>
+    <row r="15" spans="1:12" ht="101.25">
+      <c r="A15" s="127" t="s">
         <v>454</v>
       </c>
-      <c r="L14" s="108"/>
-    </row>
-    <row r="15" spans="1:12" ht="101.25">
-      <c r="A15" s="128" t="s">
+      <c r="B15" s="75" t="s">
         <v>455</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="C15" s="127" t="s">
         <v>456</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="D15" s="199" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" s="81" t="s">
         <v>457</v>
       </c>
-      <c r="D15" s="211" t="s">
-        <v>426</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>458</v>
-      </c>
-      <c r="F15" s="130" t="s">
+      <c r="F15" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="130" t="s">
-        <v>428</v>
-      </c>
-      <c r="H15" s="130" t="s">
+      <c r="G15" s="129" t="s">
+        <v>427</v>
+      </c>
+      <c r="H15" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="132" t="s">
+      <c r="I15" s="131" t="s">
         <v>61</v>
       </c>
       <c r="J15" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K15" s="99" t="s">
-        <v>459</v>
-      </c>
-      <c r="L15" s="132"/>
+        <v>458</v>
+      </c>
+      <c r="L15" s="131"/>
     </row>
     <row r="16" spans="1:12" ht="15">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="123" t="s">
         <v>168</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="147" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="215" t="s">
+      <c r="D16" s="203" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="135"/>
-      <c r="F16" s="127" t="s">
+      <c r="E16" s="134"/>
+      <c r="F16" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="127" t="s">
+      <c r="H16" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I16" s="108" t="s">
@@ -15571,69 +15571,69 @@
         <v>83</v>
       </c>
       <c r="K16" s="99" t="s">
+        <v>459</v>
+      </c>
+      <c r="L16" s="108"/>
+    </row>
+    <row r="17" spans="1:12" ht="57.75">
+      <c r="A17" s="127" t="s">
         <v>460</v>
       </c>
-      <c r="L16" s="108"/>
-    </row>
-    <row r="17" spans="1:12" ht="57.75">
-      <c r="A17" s="128" t="s">
+      <c r="B17" s="75" t="s">
         <v>461</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="C17" s="127" t="s">
         <v>462</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="D17" s="199" t="s">
+        <v>425</v>
+      </c>
+      <c r="E17" s="75" t="s">
         <v>463</v>
       </c>
-      <c r="D17" s="211" t="s">
-        <v>426</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>464</v>
-      </c>
-      <c r="F17" s="130" t="s">
+      <c r="F17" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="130" t="s">
-        <v>428</v>
-      </c>
-      <c r="H17" s="130" t="s">
+      <c r="G17" s="129" t="s">
+        <v>427</v>
+      </c>
+      <c r="H17" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="132" t="s">
+      <c r="I17" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K17" s="99" t="s">
-        <v>465</v>
-      </c>
-      <c r="L17" s="132"/>
+        <v>464</v>
+      </c>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:12" ht="15">
-      <c r="A18" s="124" t="s">
+      <c r="A18" s="123" t="s">
         <v>231</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="123" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="135" t="s">
+      <c r="D18" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="135" t="s">
-        <v>466</v>
-      </c>
-      <c r="F18" s="127" t="s">
+      <c r="E18" s="134" t="s">
+        <v>465</v>
+      </c>
+      <c r="F18" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="127" t="s">
+      <c r="H18" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="108" t="s">
@@ -15643,65 +15643,65 @@
         <v>83</v>
       </c>
       <c r="K18" s="99" t="s">
+        <v>466</v>
+      </c>
+      <c r="L18" s="108"/>
+    </row>
+    <row r="19" spans="1:12" ht="29.25">
+      <c r="A19" s="127" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="127" t="s">
         <v>467</v>
       </c>
-      <c r="L18" s="108"/>
-    </row>
-    <row r="19" spans="1:12" ht="29.25">
-      <c r="A19" s="128" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" s="129" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="128" t="s">
-        <v>468</v>
-      </c>
-      <c r="D19" s="129"/>
+      <c r="D19" s="128"/>
       <c r="E19" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="F19" s="130" t="s">
+      <c r="F19" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="131" t="s">
+      <c r="G19" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="H19" s="130" t="s">
+      <c r="H19" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="132" t="s">
+      <c r="I19" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="108" t="s">
         <v>30</v>
       </c>
       <c r="K19" s="105"/>
-      <c r="L19" s="132"/>
+      <c r="L19" s="131"/>
     </row>
     <row r="20" spans="1:12" ht="144.75">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="123" t="s">
         <v>337</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="123" t="s">
         <v>339</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>469</v>
-      </c>
-      <c r="F20" s="216" t="s">
+        <v>468</v>
+      </c>
+      <c r="F20" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="127" t="s">
+      <c r="G20" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="136">
+      <c r="H20" s="135">
         <v>1</v>
       </c>
       <c r="I20" s="108" t="s">
@@ -15711,69 +15711,69 @@
         <v>83</v>
       </c>
       <c r="K20" s="100" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L20" s="108"/>
     </row>
     <row r="21" spans="1:12" ht="43.5">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="127" t="s">
         <v>252</v>
       </c>
       <c r="B21" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="D21" s="176" t="s">
+      <c r="D21" s="165" t="s">
+        <v>470</v>
+      </c>
+      <c r="E21" s="82" t="s">
         <v>471</v>
       </c>
-      <c r="E21" s="82" t="s">
-        <v>472</v>
-      </c>
-      <c r="F21" s="130" t="s">
+      <c r="F21" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="130" t="s">
+      <c r="G21" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="130" t="s">
+      <c r="H21" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="132" t="s">
+      <c r="I21" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K21" s="99" t="s">
-        <v>473</v>
-      </c>
-      <c r="L21" s="132"/>
+        <v>472</v>
+      </c>
+      <c r="L21" s="131"/>
     </row>
     <row r="22" spans="1:12" ht="57.75">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="123" t="s">
         <v>263</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="123" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="135" t="s">
+      <c r="D22" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="135" t="s">
-        <v>474</v>
-      </c>
-      <c r="F22" s="127" t="s">
+      <c r="E22" s="134" t="s">
+        <v>473</v>
+      </c>
+      <c r="F22" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="127" t="s">
+      <c r="G22" s="126" t="s">
         <v>267</v>
       </c>
-      <c r="H22" s="127" t="s">
+      <c r="H22" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I22" s="108" t="s">
@@ -15786,40 +15786,40 @@
       <c r="L22" s="108"/>
     </row>
     <row r="23" spans="1:12" ht="29.25">
-      <c r="A23" s="128" t="s">
+      <c r="A23" s="127" t="s">
         <v>275</v>
       </c>
       <c r="B23" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="127" t="s">
         <v>277</v>
       </c>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="129" t="s">
-        <v>475</v>
-      </c>
-      <c r="F23" s="130" t="s">
+      <c r="E23" s="128" t="s">
+        <v>474</v>
+      </c>
+      <c r="F23" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="130" t="s">
+      <c r="G23" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="130" t="s">
+      <c r="H23" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="132" t="s">
+      <c r="I23" s="131" t="s">
         <v>61</v>
       </c>
       <c r="J23" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K23" s="99" t="s">
-        <v>476</v>
-      </c>
-      <c r="L23" s="132"/>
+        <v>475</v>
+      </c>
+      <c r="L23" s="131"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="23"/>
@@ -16265,7 +16265,7 @@
     <col min="13" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="225" customFormat="1" ht="57.75">
+    <row r="1" spans="1:12" s="213" customFormat="1" ht="57.75">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -16296,7 +16296,7 @@
       <c r="J1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="226" t="s">
+      <c r="K1" s="214" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="109" t="s">
@@ -16304,7 +16304,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="29.25">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="205" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="75" t="s">
@@ -16317,51 +16317,51 @@
         <v>25</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>477</v>
-      </c>
-      <c r="F2" s="127" t="s">
+        <v>476</v>
+      </c>
+      <c r="F2" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="218" t="s">
+      <c r="H2" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="218" t="s">
+      <c r="I2" s="206" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K2" s="99" t="s">
-        <v>478</v>
-      </c>
-      <c r="L2" s="132"/>
+        <v>477</v>
+      </c>
+      <c r="L2" s="131"/>
     </row>
     <row r="3" spans="1:12" ht="43.5">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="123" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="135" t="s">
+      <c r="D3" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="138" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" s="127" t="s">
+      <c r="E3" s="137" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="108" t="s">
@@ -16371,69 +16371,69 @@
         <v>83</v>
       </c>
       <c r="K3" s="99" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L3" s="108"/>
     </row>
     <row r="4" spans="1:12" ht="29.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="127" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="129" t="s">
-        <v>481</v>
-      </c>
-      <c r="F4" s="130" t="s">
+      <c r="E4" s="128" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="130" t="s">
+      <c r="H4" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="132" t="s">
+      <c r="I4" s="131" t="s">
         <v>69</v>
       </c>
       <c r="J4" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K4" s="100" t="s">
-        <v>482</v>
-      </c>
-      <c r="L4" s="132"/>
+        <v>481</v>
+      </c>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" ht="57.75">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="123" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="138" t="s">
-        <v>483</v>
-      </c>
-      <c r="F5" s="127" t="s">
+      <c r="E5" s="137" t="s">
+        <v>482</v>
+      </c>
+      <c r="F5" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I5" s="108" t="s">
@@ -16446,128 +16446,128 @@
       <c r="L5" s="108"/>
     </row>
     <row r="6" spans="1:12" ht="43.5">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="218" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="219" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="218" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="146" t="s">
+      <c r="E6" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="147" t="s">
+      <c r="F6" s="220" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="147" t="s">
+      <c r="G6" s="220" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="147" t="s">
+      <c r="H6" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="148" t="s">
+      <c r="I6" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="149" t="s">
+      <c r="J6" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="123" t="s">
-        <v>484</v>
-      </c>
-      <c r="L6" s="148"/>
+      <c r="K6" s="229" t="s">
+        <v>483</v>
+      </c>
+      <c r="L6" s="222"/>
     </row>
     <row r="7" spans="1:12" ht="29.25">
-      <c r="A7" s="143"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="151" t="s">
+      <c r="A7" s="218"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="148"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="222"/>
     </row>
     <row r="8" spans="1:12" ht="29.25">
-      <c r="A8" s="143"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="151" t="s">
+      <c r="A8" s="218"/>
+      <c r="B8" s="219"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="148"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="220"/>
+      <c r="H8" s="220"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="229"/>
+      <c r="L8" s="222"/>
     </row>
     <row r="9" spans="1:12" ht="15">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="151" t="s">
+      <c r="A9" s="218"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="148"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="229"/>
+      <c r="L9" s="222"/>
     </row>
     <row r="10" spans="1:12" ht="15">
-      <c r="A10" s="143"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="151" t="s">
+      <c r="A10" s="218"/>
+      <c r="B10" s="219"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="146"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="148"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="220"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="229"/>
+      <c r="L10" s="222"/>
     </row>
     <row r="11" spans="1:12" ht="29.25">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="123" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="135" t="s">
-        <v>485</v>
-      </c>
-      <c r="F11" s="127" t="s">
+      <c r="E11" s="134" t="s">
+        <v>484</v>
+      </c>
+      <c r="F11" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="127" t="s">
+      <c r="G11" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="127" t="s">
+      <c r="H11" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I11" s="108" t="s">
@@ -16577,144 +16577,144 @@
         <v>83</v>
       </c>
       <c r="K11" s="100" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L11" s="108"/>
     </row>
     <row r="12" spans="1:12" ht="29.25">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="129" t="s">
+      <c r="D12" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="129" t="s">
-        <v>486</v>
-      </c>
-      <c r="F12" s="127" t="s">
+      <c r="E12" s="128" t="s">
+        <v>485</v>
+      </c>
+      <c r="F12" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="131" t="s">
+      <c r="G12" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="130" t="s">
+      <c r="H12" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="130" t="s">
+      <c r="I12" s="129" t="s">
         <v>61</v>
       </c>
       <c r="J12" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K12" s="99" t="s">
+        <v>486</v>
+      </c>
+      <c r="L12" s="131"/>
+    </row>
+    <row r="13" spans="1:12" ht="29.25">
+      <c r="A13" s="123" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="134" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="123" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="134" t="s">
         <v>487</v>
       </c>
-      <c r="L12" s="132"/>
-    </row>
-    <row r="13" spans="1:12" ht="29.25">
-      <c r="A13" s="124" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" s="135" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="124" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="135" t="s">
-        <v>488</v>
-      </c>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="127" t="s">
+      <c r="G13" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="H13" s="127" t="s">
+      <c r="H13" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="127" t="s">
+      <c r="I13" s="126" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K13" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="L13" s="108"/>
+    </row>
+    <row r="14" spans="1:12" ht="48.95" customHeight="1">
+      <c r="A14" s="127" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="127" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="127" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="128" t="s">
         <v>489</v>
       </c>
-      <c r="L13" s="108"/>
-    </row>
-    <row r="14" spans="1:12" ht="48.95" customHeight="1">
-      <c r="A14" s="128" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" s="128" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="128" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="129" t="s">
-        <v>490</v>
-      </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="131" t="s">
+      <c r="G14" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="H14" s="219" t="s">
+      <c r="H14" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="219" t="s">
+      <c r="I14" s="207" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K14" s="99" t="s">
+        <v>490</v>
+      </c>
+      <c r="L14" s="131"/>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="123" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="123" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="123" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="123" t="s">
         <v>491</v>
       </c>
-      <c r="L14" s="132"/>
-    </row>
-    <row r="15" spans="1:12" ht="15">
-      <c r="A15" s="124" t="s">
-        <v>275</v>
-      </c>
-      <c r="B15" s="124" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="124" t="s">
-        <v>492</v>
-      </c>
-      <c r="F15" s="130" t="s">
+      <c r="F15" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="127" t="s">
+      <c r="G15" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="127" t="s">
+      <c r="H15" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="127" t="s">
+      <c r="I15" s="126" t="s">
         <v>69</v>
       </c>
       <c r="J15" s="108" t="s">
@@ -16847,17 +16847,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L6:L10"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="J6:J10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="F6:F10"/>
-    <mergeCell ref="L6:L10"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="J6:J10"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F6 F11:F15">
     <cfRule type="cellIs" dxfId="127" priority="7" operator="equal">
@@ -16970,7 +16970,7 @@
     <col min="12" max="12" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="228" customFormat="1" ht="43.5">
+    <row r="1" spans="1:12" s="216" customFormat="1" ht="43.5">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -17001,7 +17001,7 @@
       <c r="J1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="226" t="s">
+      <c r="K1" s="214" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="109" t="s">
@@ -17009,28 +17009,28 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="96.75">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="133" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="159" t="s">
+      <c r="D2" s="151" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>493</v>
-      </c>
-      <c r="F2" s="127" t="s">
+        <v>492</v>
+      </c>
+      <c r="F2" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="127">
+      <c r="H2" s="126">
         <v>1</v>
       </c>
       <c r="I2" s="108" t="s">
@@ -17040,65 +17040,65 @@
         <v>62</v>
       </c>
       <c r="K2" s="108" t="s">
-        <v>494</v>
-      </c>
-      <c r="L2" s="212"/>
+        <v>493</v>
+      </c>
+      <c r="L2" s="200"/>
     </row>
     <row r="3" spans="1:12" ht="29.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="127" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="75"/>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="130" t="s">
+      <c r="H3" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K3" s="107"/>
-      <c r="L3" s="132"/>
+      <c r="L3" s="131"/>
     </row>
     <row r="4" spans="1:12" ht="57.6" customHeight="1">
-      <c r="A4" s="124" t="s">
-        <v>495</v>
+      <c r="A4" s="123" t="s">
+        <v>494</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="220" t="s">
-        <v>496</v>
-      </c>
-      <c r="F4" s="127" t="s">
+      <c r="E4" s="208" t="s">
+        <v>495</v>
+      </c>
+      <c r="F4" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="108" t="s">
@@ -17111,62 +17111,62 @@
       <c r="L4" s="108"/>
     </row>
     <row r="5" spans="1:12" ht="43.5">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="205" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="154" t="s">
-        <v>497</v>
-      </c>
-      <c r="F5" s="130" t="s">
+      <c r="E5" s="146" t="s">
+        <v>496</v>
+      </c>
+      <c r="F5" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="130">
+      <c r="H5" s="129">
         <v>1</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="108" t="s">
         <v>62</v>
       </c>
       <c r="K5" s="107"/>
-      <c r="L5" s="132"/>
+      <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:12" ht="43.5">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="123" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="F6" s="127" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="H6" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="108" t="s">
@@ -17179,60 +17179,60 @@
       <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:12" ht="29.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="127" t="s">
         <v>337</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="127" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="130" t="s">
+      <c r="E7" s="128"/>
+      <c r="F7" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="132" t="s">
+      <c r="I7" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="108" t="s">
         <v>62</v>
       </c>
       <c r="K7" s="108"/>
-      <c r="L7" s="132"/>
+      <c r="L7" s="131"/>
     </row>
     <row r="8" spans="1:12" ht="41.25">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="133" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="83" t="s">
-        <v>499</v>
-      </c>
-      <c r="F8" s="127" t="s">
+        <v>498</v>
+      </c>
+      <c r="F8" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="127" t="s">
+      <c r="G8" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="127" t="s">
+      <c r="H8" s="126" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="108" t="s">
@@ -17242,69 +17242,69 @@
         <v>62</v>
       </c>
       <c r="K8" s="108" t="s">
+        <v>499</v>
+      </c>
+      <c r="L8" s="108"/>
+    </row>
+    <row r="9" spans="1:12" ht="43.5">
+      <c r="A9" s="127" t="s">
         <v>500</v>
       </c>
-      <c r="L8" s="108"/>
-    </row>
-    <row r="9" spans="1:12" ht="43.5">
-      <c r="A9" s="128" t="s">
+      <c r="B9" s="75" t="s">
         <v>501</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="C9" s="127" t="s">
         <v>502</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="D9" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="128" t="s">
         <v>503</v>
       </c>
-      <c r="D9" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="129" t="s">
-        <v>504</v>
-      </c>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="130" t="s">
+      <c r="G9" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="130">
+      <c r="H9" s="129">
         <v>1</v>
       </c>
-      <c r="I9" s="132" t="s">
+      <c r="I9" s="131" t="s">
         <v>69</v>
       </c>
       <c r="J9" s="108" t="s">
         <v>62</v>
       </c>
       <c r="K9" s="107" t="s">
+        <v>504</v>
+      </c>
+      <c r="L9" s="131"/>
+    </row>
+    <row r="10" spans="1:12" ht="43.5">
+      <c r="A10" s="123" t="s">
         <v>505</v>
       </c>
-      <c r="L9" s="132"/>
-    </row>
-    <row r="10" spans="1:12" ht="43.5">
-      <c r="A10" s="124" t="s">
+      <c r="B10" s="35" t="s">
         <v>506</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="C10" s="123" t="s">
         <v>507</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="D10" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>508</v>
       </c>
-      <c r="D10" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="127" t="s">
+      <c r="G10" s="126" t="s">
         <v>358</v>
       </c>
-      <c r="H10" s="136">
+      <c r="H10" s="135">
         <v>1</v>
       </c>
       <c r="I10" s="108" t="s">
@@ -17314,63 +17314,63 @@
         <v>62</v>
       </c>
       <c r="K10" s="107" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L10" s="108"/>
     </row>
     <row r="11" spans="1:12" ht="57.75">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="127" t="s">
+        <v>438</v>
+      </c>
+      <c r="B11" s="75" t="s">
         <v>439</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="C11" s="136" t="s">
         <v>440</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="D11" s="165" t="s">
         <v>441</v>
       </c>
-      <c r="D11" s="176" t="s">
-        <v>442</v>
-      </c>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130" t="s">
+      <c r="E11" s="128"/>
+      <c r="F11" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="130" t="s">
-        <v>444</v>
-      </c>
-      <c r="H11" s="130" t="s">
+      <c r="G11" s="129" t="s">
+        <v>443</v>
+      </c>
+      <c r="H11" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="132" t="s">
+      <c r="I11" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K11" s="108"/>
-      <c r="L11" s="132"/>
+      <c r="L11" s="131"/>
     </row>
     <row r="12" spans="1:12" ht="43.5">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="123" t="s">
+        <v>510</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="C12" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="C12" s="124" t="s">
-        <v>513</v>
-      </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="127" t="s">
+      <c r="E12" s="134"/>
+      <c r="F12" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="127" t="s">
+      <c r="G12" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="127" t="s">
+      <c r="H12" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="108" t="s">
@@ -17383,60 +17383,60 @@
       <c r="L12" s="108"/>
     </row>
     <row r="13" spans="1:12" ht="57.75">
-      <c r="A13" s="217" t="s">
+      <c r="A13" s="205" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="129" t="s">
-        <v>514</v>
-      </c>
-      <c r="F13" s="130" t="s">
+      <c r="E13" s="128" t="s">
+        <v>513</v>
+      </c>
+      <c r="F13" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="130" t="s">
+      <c r="G13" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="130">
+      <c r="H13" s="129">
         <v>1</v>
       </c>
-      <c r="I13" s="132" t="s">
+      <c r="I13" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="108" t="s">
         <v>62</v>
       </c>
       <c r="K13" s="107"/>
-      <c r="L13" s="132"/>
+      <c r="L13" s="131"/>
     </row>
     <row r="14" spans="1:12" ht="29.25">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="123" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="35"/>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="127" t="s">
+      <c r="G14" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="127" t="s">
+      <c r="H14" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="108" t="s">
@@ -17449,62 +17449,62 @@
       <c r="L14" s="108"/>
     </row>
     <row r="15" spans="1:12" ht="72.75">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="127" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" s="75" t="s">
         <v>515</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="C15" s="127" t="s">
         <v>516</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="D15" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="128" t="s">
         <v>517</v>
       </c>
-      <c r="D15" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="129" t="s">
-        <v>518</v>
-      </c>
-      <c r="F15" s="130" t="s">
+      <c r="F15" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="130" t="s">
+      <c r="G15" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="130" t="s">
+      <c r="H15" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="132" t="s">
+      <c r="I15" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K15" s="107"/>
-      <c r="L15" s="132"/>
+      <c r="L15" s="131"/>
     </row>
     <row r="16" spans="1:12" ht="57.75">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="123" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="214" t="s">
+      <c r="D16" s="202" t="s">
         <v>146</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="F16" s="127" t="s">
+        <v>518</v>
+      </c>
+      <c r="F16" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="127" t="s">
+      <c r="H16" s="126" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="108" t="s">
@@ -17517,64 +17517,64 @@
       <c r="L16" s="108"/>
     </row>
     <row r="17" spans="1:12" ht="57.75">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="127" t="s">
         <v>325</v>
       </c>
       <c r="B17" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="127" t="s">
         <v>327</v>
       </c>
-      <c r="D17" s="157" t="s">
+      <c r="D17" s="149" t="s">
         <v>328</v>
       </c>
       <c r="E17" s="81" t="s">
-        <v>520</v>
-      </c>
-      <c r="F17" s="130" t="s">
+        <v>519</v>
+      </c>
+      <c r="F17" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="130" t="s">
+      <c r="G17" s="129" t="s">
         <v>330</v>
       </c>
-      <c r="H17" s="130">
+      <c r="H17" s="129">
         <v>1</v>
       </c>
-      <c r="I17" s="132" t="s">
+      <c r="I17" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="108" t="s">
         <v>62</v>
       </c>
       <c r="K17" s="108" t="s">
-        <v>521</v>
-      </c>
-      <c r="L17" s="132"/>
+        <v>520</v>
+      </c>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:12" ht="57.75">
-      <c r="A18" s="124" t="s">
+      <c r="A18" s="123" t="s">
         <v>168</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="135" t="s">
+      <c r="D18" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="F18" s="127" t="s">
+        <v>521</v>
+      </c>
+      <c r="F18" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="127" t="s">
+      <c r="H18" s="126" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="108" t="s">
@@ -17587,60 +17587,60 @@
       <c r="L18" s="108"/>
     </row>
     <row r="19" spans="1:12" ht="29.25">
-      <c r="A19" s="128" t="s">
+      <c r="A19" s="127" t="s">
         <v>185</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="129"/>
-      <c r="F19" s="130" t="s">
+      <c r="E19" s="128"/>
+      <c r="F19" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="131" t="s">
+      <c r="G19" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="H19" s="130" t="s">
+      <c r="H19" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="132" t="s">
+      <c r="I19" s="131" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="108" t="s">
         <v>62</v>
       </c>
       <c r="K19" s="107"/>
-      <c r="L19" s="132"/>
+      <c r="L19" s="131"/>
     </row>
     <row r="20" spans="1:12" ht="57.75">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="123" t="s">
         <v>203</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="134" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="F20" s="127" t="s">
+        <v>522</v>
+      </c>
+      <c r="F20" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="131" t="s">
+      <c r="G20" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="127">
+      <c r="H20" s="126">
         <v>1</v>
       </c>
       <c r="I20" s="108" t="s">
@@ -17653,64 +17653,64 @@
       <c r="L20" s="108"/>
     </row>
     <row r="21" spans="1:12" ht="57.75">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="127" t="s">
+        <v>523</v>
+      </c>
+      <c r="B21" s="75" t="s">
         <v>524</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="C21" s="127" t="s">
         <v>525</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="D21" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="128" t="s">
         <v>526</v>
       </c>
-      <c r="D21" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="129" t="s">
-        <v>527</v>
-      </c>
-      <c r="F21" s="130" t="s">
+      <c r="F21" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="131" t="s">
+      <c r="G21" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="130" t="s">
+      <c r="H21" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="132" t="s">
+      <c r="I21" s="131" t="s">
         <v>69</v>
       </c>
       <c r="J21" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K21" s="108" t="s">
-        <v>528</v>
-      </c>
-      <c r="L21" s="132"/>
+        <v>527</v>
+      </c>
+      <c r="L21" s="131"/>
     </row>
     <row r="22" spans="1:12" ht="43.5">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="123" t="s">
         <v>269</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="123" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="151" t="s">
         <v>272</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="F22" s="127" t="s">
+        <v>528</v>
+      </c>
+      <c r="F22" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="127" t="s">
+      <c r="G22" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="127" t="s">
+      <c r="H22" s="126" t="s">
         <v>37</v>
       </c>
       <c r="I22" s="108" t="s">
@@ -17723,40 +17723,40 @@
       <c r="L22" s="108"/>
     </row>
     <row r="23" spans="1:12" ht="29.25">
-      <c r="A23" s="128" t="s">
+      <c r="A23" s="127" t="s">
         <v>275</v>
       </c>
       <c r="B23" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="136" t="s">
         <v>277</v>
       </c>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="129" t="s">
-        <v>530</v>
-      </c>
-      <c r="F23" s="130" t="s">
+      <c r="E23" s="128" t="s">
+        <v>529</v>
+      </c>
+      <c r="F23" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="130" t="s">
+      <c r="G23" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="130" t="s">
+      <c r="H23" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="132" t="s">
+      <c r="I23" s="131" t="s">
         <v>69</v>
       </c>
       <c r="J23" s="108" t="s">
         <v>83</v>
       </c>
       <c r="K23" s="107" t="s">
-        <v>531</v>
-      </c>
-      <c r="L23" s="221"/>
+        <v>530</v>
+      </c>
+      <c r="L23" s="209"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="23"/>
@@ -18234,6 +18234,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B1A1CF98C819F4881BB4349588D0C85" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff8ef391852eaca4511043a54bffd4a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfc87205-1831-4b6c-a7b4-76d40079a43e" xmlns:ns3="221af607-abea-4d5e-830c-567dcc03c0ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="201dd8b781da46d5daa37e3355db44fe" ns2:_="" ns3:_="">
     <xsd:import namespace="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
@@ -18476,18 +18488,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -18498,11 +18498,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19A23828-4FF7-4569-837D-B1B2C775409F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19A23828-4FF7-4569-837D-B1B2C775409F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
